--- a/economatica.xlsx
+++ b/economatica.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>Data</t>
   </si>
@@ -27,6 +27,12 @@
 ajust p/ prov
 Em moeda orig
 S&amp;P 500</t>
+  </si>
+  <si>
+    <t>Fechamento
+ajust p/ prov
+Em moeda orig
+DOLOF</t>
   </si>
   <si>
     <t>-</t>
@@ -467,24 +473,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C789"/>
+  <dimension ref="A1:D789"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="2" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15">
       <c r="A1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" ht="15">
       <c r="A2" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="15">
@@ -497,6 +503,9 @@
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" ht="15">
       <c r="A5" s="4">
@@ -508,6 +517,9 @@
       <c r="C5" s="6">
         <v>2840.23</v>
       </c>
+      <c r="D5" s="6">
+        <v>4.1056</v>
+      </c>
     </row>
     <row r="6" ht="15">
       <c r="A6" s="4">
@@ -519,6 +531,9 @@
       <c r="C6" s="6">
         <v>2864.36</v>
       </c>
+      <c r="D6" s="6">
+        <v>4.081</v>
+      </c>
     </row>
     <row r="7" ht="15">
       <c r="A7" s="4">
@@ -530,6 +545,9 @@
       <c r="C7" s="6">
         <v>2856.27</v>
       </c>
+      <c r="D7" s="6">
+        <v>4.0228</v>
+      </c>
     </row>
     <row r="8" ht="15">
       <c r="A8" s="4">
@@ -541,6 +559,9 @@
       <c r="C8" s="6">
         <v>2822.24</v>
       </c>
+      <c r="D8" s="6">
+        <v>4.0513</v>
+      </c>
     </row>
     <row r="9" ht="15">
       <c r="A9" s="4">
@@ -552,6 +573,9 @@
       <c r="C9" s="6">
         <v>2826.06</v>
       </c>
+      <c r="D9" s="6">
+        <v>4.0322</v>
+      </c>
     </row>
     <row r="10" ht="15">
       <c r="A10" s="4">
@@ -561,7 +585,10 @@
         <v>94864.25</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D10" s="6">
+        <v>4.021</v>
       </c>
     </row>
     <row r="11" ht="15">
@@ -574,6 +601,9 @@
       <c r="C11" s="6">
         <v>2802.39</v>
       </c>
+      <c r="D11" s="6">
+        <v>4.0275</v>
+      </c>
     </row>
     <row r="12" ht="15">
       <c r="A12" s="4">
@@ -585,6 +615,9 @@
       <c r="C12" s="6">
         <v>2783.02</v>
       </c>
+      <c r="D12" s="6">
+        <v>3.9965</v>
+      </c>
     </row>
     <row r="13" ht="15">
       <c r="A13" s="4">
@@ -596,6 +629,9 @@
       <c r="C13" s="6">
         <v>2788.86</v>
       </c>
+      <c r="D13" s="6">
+        <v>3.972</v>
+      </c>
     </row>
     <row r="14" ht="15">
       <c r="A14" s="4">
@@ -607,6 +643,9 @@
       <c r="C14" s="6">
         <v>2752.06</v>
       </c>
+      <c r="D14" s="6">
+        <v>3.9407</v>
+      </c>
     </row>
     <row r="15" ht="15">
       <c r="A15" s="4">
@@ -618,6 +657,9 @@
       <c r="C15" s="6">
         <v>2744.45</v>
       </c>
+      <c r="D15" s="6">
+        <v>3.9003</v>
+      </c>
     </row>
     <row r="16" ht="15">
       <c r="A16" s="4">
@@ -629,6 +671,9 @@
       <c r="C16" s="6">
         <v>2803.27</v>
       </c>
+      <c r="D16" s="6">
+        <v>3.871</v>
+      </c>
     </row>
     <row r="17" ht="15">
       <c r="A17" s="4">
@@ -640,6 +685,9 @@
       <c r="C17" s="6">
         <v>2826.15</v>
       </c>
+      <c r="D17" s="6">
+        <v>3.8611</v>
+      </c>
     </row>
     <row r="18" ht="15">
       <c r="A18" s="4">
@@ -651,6 +699,9 @@
       <c r="C18" s="6">
         <v>2843.49</v>
       </c>
+      <c r="D18" s="6">
+        <v>3.8726</v>
+      </c>
     </row>
     <row r="19" ht="15">
       <c r="A19" s="4">
@@ -662,6 +713,9 @@
       <c r="C19" s="6">
         <v>2873.34</v>
       </c>
+      <c r="D19" s="6">
+        <v>3.8571</v>
+      </c>
     </row>
     <row r="20" ht="15">
       <c r="A20" s="4">
@@ -673,6 +727,9 @@
       <c r="C20" s="6">
         <v>2886.73</v>
       </c>
+      <c r="D20" s="6">
+        <v>3.879</v>
+      </c>
     </row>
     <row r="21" ht="15">
       <c r="A21" s="4">
@@ -684,6 +741,9 @@
       <c r="C21" s="6">
         <v>2885.72</v>
       </c>
+      <c r="D21" s="6">
+        <v>3.8664</v>
+      </c>
     </row>
     <row r="22" ht="15">
       <c r="A22" s="4">
@@ -695,6 +755,9 @@
       <c r="C22" s="6">
         <v>2879.84</v>
       </c>
+      <c r="D22" s="6">
+        <v>3.8437</v>
+      </c>
     </row>
     <row r="23" ht="15">
       <c r="A23" s="4">
@@ -706,6 +769,9 @@
       <c r="C23" s="6">
         <v>2891.64</v>
       </c>
+      <c r="D23" s="6">
+        <v>3.8429</v>
+      </c>
     </row>
     <row r="24" ht="15">
       <c r="A24" s="4">
@@ -717,6 +783,9 @@
       <c r="C24" s="6">
         <v>2886.98</v>
       </c>
+      <c r="D24" s="6">
+        <v>3.8813</v>
+      </c>
     </row>
     <row r="25" ht="15">
       <c r="A25" s="4">
@@ -728,6 +797,9 @@
       <c r="C25" s="6">
         <v>2889.67</v>
       </c>
+      <c r="D25" s="6">
+        <v>3.8895</v>
+      </c>
     </row>
     <row r="26" ht="15">
       <c r="A26" s="4">
@@ -739,6 +811,9 @@
       <c r="C26" s="6">
         <v>2917.75</v>
       </c>
+      <c r="D26" s="6">
+        <v>3.8608</v>
+      </c>
     </row>
     <row r="27" ht="15">
       <c r="A27" s="4">
@@ -750,16 +825,22 @@
       <c r="C27" s="6">
         <v>2926.46</v>
       </c>
+      <c r="D27" s="6">
+        <v>3.8723</v>
+      </c>
     </row>
     <row r="28" ht="15">
       <c r="A28" s="4">
         <v>43636</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" s="6">
         <v>2954.18</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" ht="15">
@@ -772,6 +853,9 @@
       <c r="C29" s="6">
         <v>2950.46</v>
       </c>
+      <c r="D29" s="6">
+        <v>3.8255</v>
+      </c>
     </row>
     <row r="30" ht="15">
       <c r="A30" s="4">
@@ -783,6 +867,9 @@
       <c r="C30" s="6">
         <v>2945.35</v>
       </c>
+      <c r="D30" s="6">
+        <v>3.8234</v>
+      </c>
     </row>
     <row r="31" ht="15">
       <c r="A31" s="4">
@@ -794,6 +881,9 @@
       <c r="C31" s="6">
         <v>2917.38</v>
       </c>
+      <c r="D31" s="6">
+        <v>3.8303</v>
+      </c>
     </row>
     <row r="32" ht="15">
       <c r="A32" s="4">
@@ -805,6 +895,9 @@
       <c r="C32" s="6">
         <v>2913.78</v>
       </c>
+      <c r="D32" s="6">
+        <v>3.8441</v>
+      </c>
     </row>
     <row r="33" ht="15">
       <c r="A33" s="4">
@@ -816,6 +909,9 @@
       <c r="C33" s="6">
         <v>2924.92</v>
       </c>
+      <c r="D33" s="6">
+        <v>3.8642</v>
+      </c>
     </row>
     <row r="34" ht="15">
       <c r="A34" s="4">
@@ -827,6 +923,9 @@
       <c r="C34" s="6">
         <v>2941.76</v>
       </c>
+      <c r="D34" s="6">
+        <v>3.8322</v>
+      </c>
     </row>
     <row r="35" ht="15">
       <c r="A35" s="4">
@@ -838,6 +937,9 @@
       <c r="C35" s="6">
         <v>2964.33</v>
       </c>
+      <c r="D35" s="6">
+        <v>3.8193</v>
+      </c>
     </row>
     <row r="36" ht="15">
       <c r="A36" s="4">
@@ -849,6 +951,9 @@
       <c r="C36" s="6">
         <v>2973.01</v>
       </c>
+      <c r="D36" s="6">
+        <v>3.8564</v>
+      </c>
     </row>
     <row r="37" ht="15">
       <c r="A37" s="4">
@@ -860,6 +965,9 @@
       <c r="C37" s="6">
         <v>2995.82</v>
       </c>
+      <c r="D37" s="6">
+        <v>3.8475</v>
+      </c>
     </row>
     <row r="38" ht="15">
       <c r="A38" s="4">
@@ -869,7 +977,10 @@
         <v>103636.17</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D38" s="6">
+        <v>3.794</v>
       </c>
     </row>
     <row r="39" ht="15">
@@ -882,6 +993,9 @@
       <c r="C39" s="6">
         <v>2990.41</v>
       </c>
+      <c r="D39" s="6">
+        <v>3.8204</v>
+      </c>
     </row>
     <row r="40" ht="15">
       <c r="A40" s="4">
@@ -893,16 +1007,22 @@
       <c r="C40" s="6">
         <v>2975.95</v>
       </c>
+      <c r="D40" s="6">
+        <v>3.8065</v>
+      </c>
     </row>
     <row r="41" ht="15">
       <c r="A41" s="4">
         <v>43655</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41" s="6">
         <v>2979.63</v>
+      </c>
+      <c r="D41" s="6">
+        <v>3.7858</v>
       </c>
     </row>
     <row r="42" ht="15">
@@ -915,6 +1035,9 @@
       <c r="C42" s="6">
         <v>2993.07</v>
       </c>
+      <c r="D42" s="6">
+        <v>3.7697</v>
+      </c>
     </row>
     <row r="43" ht="15">
       <c r="A43" s="4">
@@ -926,6 +1049,9 @@
       <c r="C43" s="6">
         <v>2999.91</v>
       </c>
+      <c r="D43" s="6">
+        <v>3.7533</v>
+      </c>
     </row>
     <row r="44" ht="15">
       <c r="A44" s="4">
@@ -937,6 +1063,9 @@
       <c r="C44" s="6">
         <v>3013.77</v>
       </c>
+      <c r="D44" s="6">
+        <v>3.7452</v>
+      </c>
     </row>
     <row r="45" ht="15">
       <c r="A45" s="4">
@@ -948,6 +1077,9 @@
       <c r="C45" s="6">
         <v>3014.3</v>
       </c>
+      <c r="D45" s="6">
+        <v>3.7463</v>
+      </c>
     </row>
     <row r="46" ht="15">
       <c r="A46" s="4">
@@ -959,6 +1091,9 @@
       <c r="C46" s="6">
         <v>3004.04</v>
       </c>
+      <c r="D46" s="6">
+        <v>3.7624</v>
+      </c>
     </row>
     <row r="47" ht="15">
       <c r="A47" s="4">
@@ -970,6 +1105,9 @@
       <c r="C47" s="6">
         <v>2984.42</v>
       </c>
+      <c r="D47" s="6">
+        <v>3.7618</v>
+      </c>
     </row>
     <row r="48" ht="15">
       <c r="A48" s="4">
@@ -981,6 +1119,9 @@
       <c r="C48" s="6">
         <v>2995.11</v>
       </c>
+      <c r="D48" s="6">
+        <v>3.7489</v>
+      </c>
     </row>
     <row r="49" ht="15">
       <c r="A49" s="4">
@@ -992,6 +1133,9 @@
       <c r="C49" s="6">
         <v>2976.61</v>
       </c>
+      <c r="D49" s="6">
+        <v>3.7408</v>
+      </c>
     </row>
     <row r="50" ht="15">
       <c r="A50" s="4">
@@ -1003,6 +1147,9 @@
       <c r="C50" s="6">
         <v>2985.03</v>
       </c>
+      <c r="D50" s="6">
+        <v>3.74</v>
+      </c>
     </row>
     <row r="51" ht="15">
       <c r="A51" s="4">
@@ -1014,6 +1161,9 @@
       <c r="C51" s="6">
         <v>3005.47</v>
       </c>
+      <c r="D51" s="6">
+        <v>3.7621</v>
+      </c>
     </row>
     <row r="52" ht="15">
       <c r="A52" s="4">
@@ -1025,6 +1175,9 @@
       <c r="C52" s="6">
         <v>3019.56</v>
       </c>
+      <c r="D52" s="6">
+        <v>3.7596</v>
+      </c>
     </row>
     <row r="53" ht="15">
       <c r="A53" s="4">
@@ -1036,6 +1189,9 @@
       <c r="C53" s="6">
         <v>3003.67</v>
       </c>
+      <c r="D53" s="6">
+        <v>3.7849</v>
+      </c>
     </row>
     <row r="54" ht="15">
       <c r="A54" s="4">
@@ -1047,6 +1203,9 @@
       <c r="C54" s="6">
         <v>3025.86</v>
       </c>
+      <c r="D54" s="6">
+        <v>3.7741</v>
+      </c>
     </row>
     <row r="55" ht="15">
       <c r="A55" s="4">
@@ -1058,6 +1217,9 @@
       <c r="C55" s="6">
         <v>3020.97</v>
       </c>
+      <c r="D55" s="6">
+        <v>3.7909</v>
+      </c>
     </row>
     <row r="56" ht="15">
       <c r="A56" s="4">
@@ -1069,6 +1231,9 @@
       <c r="C56" s="6">
         <v>3013.18</v>
       </c>
+      <c r="D56" s="6">
+        <v>3.79</v>
+      </c>
     </row>
     <row r="57" ht="15">
       <c r="A57" s="4">
@@ -1080,6 +1245,9 @@
       <c r="C57" s="6">
         <v>2980.38</v>
       </c>
+      <c r="D57" s="6">
+        <v>3.7649</v>
+      </c>
     </row>
     <row r="58" ht="15">
       <c r="A58" s="4">
@@ -1091,6 +1259,9 @@
       <c r="C58" s="6">
         <v>2953.56</v>
       </c>
+      <c r="D58" s="6">
+        <v>3.8296</v>
+      </c>
     </row>
     <row r="59" ht="15">
       <c r="A59" s="4">
@@ -1102,6 +1273,9 @@
       <c r="C59" s="6">
         <v>2932.05</v>
       </c>
+      <c r="D59" s="6">
+        <v>3.8739</v>
+      </c>
     </row>
     <row r="60" ht="15">
       <c r="A60" s="4">
@@ -1113,6 +1287,9 @@
       <c r="C60" s="6">
         <v>2844.74</v>
       </c>
+      <c r="D60" s="6">
+        <v>3.9404</v>
+      </c>
     </row>
     <row r="61" ht="15">
       <c r="A61" s="4">
@@ -1124,6 +1301,9 @@
       <c r="C61" s="6">
         <v>2881.77</v>
       </c>
+      <c r="D61" s="6">
+        <v>3.9643</v>
+      </c>
     </row>
     <row r="62" ht="15">
       <c r="A62" s="4">
@@ -1135,6 +1315,9 @@
       <c r="C62" s="6">
         <v>2883.98</v>
       </c>
+      <c r="D62" s="6">
+        <v>3.985</v>
+      </c>
     </row>
     <row r="63" ht="15">
       <c r="A63" s="4">
@@ -1146,6 +1329,9 @@
       <c r="C63" s="6">
         <v>2938.09</v>
       </c>
+      <c r="D63" s="6">
+        <v>3.9409</v>
+      </c>
     </row>
     <row r="64" ht="15">
       <c r="A64" s="4">
@@ -1157,6 +1343,9 @@
       <c r="C64" s="6">
         <v>2918.65</v>
       </c>
+      <c r="D64" s="6">
+        <v>3.9362</v>
+      </c>
     </row>
     <row r="65" ht="15">
       <c r="A65" s="4">
@@ -1168,6 +1357,9 @@
       <c r="C65" s="6">
         <v>2882.7</v>
       </c>
+      <c r="D65" s="6">
+        <v>3.9966</v>
+      </c>
     </row>
     <row r="66" ht="15">
       <c r="A66" s="4">
@@ -1179,6 +1371,9 @@
       <c r="C66" s="6">
         <v>2926.32</v>
       </c>
+      <c r="D66" s="6">
+        <v>3.9736</v>
+      </c>
     </row>
     <row r="67" ht="15">
       <c r="A67" s="4">
@@ -1190,6 +1385,9 @@
       <c r="C67" s="6">
         <v>2840.6</v>
       </c>
+      <c r="D67" s="6">
+        <v>4.0074</v>
+      </c>
     </row>
     <row r="68" ht="15">
       <c r="A68" s="4">
@@ -1201,6 +1399,9 @@
       <c r="C68" s="6">
         <v>2847.6</v>
       </c>
+      <c r="D68" s="6">
+        <v>4.0188</v>
+      </c>
     </row>
     <row r="69" ht="15">
       <c r="A69" s="4">
@@ -1212,6 +1413,9 @@
       <c r="C69" s="6">
         <v>2888.68</v>
       </c>
+      <c r="D69" s="6">
+        <v>3.9933</v>
+      </c>
     </row>
     <row r="70" ht="15">
       <c r="A70" s="4">
@@ -1223,6 +1427,9 @@
       <c r="C70" s="6">
         <v>2923.65</v>
       </c>
+      <c r="D70" s="6">
+        <v>4.0274</v>
+      </c>
     </row>
     <row r="71" ht="15">
       <c r="A71" s="4">
@@ -1234,6 +1441,9 @@
       <c r="C71" s="6">
         <v>2900.51</v>
       </c>
+      <c r="D71" s="6">
+        <v>4.0425</v>
+      </c>
     </row>
     <row r="72" ht="15">
       <c r="A72" s="4">
@@ -1245,6 +1455,9 @@
       <c r="C72" s="6">
         <v>2924.43</v>
       </c>
+      <c r="D72" s="6">
+        <v>4.0254</v>
+      </c>
     </row>
     <row r="73" ht="15">
       <c r="A73" s="4">
@@ -1256,6 +1469,9 @@
       <c r="C73" s="6">
         <v>2922.95</v>
       </c>
+      <c r="D73" s="6">
+        <v>4.0444</v>
+      </c>
     </row>
     <row r="74" ht="15">
       <c r="A74" s="4">
@@ -1267,6 +1483,9 @@
       <c r="C74" s="6">
         <v>2847.11</v>
       </c>
+      <c r="D74" s="6">
+        <v>4.0851</v>
+      </c>
     </row>
     <row r="75" ht="15">
       <c r="A75" s="4">
@@ -1278,6 +1497,9 @@
       <c r="C75" s="6">
         <v>2878.38</v>
       </c>
+      <c r="D75" s="6">
+        <v>4.1367</v>
+      </c>
     </row>
     <row r="76" ht="15">
       <c r="A76" s="4">
@@ -1289,6 +1511,9 @@
       <c r="C76" s="6">
         <v>2869.16</v>
       </c>
+      <c r="D76" s="6">
+        <v>4.1557</v>
+      </c>
     </row>
     <row r="77" ht="15">
       <c r="A77" s="4">
@@ -1300,6 +1525,9 @@
       <c r="C77" s="6">
         <v>2887.94</v>
       </c>
+      <c r="D77" s="6">
+        <v>4.1559</v>
+      </c>
     </row>
     <row r="78" ht="15">
       <c r="A78" s="4">
@@ -1311,6 +1539,9 @@
       <c r="C78" s="6">
         <v>2924.58</v>
       </c>
+      <c r="D78" s="6">
+        <v>4.168</v>
+      </c>
     </row>
     <row r="79" ht="15">
       <c r="A79" s="4">
@@ -1322,6 +1553,9 @@
       <c r="C79" s="6">
         <v>2926.46</v>
       </c>
+      <c r="D79" s="6">
+        <v>4.1385</v>
+      </c>
     </row>
     <row r="80" ht="15">
       <c r="A80" s="4">
@@ -1331,7 +1565,10 @@
         <v>100625.74</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D80" s="6">
+        <v>4.1581</v>
       </c>
     </row>
     <row r="81" ht="15">
@@ -1344,6 +1581,9 @@
       <c r="C81" s="6">
         <v>2906.27</v>
       </c>
+      <c r="D81" s="6">
+        <v>4.1657</v>
+      </c>
     </row>
     <row r="82" ht="15">
       <c r="A82" s="4">
@@ -1355,6 +1595,9 @@
       <c r="C82" s="6">
         <v>2937.78</v>
       </c>
+      <c r="D82" s="6">
+        <v>4.1249</v>
+      </c>
     </row>
     <row r="83" ht="15">
       <c r="A83" s="4">
@@ -1366,6 +1609,9 @@
       <c r="C83" s="6">
         <v>2976</v>
       </c>
+      <c r="D83" s="6">
+        <v>4.0859</v>
+      </c>
     </row>
     <row r="84" ht="15">
       <c r="A84" s="4">
@@ -1377,6 +1623,9 @@
       <c r="C84" s="6">
         <v>2978.71</v>
       </c>
+      <c r="D84" s="6">
+        <v>4.065</v>
+      </c>
     </row>
     <row r="85" ht="15">
       <c r="A85" s="4">
@@ -1388,6 +1637,9 @@
       <c r="C85" s="6">
         <v>2978.43</v>
       </c>
+      <c r="D85" s="6">
+        <v>4.0766</v>
+      </c>
     </row>
     <row r="86" ht="15">
       <c r="A86" s="4">
@@ -1399,6 +1651,9 @@
       <c r="C86" s="6">
         <v>2979.39</v>
       </c>
+      <c r="D86" s="6">
+        <v>4.1108</v>
+      </c>
     </row>
     <row r="87" ht="15">
       <c r="A87" s="4">
@@ -1410,6 +1665,9 @@
       <c r="C87" s="6">
         <v>3000.93</v>
       </c>
+      <c r="D87" s="6">
+        <v>4.0631</v>
+      </c>
     </row>
     <row r="88" ht="15">
       <c r="A88" s="4">
@@ -1421,6 +1679,9 @@
       <c r="C88" s="6">
         <v>3009.57</v>
       </c>
+      <c r="D88" s="6">
+        <v>4.0494</v>
+      </c>
     </row>
     <row r="89" ht="15">
       <c r="A89" s="4">
@@ -1432,6 +1693,9 @@
       <c r="C89" s="6">
         <v>3007.39</v>
       </c>
+      <c r="D89" s="6">
+        <v>4.0616</v>
+      </c>
     </row>
     <row r="90" ht="15">
       <c r="A90" s="4">
@@ -1443,6 +1707,9 @@
       <c r="C90" s="6">
         <v>2997.96</v>
       </c>
+      <c r="D90" s="6">
+        <v>4.0872</v>
+      </c>
     </row>
     <row r="91" ht="15">
       <c r="A91" s="4">
@@ -1454,6 +1721,9 @@
       <c r="C91" s="6">
         <v>3005.7</v>
       </c>
+      <c r="D91" s="6">
+        <v>4.0998</v>
+      </c>
     </row>
     <row r="92" ht="15">
       <c r="A92" s="4">
@@ -1465,6 +1735,9 @@
       <c r="C92" s="6">
         <v>3006.73</v>
       </c>
+      <c r="D92" s="6">
+        <v>4.0972</v>
+      </c>
     </row>
     <row r="93" ht="15">
       <c r="A93" s="4">
@@ -1476,6 +1749,9 @@
       <c r="C93" s="6">
         <v>3006.79</v>
       </c>
+      <c r="D93" s="6">
+        <v>4.1393</v>
+      </c>
     </row>
     <row r="94" ht="15">
       <c r="A94" s="4">
@@ -1487,6 +1763,9 @@
       <c r="C94" s="6">
         <v>2992.07</v>
       </c>
+      <c r="D94" s="6">
+        <v>4.1687</v>
+      </c>
     </row>
     <row r="95" ht="15">
       <c r="A95" s="4">
@@ -1498,6 +1777,9 @@
       <c r="C95" s="6">
         <v>2991.77</v>
       </c>
+      <c r="D95" s="6">
+        <v>4.1734</v>
+      </c>
     </row>
     <row r="96" ht="15">
       <c r="A96" s="4">
@@ -1509,6 +1791,9 @@
       <c r="C96" s="6">
         <v>2966.6</v>
       </c>
+      <c r="D96" s="6">
+        <v>4.1721</v>
+      </c>
     </row>
     <row r="97" ht="15">
       <c r="A97" s="4">
@@ -1520,6 +1805,9 @@
       <c r="C97" s="6">
         <v>2984.87</v>
       </c>
+      <c r="D97" s="6">
+        <v>4.1827</v>
+      </c>
     </row>
     <row r="98" ht="15">
       <c r="A98" s="4">
@@ -1531,6 +1819,9 @@
       <c r="C98" s="6">
         <v>2977.65</v>
       </c>
+      <c r="D98" s="6">
+        <v>4.1469</v>
+      </c>
     </row>
     <row r="99" ht="15">
       <c r="A99" s="4">
@@ -1542,6 +1833,9 @@
       <c r="C99" s="6">
         <v>2961.79</v>
       </c>
+      <c r="D99" s="6">
+        <v>4.1587</v>
+      </c>
     </row>
     <row r="100" ht="15">
       <c r="A100" s="4">
@@ -1553,6 +1847,9 @@
       <c r="C100" s="6">
         <v>2976.71</v>
       </c>
+      <c r="D100" s="6">
+        <v>4.1644</v>
+      </c>
     </row>
     <row r="101" ht="15">
       <c r="A101" s="4">
@@ -1564,6 +1861,9 @@
       <c r="C101" s="6">
         <v>2940.16</v>
       </c>
+      <c r="D101" s="6">
+        <v>4.174</v>
+      </c>
     </row>
     <row r="102" ht="15">
       <c r="A102" s="4">
@@ -1575,6 +1875,9 @@
       <c r="C102" s="6">
         <v>2887.61</v>
       </c>
+      <c r="D102" s="6">
+        <v>4.1546</v>
+      </c>
     </row>
     <row r="103" ht="15">
       <c r="A103" s="4">
@@ -1586,6 +1889,9 @@
       <c r="C103" s="6">
         <v>2910.63</v>
       </c>
+      <c r="D103" s="6">
+        <v>4.1012</v>
+      </c>
     </row>
     <row r="104" ht="15">
       <c r="A104" s="4">
@@ -1597,6 +1903,9 @@
       <c r="C104" s="6">
         <v>2951.98</v>
       </c>
+      <c r="D104" s="6">
+        <v>4.061</v>
+      </c>
     </row>
     <row r="105" ht="15">
       <c r="A105" s="4">
@@ -1608,6 +1917,9 @@
       <c r="C105" s="6">
         <v>2938.79</v>
       </c>
+      <c r="D105" s="6">
+        <v>4.0688</v>
+      </c>
     </row>
     <row r="106" ht="15">
       <c r="A106" s="4">
@@ -1619,6 +1931,9 @@
       <c r="C106" s="6">
         <v>2893.06</v>
       </c>
+      <c r="D106" s="6">
+        <v>4.0868</v>
+      </c>
     </row>
     <row r="107" ht="15">
       <c r="A107" s="4">
@@ -1630,6 +1945,9 @@
       <c r="C107" s="6">
         <v>2919.4</v>
       </c>
+      <c r="D107" s="6">
+        <v>4.0954</v>
+      </c>
     </row>
     <row r="108" ht="15">
       <c r="A108" s="4">
@@ -1641,6 +1959,9 @@
       <c r="C108" s="6">
         <v>2938.13</v>
       </c>
+      <c r="D108" s="6">
+        <v>4.1145</v>
+      </c>
     </row>
     <row r="109" ht="15">
       <c r="A109" s="4">
@@ -1652,6 +1973,9 @@
       <c r="C109" s="6">
         <v>2970.17</v>
       </c>
+      <c r="D109" s="6">
+        <v>4.106</v>
+      </c>
     </row>
     <row r="110" ht="15">
       <c r="A110" s="4">
@@ -1663,6 +1987,9 @@
       <c r="C110" s="6">
         <v>2966.15</v>
       </c>
+      <c r="D110" s="6">
+        <v>4.1263</v>
+      </c>
     </row>
     <row r="111" ht="15">
       <c r="A111" s="4">
@@ -1674,6 +2001,9 @@
       <c r="C111" s="6">
         <v>2995.68</v>
       </c>
+      <c r="D111" s="6">
+        <v>4.1488</v>
+      </c>
     </row>
     <row r="112" ht="15">
       <c r="A112" s="4">
@@ -1685,6 +2015,9 @@
       <c r="C112" s="6">
         <v>2989.69</v>
       </c>
+      <c r="D112" s="6">
+        <v>4.1714</v>
+      </c>
     </row>
     <row r="113" ht="15">
       <c r="A113" s="4">
@@ -1696,6 +2029,9 @@
       <c r="C113" s="6">
         <v>2997.95</v>
       </c>
+      <c r="D113" s="6">
+        <v>4.1457</v>
+      </c>
     </row>
     <row r="114" ht="15">
       <c r="A114" s="4">
@@ -1707,6 +2043,9 @@
       <c r="C114" s="6">
         <v>2986.2</v>
       </c>
+      <c r="D114" s="6">
+        <v>4.1376</v>
+      </c>
     </row>
     <row r="115" ht="15">
       <c r="A115" s="4">
@@ -1718,6 +2057,9 @@
       <c r="C115" s="6">
         <v>3006.72</v>
       </c>
+      <c r="D115" s="6">
+        <v>4.1319</v>
+      </c>
     </row>
     <row r="116" ht="15">
       <c r="A116" s="4">
@@ -1729,6 +2071,9 @@
       <c r="C116" s="6">
         <v>2995.99</v>
       </c>
+      <c r="D116" s="6">
+        <v>4.0858</v>
+      </c>
     </row>
     <row r="117" ht="15">
       <c r="A117" s="4">
@@ -1740,6 +2085,9 @@
       <c r="C117" s="6">
         <v>3004.52</v>
       </c>
+      <c r="D117" s="6">
+        <v>4.0721</v>
+      </c>
     </row>
     <row r="118" ht="15">
       <c r="A118" s="4">
@@ -1751,6 +2099,9 @@
       <c r="C118" s="6">
         <v>3010.29</v>
       </c>
+      <c r="D118" s="6">
+        <v>4.0089</v>
+      </c>
     </row>
     <row r="119" ht="15">
       <c r="A119" s="4">
@@ -1762,6 +2113,9 @@
       <c r="C119" s="6">
         <v>3022.55</v>
       </c>
+      <c r="D119" s="6">
+        <v>4.0133</v>
+      </c>
     </row>
     <row r="120" ht="15">
       <c r="A120" s="4">
@@ -1773,6 +2127,9 @@
       <c r="C120" s="6">
         <v>3039.42</v>
       </c>
+      <c r="D120" s="6">
+        <v>3.9793</v>
+      </c>
     </row>
     <row r="121" ht="15">
       <c r="A121" s="4">
@@ -1784,6 +2141,9 @@
       <c r="C121" s="6">
         <v>3036.89</v>
       </c>
+      <c r="D121" s="6">
+        <v>3.9946</v>
+      </c>
     </row>
     <row r="122" ht="15">
       <c r="A122" s="4">
@@ -1795,6 +2155,9 @@
       <c r="C122" s="6">
         <v>3046.77</v>
       </c>
+      <c r="D122" s="6">
+        <v>4.0186</v>
+      </c>
     </row>
     <row r="123" ht="15">
       <c r="A123" s="4">
@@ -1806,6 +2169,9 @@
       <c r="C123" s="6">
         <v>3037.56</v>
       </c>
+      <c r="D123" s="6">
+        <v>4.0041</v>
+      </c>
     </row>
     <row r="124" ht="15">
       <c r="A124" s="4">
@@ -1817,6 +2183,9 @@
       <c r="C124" s="6">
         <v>3066.91</v>
       </c>
+      <c r="D124" s="6">
+        <v>3.9786</v>
+      </c>
     </row>
     <row r="125" ht="15">
       <c r="A125" s="4">
@@ -1828,6 +2197,9 @@
       <c r="C125" s="6">
         <v>3078.27</v>
       </c>
+      <c r="D125" s="6">
+        <v>3.9922</v>
+      </c>
     </row>
     <row r="126" ht="15">
       <c r="A126" s="4">
@@ -1839,6 +2211,9 @@
       <c r="C126" s="6">
         <v>3074.62</v>
       </c>
+      <c r="D126" s="6">
+        <v>4.0043</v>
+      </c>
     </row>
     <row r="127" ht="15">
       <c r="A127" s="4">
@@ -1850,6 +2225,9 @@
       <c r="C127" s="6">
         <v>3076.78</v>
       </c>
+      <c r="D127" s="6">
+        <v>4.0351</v>
+      </c>
     </row>
     <row r="128" ht="15">
       <c r="A128" s="4">
@@ -1861,6 +2239,9 @@
       <c r="C128" s="6">
         <v>3085.18</v>
       </c>
+      <c r="D128" s="6">
+        <v>4.0927</v>
+      </c>
     </row>
     <row r="129" ht="15">
       <c r="A129" s="4">
@@ -1872,6 +2253,9 @@
       <c r="C129" s="6">
         <v>3093.08</v>
       </c>
+      <c r="D129" s="6">
+        <v>4.1365</v>
+      </c>
     </row>
     <row r="130" ht="15">
       <c r="A130" s="4">
@@ -1883,6 +2267,9 @@
       <c r="C130" s="6">
         <v>3087.01</v>
       </c>
+      <c r="D130" s="6">
+        <v>4.1559</v>
+      </c>
     </row>
     <row r="131" ht="15">
       <c r="A131" s="4">
@@ -1894,6 +2281,9 @@
       <c r="C131" s="6">
         <v>3091.84</v>
       </c>
+      <c r="D131" s="6">
+        <v>4.1756</v>
+      </c>
     </row>
     <row r="132" ht="15">
       <c r="A132" s="4">
@@ -1905,6 +2295,9 @@
       <c r="C132" s="6">
         <v>3094.04</v>
       </c>
+      <c r="D132" s="6">
+        <v>4.1767</v>
+      </c>
     </row>
     <row r="133" ht="15">
       <c r="A133" s="4">
@@ -1916,16 +2309,22 @@
       <c r="C133" s="6">
         <v>3096.63</v>
       </c>
+      <c r="D133" s="6">
+        <v>4.1831</v>
+      </c>
     </row>
     <row r="134" ht="15">
       <c r="A134" s="4">
         <v>43784</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C134" s="6">
         <v>3120.46</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="135" ht="15">
@@ -1938,6 +2337,9 @@
       <c r="C135" s="6">
         <v>3122.03</v>
       </c>
+      <c r="D135" s="6">
+        <v>4.1827</v>
+      </c>
     </row>
     <row r="136" ht="15">
       <c r="A136" s="4">
@@ -1949,16 +2351,22 @@
       <c r="C136" s="6">
         <v>3120.18</v>
       </c>
+      <c r="D136" s="6">
+        <v>4.2084</v>
+      </c>
     </row>
     <row r="137" ht="15">
       <c r="A137" s="4">
         <v>43789</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C137" s="6">
         <v>3108.46</v>
+      </c>
+      <c r="D137" s="6">
+        <v>4.2037</v>
       </c>
     </row>
     <row r="138" ht="15">
@@ -1971,6 +2379,9 @@
       <c r="C138" s="6">
         <v>3103.54</v>
       </c>
+      <c r="D138" s="6">
+        <v>4.2012</v>
+      </c>
     </row>
     <row r="139" ht="15">
       <c r="A139" s="4">
@@ -1982,6 +2393,9 @@
       <c r="C139" s="6">
         <v>3110.29</v>
       </c>
+      <c r="D139" s="6">
+        <v>4.1832</v>
+      </c>
     </row>
     <row r="140" ht="15">
       <c r="A140" s="4">
@@ -1993,6 +2407,9 @@
       <c r="C140" s="6">
         <v>3133.64</v>
       </c>
+      <c r="D140" s="6">
+        <v>4.2089</v>
+      </c>
     </row>
     <row r="141" ht="15">
       <c r="A141" s="4">
@@ -2004,6 +2421,9 @@
       <c r="C141" s="6">
         <v>3140.52</v>
       </c>
+      <c r="D141" s="6">
+        <v>4.2559</v>
+      </c>
     </row>
     <row r="142" ht="15">
       <c r="A142" s="4">
@@ -2015,6 +2435,9 @@
       <c r="C142" s="6">
         <v>3153.63</v>
       </c>
+      <c r="D142" s="6">
+        <v>4.2602</v>
+      </c>
     </row>
     <row r="143" ht="15">
       <c r="A143" s="4">
@@ -2024,7 +2447,10 @@
         <v>108290.09</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D143" s="6">
+        <v>4.248</v>
       </c>
     </row>
     <row r="144" ht="15">
@@ -2037,6 +2463,9 @@
       <c r="C144" s="6">
         <v>3140.98</v>
       </c>
+      <c r="D144" s="6">
+        <v>4.224</v>
+      </c>
     </row>
     <row r="145" ht="15">
       <c r="A145" s="4">
@@ -2048,6 +2477,9 @@
       <c r="C145" s="6">
         <v>3113.87</v>
       </c>
+      <c r="D145" s="6">
+        <v>4.2261</v>
+      </c>
     </row>
     <row r="146" ht="15">
       <c r="A146" s="4">
@@ -2059,6 +2491,9 @@
       <c r="C146" s="6">
         <v>3093.2</v>
       </c>
+      <c r="D146" s="6">
+        <v>4.2008</v>
+      </c>
     </row>
     <row r="147" ht="15">
       <c r="A147" s="4">
@@ -2070,6 +2505,9 @@
       <c r="C147" s="6">
         <v>3112.76</v>
       </c>
+      <c r="D147" s="6">
+        <v>4.1926</v>
+      </c>
     </row>
     <row r="148" ht="15">
       <c r="A148" s="4">
@@ -2081,6 +2519,9 @@
       <c r="C148" s="6">
         <v>3117.43</v>
       </c>
+      <c r="D148" s="6">
+        <v>4.2136</v>
+      </c>
     </row>
     <row r="149" ht="15">
       <c r="A149" s="4">
@@ -2092,6 +2533,9 @@
       <c r="C149" s="6">
         <v>3145.91</v>
       </c>
+      <c r="D149" s="6">
+        <v>4.1783</v>
+      </c>
     </row>
     <row r="150" ht="15">
       <c r="A150" s="4">
@@ -2103,6 +2547,9 @@
       <c r="C150" s="6">
         <v>3135.96</v>
       </c>
+      <c r="D150" s="6">
+        <v>4.1503</v>
+      </c>
     </row>
     <row r="151" ht="15">
       <c r="A151" s="4">
@@ -2114,6 +2561,9 @@
       <c r="C151" s="6">
         <v>3132.52</v>
       </c>
+      <c r="D151" s="6">
+        <v>4.1427</v>
+      </c>
     </row>
     <row r="152" ht="15">
       <c r="A152" s="4">
@@ -2125,6 +2575,9 @@
       <c r="C152" s="6">
         <v>3141.63</v>
       </c>
+      <c r="D152" s="6">
+        <v>4.1153</v>
+      </c>
     </row>
     <row r="153" ht="15">
       <c r="A153" s="4">
@@ -2136,6 +2589,9 @@
       <c r="C153" s="6">
         <v>3168.57</v>
       </c>
+      <c r="D153" s="6">
+        <v>4.1092</v>
+      </c>
     </row>
     <row r="154" ht="15">
       <c r="A154" s="4">
@@ -2147,6 +2603,9 @@
       <c r="C154" s="6">
         <v>3168.8</v>
       </c>
+      <c r="D154" s="6">
+        <v>4.0949</v>
+      </c>
     </row>
     <row r="155" ht="15">
       <c r="A155" s="4">
@@ -2158,6 +2617,9 @@
       <c r="C155" s="6">
         <v>3191.45</v>
       </c>
+      <c r="D155" s="6">
+        <v>4.0801</v>
+      </c>
     </row>
     <row r="156" ht="15">
       <c r="A156" s="4">
@@ -2169,6 +2631,9 @@
       <c r="C156" s="6">
         <v>3192.52</v>
       </c>
+      <c r="D156" s="6">
+        <v>4.0687</v>
+      </c>
     </row>
     <row r="157" ht="15">
       <c r="A157" s="4">
@@ -2180,6 +2645,9 @@
       <c r="C157" s="6">
         <v>3191.14</v>
       </c>
+      <c r="D157" s="6">
+        <v>4.0548</v>
+      </c>
     </row>
     <row r="158" ht="15">
       <c r="A158" s="4">
@@ -2191,6 +2659,9 @@
       <c r="C158" s="6">
         <v>3205.37</v>
       </c>
+      <c r="D158" s="6">
+        <v>4.0633</v>
+      </c>
     </row>
     <row r="159" ht="15">
       <c r="A159" s="4">
@@ -2202,6 +2673,9 @@
       <c r="C159" s="6">
         <v>3221.22</v>
       </c>
+      <c r="D159" s="6">
+        <v>4.0777</v>
+      </c>
     </row>
     <row r="160" ht="15">
       <c r="A160" s="4">
@@ -2213,16 +2687,22 @@
       <c r="C160" s="6">
         <v>3224.01</v>
       </c>
+      <c r="D160" s="6">
+        <v>4.0757</v>
+      </c>
     </row>
     <row r="161" ht="15">
       <c r="A161" s="4">
         <v>43823</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C161" s="6">
         <v>3223.38</v>
+      </c>
+      <c r="D161" s="6">
+        <v>4.0813</v>
       </c>
     </row>
     <row r="162" ht="15">
@@ -2230,10 +2710,13 @@
         <v>43824</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="163" ht="15">
@@ -2246,6 +2729,9 @@
       <c r="C163" s="6">
         <v>3239.91</v>
       </c>
+      <c r="D163" s="6">
+        <v>4.0601</v>
+      </c>
     </row>
     <row r="164" ht="15">
       <c r="A164" s="4">
@@ -2257,6 +2743,9 @@
       <c r="C164" s="6">
         <v>3240.02</v>
       </c>
+      <c r="D164" s="6">
+        <v>4.0545</v>
+      </c>
     </row>
     <row r="165" ht="15">
       <c r="A165" s="4">
@@ -2268,16 +2757,22 @@
       <c r="C165" s="6">
         <v>3221.29</v>
       </c>
+      <c r="D165" s="6">
+        <v>4.0307</v>
+      </c>
     </row>
     <row r="166" ht="15">
       <c r="A166" s="4">
         <v>43830</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C166" s="6">
         <v>3230.78</v>
+      </c>
+      <c r="D166" s="6">
+        <v>4.0307</v>
       </c>
     </row>
     <row r="167" ht="15">
@@ -2285,10 +2780,13 @@
         <v>43831</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="168" ht="15">
@@ -2301,6 +2799,9 @@
       <c r="C168" s="6">
         <v>3257.85</v>
       </c>
+      <c r="D168" s="6">
+        <v>4.0213</v>
+      </c>
     </row>
     <row r="169" ht="15">
       <c r="A169" s="4">
@@ -2312,6 +2813,9 @@
       <c r="C169" s="6">
         <v>3234.85</v>
       </c>
+      <c r="D169" s="6">
+        <v>4.0522</v>
+      </c>
     </row>
     <row r="170" ht="15">
       <c r="A170" s="4">
@@ -2323,6 +2827,9 @@
       <c r="C170" s="6">
         <v>3246.28</v>
       </c>
+      <c r="D170" s="6">
+        <v>4.0554</v>
+      </c>
     </row>
     <row r="171" ht="15">
       <c r="A171" s="4">
@@ -2334,6 +2841,9 @@
       <c r="C171" s="6">
         <v>3237.18</v>
       </c>
+      <c r="D171" s="6">
+        <v>4.0841</v>
+      </c>
     </row>
     <row r="172" ht="15">
       <c r="A172" s="4">
@@ -2345,6 +2855,9 @@
       <c r="C172" s="6">
         <v>3253.05</v>
       </c>
+      <c r="D172" s="6">
+        <v>4.0672</v>
+      </c>
     </row>
     <row r="173" ht="15">
       <c r="A173" s="4">
@@ -2356,6 +2869,9 @@
       <c r="C173" s="6">
         <v>3274.7</v>
       </c>
+      <c r="D173" s="6">
+        <v>4.0744</v>
+      </c>
     </row>
     <row r="174" ht="15">
       <c r="A174" s="4">
@@ -2367,6 +2883,9 @@
       <c r="C174" s="6">
         <v>3265.35</v>
       </c>
+      <c r="D174" s="6">
+        <v>4.0745</v>
+      </c>
     </row>
     <row r="175" ht="15">
       <c r="A175" s="4">
@@ -2378,6 +2897,9 @@
       <c r="C175" s="6">
         <v>3288.13</v>
       </c>
+      <c r="D175" s="6">
+        <v>4.1309</v>
+      </c>
     </row>
     <row r="176" ht="15">
       <c r="A176" s="4">
@@ -2389,6 +2911,9 @@
       <c r="C176" s="6">
         <v>3283.15</v>
       </c>
+      <c r="D176" s="6">
+        <v>4.1443</v>
+      </c>
     </row>
     <row r="177" ht="15">
       <c r="A177" s="4">
@@ -2400,6 +2925,9 @@
       <c r="C177" s="6">
         <v>3289.29</v>
       </c>
+      <c r="D177" s="6">
+        <v>4.1622</v>
+      </c>
     </row>
     <row r="178" ht="15">
       <c r="A178" s="4">
@@ -2411,6 +2939,9 @@
       <c r="C178" s="6">
         <v>3316.81</v>
       </c>
+      <c r="D178" s="6">
+        <v>4.1726</v>
+      </c>
     </row>
     <row r="179" ht="15">
       <c r="A179" s="4">
@@ -2422,6 +2953,9 @@
       <c r="C179" s="6">
         <v>3329.62</v>
       </c>
+      <c r="D179" s="6">
+        <v>4.1837</v>
+      </c>
     </row>
     <row r="180" ht="15">
       <c r="A180" s="4">
@@ -2431,7 +2965,10 @@
         <v>118861.63</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D180" s="6">
+        <v>4.1829</v>
       </c>
     </row>
     <row r="181" ht="15">
@@ -2444,6 +2981,9 @@
       <c r="C181" s="6">
         <v>3320.79</v>
       </c>
+      <c r="D181" s="6">
+        <v>4.2014</v>
+      </c>
     </row>
     <row r="182" ht="15">
       <c r="A182" s="4">
@@ -2455,6 +2995,9 @@
       <c r="C182" s="6">
         <v>3321.75</v>
       </c>
+      <c r="D182" s="6">
+        <v>4.1889</v>
+      </c>
     </row>
     <row r="183" ht="15">
       <c r="A183" s="4">
@@ -2466,6 +3009,9 @@
       <c r="C183" s="6">
         <v>3325.54</v>
       </c>
+      <c r="D183" s="6">
+        <v>4.1662</v>
+      </c>
     </row>
     <row r="184" ht="15">
       <c r="A184" s="4">
@@ -2477,6 +3023,9 @@
       <c r="C184" s="6">
         <v>3295.47</v>
       </c>
+      <c r="D184" s="6">
+        <v>4.1769</v>
+      </c>
     </row>
     <row r="185" ht="15">
       <c r="A185" s="4">
@@ -2488,6 +3037,9 @@
       <c r="C185" s="6">
         <v>3243.63</v>
       </c>
+      <c r="D185" s="6">
+        <v>4.2196</v>
+      </c>
     </row>
     <row r="186" ht="15">
       <c r="A186" s="4">
@@ -2499,6 +3051,9 @@
       <c r="C186" s="6">
         <v>3276.24</v>
       </c>
+      <c r="D186" s="6">
+        <v>4.2064</v>
+      </c>
     </row>
     <row r="187" ht="15">
       <c r="A187" s="4">
@@ -2510,6 +3065,9 @@
       <c r="C187" s="6">
         <v>3273.4</v>
       </c>
+      <c r="D187" s="6">
+        <v>4.2013</v>
+      </c>
     </row>
     <row r="188" ht="15">
       <c r="A188" s="4">
@@ -2521,6 +3079,9 @@
       <c r="C188" s="6">
         <v>3283.66</v>
       </c>
+      <c r="D188" s="6">
+        <v>4.2523</v>
+      </c>
     </row>
     <row r="189" ht="15">
       <c r="A189" s="4">
@@ -2532,6 +3093,9 @@
       <c r="C189" s="6">
         <v>3225.52</v>
       </c>
+      <c r="D189" s="6">
+        <v>4.2695</v>
+      </c>
     </row>
     <row r="190" ht="15">
       <c r="A190" s="4">
@@ -2543,6 +3107,9 @@
       <c r="C190" s="6">
         <v>3248.92</v>
       </c>
+      <c r="D190" s="6">
+        <v>4.2475</v>
+      </c>
     </row>
     <row r="191" ht="15">
       <c r="A191" s="4">
@@ -2554,6 +3121,9 @@
       <c r="C191" s="6">
         <v>3297.59</v>
       </c>
+      <c r="D191" s="6">
+        <v>4.2381</v>
+      </c>
     </row>
     <row r="192" ht="15">
       <c r="A192" s="4">
@@ -2565,6 +3135,9 @@
       <c r="C192" s="6">
         <v>3334.69</v>
       </c>
+      <c r="D192" s="6">
+        <v>4.2449</v>
+      </c>
     </row>
     <row r="193" ht="15">
       <c r="A193" s="4">
@@ -2576,6 +3149,9 @@
       <c r="C193" s="6">
         <v>3345.78</v>
       </c>
+      <c r="D193" s="6">
+        <v>4.2477</v>
+      </c>
     </row>
     <row r="194" ht="15">
       <c r="A194" s="4">
@@ -2587,6 +3163,9 @@
       <c r="C194" s="6">
         <v>3327.71</v>
       </c>
+      <c r="D194" s="6">
+        <v>4.3076</v>
+      </c>
     </row>
     <row r="195" ht="15">
       <c r="A195" s="4">
@@ -2598,6 +3177,9 @@
       <c r="C195" s="6">
         <v>3352.09</v>
       </c>
+      <c r="D195" s="6">
+        <v>4.3195</v>
+      </c>
     </row>
     <row r="196" ht="15">
       <c r="A196" s="4">
@@ -2609,6 +3191,9 @@
       <c r="C196" s="6">
         <v>3357.75</v>
       </c>
+      <c r="D196" s="6">
+        <v>4.3148</v>
+      </c>
     </row>
     <row r="197" ht="15">
       <c r="A197" s="4">
@@ -2620,6 +3205,9 @@
       <c r="C197" s="6">
         <v>3379.45</v>
       </c>
+      <c r="D197" s="6">
+        <v>4.3366</v>
+      </c>
     </row>
     <row r="198" ht="15">
       <c r="A198" s="4">
@@ -2631,6 +3219,9 @@
       <c r="C198" s="6">
         <v>3373.94</v>
       </c>
+      <c r="D198" s="6">
+        <v>4.3389</v>
+      </c>
     </row>
     <row r="199" ht="15">
       <c r="A199" s="4">
@@ -2642,6 +3233,9 @@
       <c r="C199" s="6">
         <v>3380.16</v>
       </c>
+      <c r="D199" s="6">
+        <v>4.3163</v>
+      </c>
     </row>
     <row r="200" ht="15">
       <c r="A200" s="4">
@@ -2651,7 +3245,10 @@
         <v>115309.08</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D200" s="6">
+        <v>4.3157</v>
       </c>
     </row>
     <row r="201" ht="15">
@@ -2664,6 +3261,9 @@
       <c r="C201" s="6">
         <v>3370.29</v>
       </c>
+      <c r="D201" s="6">
+        <v>4.3471</v>
+      </c>
     </row>
     <row r="202" ht="15">
       <c r="A202" s="4">
@@ -2675,6 +3275,9 @@
       <c r="C202" s="6">
         <v>3386.15</v>
       </c>
+      <c r="D202" s="6">
+        <v>4.3728</v>
+      </c>
     </row>
     <row r="203" ht="15">
       <c r="A203" s="4">
@@ -2686,6 +3289,9 @@
       <c r="C203" s="6">
         <v>3373.23</v>
       </c>
+      <c r="D203" s="6">
+        <v>4.3873</v>
+      </c>
     </row>
     <row r="204" ht="15">
       <c r="A204" s="4">
@@ -2697,16 +3303,22 @@
       <c r="C204" s="6">
         <v>3337.75</v>
       </c>
+      <c r="D204" s="6">
+        <v>4.3924</v>
+      </c>
     </row>
     <row r="205" ht="15">
       <c r="A205" s="4">
         <v>43885</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C205" s="6">
         <v>3225.89</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="206" ht="15">
@@ -2714,10 +3326,13 @@
         <v>43886</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C206" s="6">
         <v>3128.21</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="207" ht="15">
@@ -2730,6 +3345,9 @@
       <c r="C207" s="6">
         <v>3116.39</v>
       </c>
+      <c r="D207" s="6">
+        <v>4.4359</v>
+      </c>
     </row>
     <row r="208" ht="15">
       <c r="A208" s="4">
@@ -2741,6 +3359,9 @@
       <c r="C208" s="6">
         <v>2978.76</v>
       </c>
+      <c r="D208" s="6">
+        <v>4.4764</v>
+      </c>
     </row>
     <row r="209" ht="15">
       <c r="A209" s="4">
@@ -2752,6 +3373,9 @@
       <c r="C209" s="6">
         <v>2954.21</v>
       </c>
+      <c r="D209" s="6">
+        <v>4.4987</v>
+      </c>
     </row>
     <row r="210" ht="15">
       <c r="A210" s="4">
@@ -2763,6 +3387,9 @@
       <c r="C210" s="6">
         <v>3090.23</v>
       </c>
+      <c r="D210" s="6">
+        <v>4.4946</v>
+      </c>
     </row>
     <row r="211" ht="15">
       <c r="A211" s="4">
@@ -2774,6 +3401,9 @@
       <c r="C211" s="6">
         <v>3003.37</v>
       </c>
+      <c r="D211" s="6">
+        <v>4.4883</v>
+      </c>
     </row>
     <row r="212" ht="15">
       <c r="A212" s="4">
@@ -2785,6 +3415,9 @@
       <c r="C212" s="6">
         <v>3130.12</v>
       </c>
+      <c r="D212" s="6">
+        <v>4.5258</v>
+      </c>
     </row>
     <row r="213" ht="15">
       <c r="A213" s="4">
@@ -2796,6 +3429,9 @@
       <c r="C213" s="6">
         <v>3023.94</v>
       </c>
+      <c r="D213" s="6">
+        <v>4.6207</v>
+      </c>
     </row>
     <row r="214" ht="15">
       <c r="A214" s="4">
@@ -2807,6 +3443,9 @@
       <c r="C214" s="6">
         <v>2972.37</v>
       </c>
+      <c r="D214" s="6">
+        <v>4.6459</v>
+      </c>
     </row>
     <row r="215" ht="15">
       <c r="A215" s="4">
@@ -2818,6 +3457,9 @@
       <c r="C215" s="6">
         <v>2746.56</v>
       </c>
+      <c r="D215" s="6">
+        <v>4.7379</v>
+      </c>
     </row>
     <row r="216" ht="15">
       <c r="A216" s="4">
@@ -2829,6 +3471,9 @@
       <c r="C216" s="6">
         <v>2882.23</v>
       </c>
+      <c r="D216" s="6">
+        <v>4.6693</v>
+      </c>
     </row>
     <row r="217" ht="15">
       <c r="A217" s="4">
@@ -2840,6 +3485,9 @@
       <c r="C217" s="6">
         <v>2741.38</v>
       </c>
+      <c r="D217" s="6">
+        <v>4.6738</v>
+      </c>
     </row>
     <row r="218" ht="15">
       <c r="A218" s="4">
@@ -2851,6 +3499,9 @@
       <c r="C218" s="6">
         <v>2480.64</v>
       </c>
+      <c r="D218" s="6">
+        <v>4.8833</v>
+      </c>
     </row>
     <row r="219" ht="15">
       <c r="A219" s="4">
@@ -2862,6 +3513,9 @@
       <c r="C219" s="6">
         <v>2711.04</v>
       </c>
+      <c r="D219" s="6">
+        <v>4.7362</v>
+      </c>
     </row>
     <row r="220" ht="15">
       <c r="A220" s="4">
@@ -2873,6 +3527,9 @@
       <c r="C220" s="6">
         <v>2386.13</v>
       </c>
+      <c r="D220" s="6">
+        <v>4.9471</v>
+      </c>
     </row>
     <row r="221" ht="15">
       <c r="A221" s="4">
@@ -2884,6 +3541,9 @@
       <c r="C221" s="6">
         <v>2529.19</v>
       </c>
+      <c r="D221" s="6">
+        <v>5.0496</v>
+      </c>
     </row>
     <row r="222" ht="15">
       <c r="A222" s="4">
@@ -2895,6 +3555,9 @@
       <c r="C222" s="6">
         <v>2398.1</v>
       </c>
+      <c r="D222" s="6">
+        <v>5.1107</v>
+      </c>
     </row>
     <row r="223" ht="15">
       <c r="A223" s="4">
@@ -2906,6 +3569,9 @@
       <c r="C223" s="6">
         <v>2409.39</v>
       </c>
+      <c r="D223" s="6">
+        <v>5.1444</v>
+      </c>
     </row>
     <row r="224" ht="15">
       <c r="A224" s="4">
@@ -2917,6 +3583,9 @@
       <c r="C224" s="6">
         <v>2304.92</v>
       </c>
+      <c r="D224" s="6">
+        <v>5.0248</v>
+      </c>
     </row>
     <row r="225" ht="15">
       <c r="A225" s="4">
@@ -2928,6 +3597,9 @@
       <c r="C225" s="6">
         <v>2237.4</v>
       </c>
+      <c r="D225" s="6">
+        <v>5.0805</v>
+      </c>
     </row>
     <row r="226" ht="15">
       <c r="A226" s="4">
@@ -2939,6 +3611,9 @@
       <c r="C226" s="6">
         <v>2447.33</v>
       </c>
+      <c r="D226" s="6">
+        <v>5.0713</v>
+      </c>
     </row>
     <row r="227" ht="15">
       <c r="A227" s="4">
@@ -2950,6 +3625,9 @@
       <c r="C227" s="6">
         <v>2475.56</v>
       </c>
+      <c r="D227" s="6">
+        <v>5.0706</v>
+      </c>
     </row>
     <row r="228" ht="15">
       <c r="A228" s="4">
@@ -2961,6 +3639,9 @@
       <c r="C228" s="6">
         <v>2630.07</v>
       </c>
+      <c r="D228" s="6">
+        <v>5.001</v>
+      </c>
     </row>
     <row r="229" ht="15">
       <c r="A229" s="4">
@@ -2972,6 +3653,9 @@
       <c r="C229" s="6">
         <v>2541.47</v>
       </c>
+      <c r="D229" s="6">
+        <v>5.1109</v>
+      </c>
     </row>
     <row r="230" ht="15">
       <c r="A230" s="4">
@@ -2983,6 +3667,9 @@
       <c r="C230" s="6">
         <v>2626.65</v>
       </c>
+      <c r="D230" s="6">
+        <v>5.1594</v>
+      </c>
     </row>
     <row r="231" ht="15">
       <c r="A231" s="4">
@@ -2994,6 +3681,9 @@
       <c r="C231" s="6">
         <v>2584.59</v>
       </c>
+      <c r="D231" s="6">
+        <v>5.1987</v>
+      </c>
     </row>
     <row r="232" ht="15">
       <c r="A232" s="4">
@@ -3005,6 +3695,9 @@
       <c r="C232" s="6">
         <v>2470.5</v>
       </c>
+      <c r="D232" s="6">
+        <v>5.2404</v>
+      </c>
     </row>
     <row r="233" ht="15">
       <c r="A233" s="4">
@@ -3016,6 +3709,9 @@
       <c r="C233" s="6">
         <v>2526.9</v>
       </c>
+      <c r="D233" s="6">
+        <v>5.2651</v>
+      </c>
     </row>
     <row r="234" ht="15">
       <c r="A234" s="4">
@@ -3027,6 +3723,9 @@
       <c r="C234" s="6">
         <v>2488.65</v>
       </c>
+      <c r="D234" s="6">
+        <v>5.2997</v>
+      </c>
     </row>
     <row r="235" ht="15">
       <c r="A235" s="4">
@@ -3038,6 +3737,9 @@
       <c r="C235" s="6">
         <v>2663.68</v>
       </c>
+      <c r="D235" s="6">
+        <v>5.2471</v>
+      </c>
     </row>
     <row r="236" ht="15">
       <c r="A236" s="4">
@@ -3049,6 +3751,9 @@
       <c r="C236" s="6">
         <v>2659.41</v>
       </c>
+      <c r="D236" s="6">
+        <v>5.2217</v>
+      </c>
     </row>
     <row r="237" ht="15">
       <c r="A237" s="4">
@@ -3060,6 +3765,9 @@
       <c r="C237" s="6">
         <v>2749.98</v>
       </c>
+      <c r="D237" s="6">
+        <v>5.2123</v>
+      </c>
     </row>
     <row r="238" ht="15">
       <c r="A238" s="4">
@@ -3071,16 +3779,22 @@
       <c r="C238" s="6">
         <v>2789.82</v>
       </c>
+      <c r="D238" s="6">
+        <v>5.0779</v>
+      </c>
     </row>
     <row r="239" ht="15">
       <c r="A239" s="4">
         <v>43931</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="240" ht="15">
@@ -3093,6 +3807,9 @@
       <c r="C240" s="6">
         <v>2761.63</v>
       </c>
+      <c r="D240" s="6">
+        <v>5.1824</v>
+      </c>
     </row>
     <row r="241" ht="15">
       <c r="A241" s="4">
@@ -3104,6 +3821,9 @@
       <c r="C241" s="6">
         <v>2846.06</v>
       </c>
+      <c r="D241" s="6">
+        <v>5.1858</v>
+      </c>
     </row>
     <row r="242" ht="15">
       <c r="A242" s="4">
@@ -3115,6 +3835,9 @@
       <c r="C242" s="6">
         <v>2783.36</v>
       </c>
+      <c r="D242" s="6">
+        <v>5.2579</v>
+      </c>
     </row>
     <row r="243" ht="15">
       <c r="A243" s="4">
@@ -3126,6 +3849,9 @@
       <c r="C243" s="6">
         <v>2799.55</v>
       </c>
+      <c r="D243" s="6">
+        <v>5.2377</v>
+      </c>
     </row>
     <row r="244" ht="15">
       <c r="A244" s="4">
@@ -3137,6 +3863,9 @@
       <c r="C244" s="6">
         <v>2874.56</v>
       </c>
+      <c r="D244" s="6">
+        <v>5.2573</v>
+      </c>
     </row>
     <row r="245" ht="15">
       <c r="A245" s="4">
@@ -3148,16 +3877,22 @@
       <c r="C245" s="6">
         <v>2823.16</v>
       </c>
+      <c r="D245" s="6">
+        <v>5.2837</v>
+      </c>
     </row>
     <row r="246" ht="15">
       <c r="A246" s="4">
         <v>43942</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C246" s="6">
         <v>2736.56</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="247" ht="15">
@@ -3170,6 +3905,9 @@
       <c r="C247" s="6">
         <v>2799.31</v>
       </c>
+      <c r="D247" s="6">
+        <v>5.3847</v>
+      </c>
     </row>
     <row r="248" ht="15">
       <c r="A248" s="4">
@@ -3181,6 +3919,9 @@
       <c r="C248" s="6">
         <v>2797.8</v>
       </c>
+      <c r="D248" s="6">
+        <v>5.4467</v>
+      </c>
     </row>
     <row r="249" ht="15">
       <c r="A249" s="4">
@@ -3192,6 +3933,9 @@
       <c r="C249" s="6">
         <v>2836.74</v>
       </c>
+      <c r="D249" s="6">
+        <v>5.651</v>
+      </c>
     </row>
     <row r="250" ht="15">
       <c r="A250" s="4">
@@ -3203,6 +3947,9 @@
       <c r="C250" s="6">
         <v>2878.48</v>
       </c>
+      <c r="D250" s="6">
+        <v>5.6358</v>
+      </c>
     </row>
     <row r="251" ht="15">
       <c r="A251" s="4">
@@ -3214,6 +3961,9 @@
       <c r="C251" s="6">
         <v>2863.39</v>
       </c>
+      <c r="D251" s="6">
+        <v>5.5683</v>
+      </c>
     </row>
     <row r="252" ht="15">
       <c r="A252" s="4">
@@ -3225,6 +3975,9 @@
       <c r="C252" s="6">
         <v>2939.51</v>
       </c>
+      <c r="D252" s="6">
+        <v>5.4291</v>
+      </c>
     </row>
     <row r="253" ht="15">
       <c r="A253" s="4">
@@ -3236,16 +3989,22 @@
       <c r="C253" s="6">
         <v>2912.43</v>
       </c>
+      <c r="D253" s="6">
+        <v>5.427</v>
+      </c>
     </row>
     <row r="254" ht="15">
       <c r="A254" s="4">
         <v>43952</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C254" s="6">
         <v>2830.71</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="255" ht="15">
@@ -3258,6 +4017,9 @@
       <c r="C255" s="6">
         <v>2842.74</v>
       </c>
+      <c r="D255" s="6">
+        <v>5.5816</v>
+      </c>
     </row>
     <row r="256" ht="15">
       <c r="A256" s="4">
@@ -3269,6 +4031,9 @@
       <c r="C256" s="6">
         <v>2868.44</v>
       </c>
+      <c r="D256" s="6">
+        <v>5.5354</v>
+      </c>
     </row>
     <row r="257" ht="15">
       <c r="A257" s="4">
@@ -3280,6 +4045,9 @@
       <c r="C257" s="6">
         <v>2848.42</v>
       </c>
+      <c r="D257" s="6">
+        <v>5.6676</v>
+      </c>
     </row>
     <row r="258" ht="15">
       <c r="A258" s="4">
@@ -3291,6 +4059,9 @@
       <c r="C258" s="6">
         <v>2881.19</v>
       </c>
+      <c r="D258" s="6">
+        <v>5.8365</v>
+      </c>
     </row>
     <row r="259" ht="15">
       <c r="A259" s="4">
@@ -3302,6 +4073,9 @@
       <c r="C259" s="6">
         <v>2929.8</v>
       </c>
+      <c r="D259" s="6">
+        <v>5.7653</v>
+      </c>
     </row>
     <row r="260" ht="15">
       <c r="A260" s="4">
@@ -3313,6 +4087,9 @@
       <c r="C260" s="6">
         <v>2930.19</v>
       </c>
+      <c r="D260" s="6">
+        <v>5.7954</v>
+      </c>
     </row>
     <row r="261" ht="15">
       <c r="A261" s="4">
@@ -3324,6 +4101,9 @@
       <c r="C261" s="6">
         <v>2870.12</v>
       </c>
+      <c r="D261" s="6">
+        <v>5.7723</v>
+      </c>
     </row>
     <row r="262" ht="15">
       <c r="A262" s="4">
@@ -3335,6 +4115,9 @@
       <c r="C262" s="6">
         <v>2820</v>
       </c>
+      <c r="D262" s="6">
+        <v>5.9022</v>
+      </c>
     </row>
     <row r="263" ht="15">
       <c r="A263" s="4">
@@ -3346,6 +4129,9 @@
       <c r="C263" s="6">
         <v>2852.5</v>
       </c>
+      <c r="D263" s="6">
+        <v>5.9372</v>
+      </c>
     </row>
     <row r="264" ht="15">
       <c r="A264" s="4">
@@ -3357,6 +4143,9 @@
       <c r="C264" s="6">
         <v>2863.7</v>
       </c>
+      <c r="D264" s="6">
+        <v>5.8229</v>
+      </c>
     </row>
     <row r="265" ht="15">
       <c r="A265" s="4">
@@ -3368,6 +4157,9 @@
       <c r="C265" s="6">
         <v>2953.91</v>
       </c>
+      <c r="D265" s="6">
+        <v>5.7375</v>
+      </c>
     </row>
     <row r="266" ht="15">
       <c r="A266" s="4">
@@ -3379,6 +4171,9 @@
       <c r="C266" s="6">
         <v>2922.94</v>
       </c>
+      <c r="D266" s="6">
+        <v>5.7216</v>
+      </c>
     </row>
     <row r="267" ht="15">
       <c r="A267" s="4">
@@ -3390,6 +4185,9 @@
       <c r="C267" s="6">
         <v>2971.61</v>
       </c>
+      <c r="D267" s="6">
+        <v>5.6968</v>
+      </c>
     </row>
     <row r="268" ht="15">
       <c r="A268" s="4">
@@ -3401,6 +4199,9 @@
       <c r="C268" s="6">
         <v>2948.51</v>
       </c>
+      <c r="D268" s="6">
+        <v>5.6019</v>
+      </c>
     </row>
     <row r="269" ht="15">
       <c r="A269" s="4">
@@ -3412,6 +4213,9 @@
       <c r="C269" s="6">
         <v>2955.45</v>
       </c>
+      <c r="D269" s="6">
+        <v>5.5808</v>
+      </c>
     </row>
     <row r="270" ht="15">
       <c r="A270" s="4">
@@ -3421,7 +4225,10 @@
         <v>85663.48</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D270" s="6">
+        <v>5.4772</v>
       </c>
     </row>
     <row r="271" ht="15">
@@ -3434,6 +4241,9 @@
       <c r="C271" s="6">
         <v>2991.77</v>
       </c>
+      <c r="D271" s="6">
+        <v>5.3707</v>
+      </c>
     </row>
     <row r="272" ht="15">
       <c r="A272" s="4">
@@ -3445,6 +4255,9 @@
       <c r="C272" s="6">
         <v>3036.13</v>
       </c>
+      <c r="D272" s="6">
+        <v>5.2992</v>
+      </c>
     </row>
     <row r="273" ht="15">
       <c r="A273" s="4">
@@ -3456,6 +4269,9 @@
       <c r="C273" s="6">
         <v>3029.73</v>
       </c>
+      <c r="D273" s="6">
+        <v>5.3405</v>
+      </c>
     </row>
     <row r="274" ht="15">
       <c r="A274" s="4">
@@ -3467,6 +4283,9 @@
       <c r="C274" s="6">
         <v>3044.31</v>
       </c>
+      <c r="D274" s="6">
+        <v>5.4263</v>
+      </c>
     </row>
     <row r="275" ht="15">
       <c r="A275" s="4">
@@ -3478,6 +4297,9 @@
       <c r="C275" s="6">
         <v>3055.73</v>
       </c>
+      <c r="D275" s="6">
+        <v>5.3639</v>
+      </c>
     </row>
     <row r="276" ht="15">
       <c r="A276" s="4">
@@ -3489,6 +4311,9 @@
       <c r="C276" s="6">
         <v>3080.82</v>
       </c>
+      <c r="D276" s="6">
+        <v>5.2601</v>
+      </c>
     </row>
     <row r="277" ht="15">
       <c r="A277" s="4">
@@ -3500,6 +4325,9 @@
       <c r="C277" s="6">
         <v>3122.87</v>
       </c>
+      <c r="D277" s="6">
+        <v>5.0516</v>
+      </c>
     </row>
     <row r="278" ht="15">
       <c r="A278" s="4">
@@ -3511,6 +4339,9 @@
       <c r="C278" s="6">
         <v>3112.35</v>
       </c>
+      <c r="D278" s="6">
+        <v>5.1041</v>
+      </c>
     </row>
     <row r="279" ht="15">
       <c r="A279" s="4">
@@ -3522,6 +4353,9 @@
       <c r="C279" s="6">
         <v>3193.93</v>
       </c>
+      <c r="D279" s="6">
+        <v>4.9775</v>
+      </c>
     </row>
     <row r="280" ht="15">
       <c r="A280" s="4">
@@ -3533,6 +4367,9 @@
       <c r="C280" s="6">
         <v>3232.39</v>
       </c>
+      <c r="D280" s="6">
+        <v>4.9331</v>
+      </c>
     </row>
     <row r="281" ht="15">
       <c r="A281" s="4">
@@ -3544,6 +4381,9 @@
       <c r="C281" s="6">
         <v>3207.18</v>
       </c>
+      <c r="D281" s="6">
+        <v>4.9057</v>
+      </c>
     </row>
     <row r="282" ht="15">
       <c r="A282" s="4">
@@ -3555,16 +4395,22 @@
       <c r="C282" s="6">
         <v>3190.14</v>
       </c>
+      <c r="D282" s="6">
+        <v>4.8894</v>
+      </c>
     </row>
     <row r="283" ht="15">
       <c r="A283" s="4">
         <v>43993</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C283" s="6">
         <v>3002.1</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="284" ht="15">
@@ -3577,6 +4423,9 @@
       <c r="C284" s="6">
         <v>3041.31</v>
       </c>
+      <c r="D284" s="6">
+        <v>5.0373</v>
+      </c>
     </row>
     <row r="285" ht="15">
       <c r="A285" s="4">
@@ -3588,6 +4437,9 @@
       <c r="C285" s="6">
         <v>3066.59</v>
       </c>
+      <c r="D285" s="6">
+        <v>5.1883</v>
+      </c>
     </row>
     <row r="286" ht="15">
       <c r="A286" s="4">
@@ -3599,6 +4451,9 @@
       <c r="C286" s="6">
         <v>3124.74</v>
       </c>
+      <c r="D286" s="6">
+        <v>5.1285</v>
+      </c>
     </row>
     <row r="287" ht="15">
       <c r="A287" s="4">
@@ -3610,6 +4465,9 @@
       <c r="C287" s="6">
         <v>3113.49</v>
       </c>
+      <c r="D287" s="6">
+        <v>5.2499</v>
+      </c>
     </row>
     <row r="288" ht="15">
       <c r="A288" s="4">
@@ -3621,6 +4479,9 @@
       <c r="C288" s="6">
         <v>3115.34</v>
       </c>
+      <c r="D288" s="6">
+        <v>5.3468</v>
+      </c>
     </row>
     <row r="289" ht="15">
       <c r="A289" s="4">
@@ -3632,6 +4493,9 @@
       <c r="C289" s="6">
         <v>3097.74</v>
       </c>
+      <c r="D289" s="6">
+        <v>5.3466</v>
+      </c>
     </row>
     <row r="290" ht="15">
       <c r="A290" s="4">
@@ -3643,6 +4507,9 @@
       <c r="C290" s="6">
         <v>3117.86</v>
       </c>
+      <c r="D290" s="6">
+        <v>5.2226</v>
+      </c>
     </row>
     <row r="291" ht="15">
       <c r="A291" s="4">
@@ -3654,6 +4521,9 @@
       <c r="C291" s="6">
         <v>3131.29</v>
       </c>
+      <c r="D291" s="6">
+        <v>5.1705</v>
+      </c>
     </row>
     <row r="292" ht="15">
       <c r="A292" s="4">
@@ -3665,6 +4535,9 @@
       <c r="C292" s="6">
         <v>3050.33</v>
       </c>
+      <c r="D292" s="6">
+        <v>5.2435</v>
+      </c>
     </row>
     <row r="293" ht="15">
       <c r="A293" s="4">
@@ -3676,6 +4549,9 @@
       <c r="C293" s="6">
         <v>3083.76</v>
       </c>
+      <c r="D293" s="6">
+        <v>5.3287</v>
+      </c>
     </row>
     <row r="294" ht="15">
       <c r="A294" s="4">
@@ -3687,6 +4563,9 @@
       <c r="C294" s="6">
         <v>3009.05</v>
       </c>
+      <c r="D294" s="6">
+        <v>5.4629</v>
+      </c>
     </row>
     <row r="295" ht="15">
       <c r="A295" s="4">
@@ -3698,6 +4577,9 @@
       <c r="C295" s="6">
         <v>3053.24</v>
       </c>
+      <c r="D295" s="6">
+        <v>5.4416</v>
+      </c>
     </row>
     <row r="296" ht="15">
       <c r="A296" s="4">
@@ -3709,6 +4591,9 @@
       <c r="C296" s="6">
         <v>3100.29</v>
       </c>
+      <c r="D296" s="6">
+        <v>5.476</v>
+      </c>
     </row>
     <row r="297" ht="15">
       <c r="A297" s="4">
@@ -3720,6 +4605,9 @@
       <c r="C297" s="6">
         <v>3115.86</v>
       </c>
+      <c r="D297" s="6">
+        <v>5.3651</v>
+      </c>
     </row>
     <row r="298" ht="15">
       <c r="A298" s="4">
@@ -3731,6 +4619,9 @@
       <c r="C298" s="6">
         <v>3130.01</v>
       </c>
+      <c r="D298" s="6">
+        <v>5.3028</v>
+      </c>
     </row>
     <row r="299" ht="15">
       <c r="A299" s="4">
@@ -3740,7 +4631,10 @@
         <v>96764.85</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D299" s="6">
+        <v>5.3374</v>
       </c>
     </row>
     <row r="300" ht="15">
@@ -3753,6 +4647,9 @@
       <c r="C300" s="6">
         <v>3179.72</v>
       </c>
+      <c r="D300" s="6">
+        <v>5.3085</v>
+      </c>
     </row>
     <row r="301" ht="15">
       <c r="A301" s="4">
@@ -3764,6 +4661,9 @@
       <c r="C301" s="6">
         <v>3145.32</v>
       </c>
+      <c r="D301" s="6">
+        <v>5.3318</v>
+      </c>
     </row>
     <row r="302" ht="15">
       <c r="A302" s="4">
@@ -3775,6 +4675,9 @@
       <c r="C302" s="6">
         <v>3169.94</v>
       </c>
+      <c r="D302" s="6">
+        <v>5.3482</v>
+      </c>
     </row>
     <row r="303" ht="15">
       <c r="A303" s="4">
@@ -3786,6 +4689,9 @@
       <c r="C303" s="6">
         <v>3152.05</v>
       </c>
+      <c r="D303" s="6">
+        <v>5.2978</v>
+      </c>
     </row>
     <row r="304" ht="15">
       <c r="A304" s="4">
@@ -3797,6 +4703,9 @@
       <c r="C304" s="6">
         <v>3185.04</v>
       </c>
+      <c r="D304" s="6">
+        <v>5.344</v>
+      </c>
     </row>
     <row r="305" ht="15">
       <c r="A305" s="4">
@@ -3808,6 +4717,9 @@
       <c r="C305" s="6">
         <v>3155.22</v>
       </c>
+      <c r="D305" s="6">
+        <v>5.3486</v>
+      </c>
     </row>
     <row r="306" ht="15">
       <c r="A306" s="4">
@@ -3819,6 +4731,9 @@
       <c r="C306" s="6">
         <v>3197.52</v>
       </c>
+      <c r="D306" s="6">
+        <v>5.4288</v>
+      </c>
     </row>
     <row r="307" ht="15">
       <c r="A307" s="4">
@@ -3830,6 +4745,9 @@
       <c r="C307" s="6">
         <v>3226.56</v>
       </c>
+      <c r="D307" s="6">
+        <v>5.3491</v>
+      </c>
     </row>
     <row r="308" ht="15">
       <c r="A308" s="4">
@@ -3841,6 +4759,9 @@
       <c r="C308" s="6">
         <v>3215.57</v>
       </c>
+      <c r="D308" s="6">
+        <v>5.356</v>
+      </c>
     </row>
     <row r="309" ht="15">
       <c r="A309" s="4">
@@ -3852,6 +4773,9 @@
       <c r="C309" s="6">
         <v>3224.73</v>
       </c>
+      <c r="D309" s="6">
+        <v>5.351</v>
+      </c>
     </row>
     <row r="310" ht="15">
       <c r="A310" s="4">
@@ -3863,6 +4787,9 @@
       <c r="C310" s="6">
         <v>3251.84</v>
       </c>
+      <c r="D310" s="6">
+        <v>5.3635</v>
+      </c>
     </row>
     <row r="311" ht="15">
       <c r="A311" s="4">
@@ -3874,6 +4801,9 @@
       <c r="C311" s="6">
         <v>3257.3</v>
       </c>
+      <c r="D311" s="6">
+        <v>5.2283</v>
+      </c>
     </row>
     <row r="312" ht="15">
       <c r="A312" s="4">
@@ -3885,6 +4815,9 @@
       <c r="C312" s="6">
         <v>3276.02</v>
       </c>
+      <c r="D312" s="6">
+        <v>5.1111</v>
+      </c>
     </row>
     <row r="313" ht="15">
       <c r="A313" s="4">
@@ -3896,6 +4829,9 @@
       <c r="C313" s="6">
         <v>3235.66</v>
       </c>
+      <c r="D313" s="6">
+        <v>5.1647</v>
+      </c>
     </row>
     <row r="314" ht="15">
       <c r="A314" s="4">
@@ -3907,6 +4843,9 @@
       <c r="C314" s="6">
         <v>3215.63</v>
       </c>
+      <c r="D314" s="6">
+        <v>5.2146</v>
+      </c>
     </row>
     <row r="315" ht="15">
       <c r="A315" s="4">
@@ -3918,6 +4857,9 @@
       <c r="C315" s="6">
         <v>3239.41</v>
       </c>
+      <c r="D315" s="6">
+        <v>5.1889</v>
+      </c>
     </row>
     <row r="316" ht="15">
       <c r="A316" s="4">
@@ -3929,6 +4871,9 @@
       <c r="C316" s="6">
         <v>3218.44</v>
       </c>
+      <c r="D316" s="6">
+        <v>5.1777</v>
+      </c>
     </row>
     <row r="317" ht="15">
       <c r="A317" s="4">
@@ -3940,6 +4885,9 @@
       <c r="C317" s="6">
         <v>3258.44</v>
       </c>
+      <c r="D317" s="6">
+        <v>5.1395</v>
+      </c>
     </row>
     <row r="318" ht="15">
       <c r="A318" s="4">
@@ -3951,6 +4899,9 @@
       <c r="C318" s="6">
         <v>3246.22</v>
       </c>
+      <c r="D318" s="6">
+        <v>5.1837</v>
+      </c>
     </row>
     <row r="319" ht="15">
       <c r="A319" s="4">
@@ -3962,6 +4913,9 @@
       <c r="C319" s="6">
         <v>3271.12</v>
       </c>
+      <c r="D319" s="6">
+        <v>5.2033</v>
+      </c>
     </row>
     <row r="320" ht="15">
       <c r="A320" s="4">
@@ -3973,6 +4927,9 @@
       <c r="C320" s="6">
         <v>3294.61</v>
       </c>
+      <c r="D320" s="6">
+        <v>5.3075</v>
+      </c>
     </row>
     <row r="321" ht="15">
       <c r="A321" s="4">
@@ -3984,6 +4941,9 @@
       <c r="C321" s="6">
         <v>3306.51</v>
       </c>
+      <c r="D321" s="6">
+        <v>5.3329</v>
+      </c>
     </row>
     <row r="322" ht="15">
       <c r="A322" s="4">
@@ -3995,6 +4955,9 @@
       <c r="C322" s="6">
         <v>3327.77</v>
       </c>
+      <c r="D322" s="6">
+        <v>5.276</v>
+      </c>
     </row>
     <row r="323" ht="15">
       <c r="A323" s="4">
@@ -4006,6 +4969,9 @@
       <c r="C323" s="6">
         <v>3349.16</v>
       </c>
+      <c r="D323" s="6">
+        <v>5.3431</v>
+      </c>
     </row>
     <row r="324" ht="15">
       <c r="A324" s="4">
@@ -4017,6 +4983,9 @@
       <c r="C324" s="6">
         <v>3351.28</v>
       </c>
+      <c r="D324" s="6">
+        <v>5.4227</v>
+      </c>
     </row>
     <row r="325" ht="15">
       <c r="A325" s="4">
@@ -4028,6 +4997,9 @@
       <c r="C325" s="6">
         <v>3360.47</v>
       </c>
+      <c r="D325" s="6">
+        <v>5.3933</v>
+      </c>
     </row>
     <row r="326" ht="15">
       <c r="A326" s="4">
@@ -4039,6 +5011,9 @@
       <c r="C326" s="6">
         <v>3333.69</v>
       </c>
+      <c r="D326" s="6">
+        <v>5.4285</v>
+      </c>
     </row>
     <row r="327" ht="15">
       <c r="A327" s="4">
@@ -4050,6 +5025,9 @@
       <c r="C327" s="6">
         <v>3380.35</v>
       </c>
+      <c r="D327" s="6">
+        <v>5.4551</v>
+      </c>
     </row>
     <row r="328" ht="15">
       <c r="A328" s="4">
@@ -4061,6 +5039,9 @@
       <c r="C328" s="6">
         <v>3373.43</v>
       </c>
+      <c r="D328" s="6">
+        <v>5.3801</v>
+      </c>
     </row>
     <row r="329" ht="15">
       <c r="A329" s="4">
@@ -4072,6 +5053,9 @@
       <c r="C329" s="6">
         <v>3372.85</v>
       </c>
+      <c r="D329" s="6">
+        <v>5.3852</v>
+      </c>
     </row>
     <row r="330" ht="15">
       <c r="A330" s="4">
@@ -4083,6 +5067,9 @@
       <c r="C330" s="6">
         <v>3381.99</v>
       </c>
+      <c r="D330" s="6">
+        <v>5.4497</v>
+      </c>
     </row>
     <row r="331" ht="15">
       <c r="A331" s="4">
@@ -4094,6 +5081,9 @@
       <c r="C331" s="6">
         <v>3389.78</v>
       </c>
+      <c r="D331" s="6">
+        <v>5.4659</v>
+      </c>
     </row>
     <row r="332" ht="15">
       <c r="A332" s="4">
@@ -4105,6 +5095,9 @@
       <c r="C332" s="6">
         <v>3374.85</v>
       </c>
+      <c r="D332" s="6">
+        <v>5.4906</v>
+      </c>
     </row>
     <row r="333" ht="15">
       <c r="A333" s="4">
@@ -4116,6 +5109,9 @@
       <c r="C333" s="6">
         <v>3385.51</v>
       </c>
+      <c r="D333" s="6">
+        <v>5.651</v>
+      </c>
     </row>
     <row r="334" ht="15">
       <c r="A334" s="4">
@@ -4127,6 +5123,9 @@
       <c r="C334" s="6">
         <v>3397.16</v>
       </c>
+      <c r="D334" s="6">
+        <v>5.6064</v>
+      </c>
     </row>
     <row r="335" ht="15">
       <c r="A335" s="4">
@@ -4138,6 +5137,9 @@
       <c r="C335" s="6">
         <v>3431.28</v>
       </c>
+      <c r="D335" s="6">
+        <v>5.5954</v>
+      </c>
     </row>
     <row r="336" ht="15">
       <c r="A336" s="4">
@@ -4149,6 +5151,9 @@
       <c r="C336" s="6">
         <v>3443.62</v>
       </c>
+      <c r="D336" s="6">
+        <v>5.5997</v>
+      </c>
     </row>
     <row r="337" ht="15">
       <c r="A337" s="4">
@@ -4160,6 +5165,9 @@
       <c r="C337" s="6">
         <v>3478.73</v>
       </c>
+      <c r="D337" s="6">
+        <v>5.568</v>
+      </c>
     </row>
     <row r="338" ht="15">
       <c r="A338" s="4">
@@ -4171,6 +5179,9 @@
       <c r="C338" s="6">
         <v>3484.55</v>
       </c>
+      <c r="D338" s="6">
+        <v>5.5956</v>
+      </c>
     </row>
     <row r="339" ht="15">
       <c r="A339" s="4">
@@ -4182,6 +5193,9 @@
       <c r="C339" s="6">
         <v>3508.01</v>
       </c>
+      <c r="D339" s="6">
+        <v>5.4679</v>
+      </c>
     </row>
     <row r="340" ht="15">
       <c r="A340" s="4">
@@ -4193,6 +5207,9 @@
       <c r="C340" s="6">
         <v>3500.31</v>
       </c>
+      <c r="D340" s="6">
+        <v>5.4713</v>
+      </c>
     </row>
     <row r="341" ht="15">
       <c r="A341" s="4">
@@ -4204,6 +5221,9 @@
       <c r="C341" s="6">
         <v>3526.65</v>
       </c>
+      <c r="D341" s="6">
+        <v>5.3732</v>
+      </c>
     </row>
     <row r="342" ht="15">
       <c r="A342" s="4">
@@ -4215,6 +5235,9 @@
       <c r="C342" s="6">
         <v>3580.84</v>
       </c>
+      <c r="D342" s="6">
+        <v>5.3741</v>
+      </c>
     </row>
     <row r="343" ht="15">
       <c r="A343" s="4">
@@ -4226,6 +5249,9 @@
       <c r="C343" s="6">
         <v>3455.06</v>
       </c>
+      <c r="D343" s="6">
+        <v>5.3079</v>
+      </c>
     </row>
     <row r="344" ht="15">
       <c r="A344" s="4">
@@ -4237,16 +5263,22 @@
       <c r="C344" s="6">
         <v>3426.96</v>
       </c>
+      <c r="D344" s="6">
+        <v>5.2848</v>
+      </c>
     </row>
     <row r="345" ht="15">
       <c r="A345" s="4">
         <v>44081</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D345" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="346" ht="15">
@@ -4259,6 +5291,9 @@
       <c r="C346" s="6">
         <v>3331.84</v>
       </c>
+      <c r="D346" s="6">
+        <v>5.3698</v>
+      </c>
     </row>
     <row r="347" ht="15">
       <c r="A347" s="4">
@@ -4270,6 +5305,9 @@
       <c r="C347" s="6">
         <v>3398.96</v>
       </c>
+      <c r="D347" s="6">
+        <v>5.3024</v>
+      </c>
     </row>
     <row r="348" ht="15">
       <c r="A348" s="4">
@@ -4281,6 +5319,9 @@
       <c r="C348" s="6">
         <v>3339.19</v>
       </c>
+      <c r="D348" s="6">
+        <v>5.2936</v>
+      </c>
     </row>
     <row r="349" ht="15">
       <c r="A349" s="4">
@@ -4292,6 +5333,9 @@
       <c r="C349" s="6">
         <v>3340.97</v>
       </c>
+      <c r="D349" s="6">
+        <v>5.2854</v>
+      </c>
     </row>
     <row r="350" ht="15">
       <c r="A350" s="4">
@@ -4303,6 +5347,9 @@
       <c r="C350" s="6">
         <v>3383.54</v>
       </c>
+      <c r="D350" s="6">
+        <v>5.2984</v>
+      </c>
     </row>
     <row r="351" ht="15">
       <c r="A351" s="4">
@@ -4314,6 +5361,9 @@
       <c r="C351" s="6">
         <v>3401.2</v>
       </c>
+      <c r="D351" s="6">
+        <v>5.2728</v>
+      </c>
     </row>
     <row r="352" ht="15">
       <c r="A352" s="4">
@@ -4325,6 +5375,9 @@
       <c r="C352" s="6">
         <v>3385.49</v>
       </c>
+      <c r="D352" s="6">
+        <v>5.2532</v>
+      </c>
     </row>
     <row r="353" ht="15">
       <c r="A353" s="4">
@@ -4336,6 +5389,9 @@
       <c r="C353" s="6">
         <v>3357.01</v>
       </c>
+      <c r="D353" s="6">
+        <v>5.2593</v>
+      </c>
     </row>
     <row r="354" ht="15">
       <c r="A354" s="4">
@@ -4347,6 +5403,9 @@
       <c r="C354" s="6">
         <v>3319.47</v>
       </c>
+      <c r="D354" s="6">
+        <v>5.2889</v>
+      </c>
     </row>
     <row r="355" ht="15">
       <c r="A355" s="4">
@@ -4358,6 +5417,9 @@
       <c r="C355" s="6">
         <v>3281.06</v>
       </c>
+      <c r="D355" s="6">
+        <v>5.444</v>
+      </c>
     </row>
     <row r="356" ht="15">
       <c r="A356" s="4">
@@ -4369,6 +5431,9 @@
       <c r="C356" s="6">
         <v>3315.57</v>
       </c>
+      <c r="D356" s="6">
+        <v>5.4329</v>
+      </c>
     </row>
     <row r="357" ht="15">
       <c r="A357" s="4">
@@ -4380,6 +5445,9 @@
       <c r="C357" s="6">
         <v>3236.92</v>
       </c>
+      <c r="D357" s="6">
+        <v>5.5311</v>
+      </c>
     </row>
     <row r="358" ht="15">
       <c r="A358" s="4">
@@ -4391,6 +5459,9 @@
       <c r="C358" s="6">
         <v>3246.59</v>
       </c>
+      <c r="D358" s="6">
+        <v>5.5714</v>
+      </c>
     </row>
     <row r="359" ht="15">
       <c r="A359" s="4">
@@ -4402,6 +5473,9 @@
       <c r="C359" s="6">
         <v>3298.46</v>
       </c>
+      <c r="D359" s="6">
+        <v>5.5667</v>
+      </c>
     </row>
     <row r="360" ht="15">
       <c r="A360" s="4">
@@ -4413,6 +5487,9 @@
       <c r="C360" s="6">
         <v>3351.6</v>
       </c>
+      <c r="D360" s="6">
+        <v>5.5858</v>
+      </c>
     </row>
     <row r="361" ht="15">
       <c r="A361" s="4">
@@ -4424,6 +5501,9 @@
       <c r="C361" s="6">
         <v>3335.47</v>
       </c>
+      <c r="D361" s="6">
+        <v>5.6528</v>
+      </c>
     </row>
     <row r="362" ht="15">
       <c r="A362" s="4">
@@ -4435,6 +5515,9 @@
       <c r="C362" s="6">
         <v>3363</v>
       </c>
+      <c r="D362" s="6">
+        <v>5.6407</v>
+      </c>
     </row>
     <row r="363" ht="15">
       <c r="A363" s="4">
@@ -4446,6 +5529,9 @@
       <c r="C363" s="6">
         <v>3380.8</v>
       </c>
+      <c r="D363" s="6">
+        <v>5.6441</v>
+      </c>
     </row>
     <row r="364" ht="15">
       <c r="A364" s="4">
@@ -4457,6 +5543,9 @@
       <c r="C364" s="6">
         <v>3348.44</v>
       </c>
+      <c r="D364" s="6">
+        <v>5.6464</v>
+      </c>
     </row>
     <row r="365" ht="15">
       <c r="A365" s="4">
@@ -4468,6 +5557,9 @@
       <c r="C365" s="6">
         <v>3408.6</v>
       </c>
+      <c r="D365" s="6">
+        <v>5.6299</v>
+      </c>
     </row>
     <row r="366" ht="15">
       <c r="A366" s="4">
@@ -4479,6 +5571,9 @@
       <c r="C366" s="6">
         <v>3360.97</v>
       </c>
+      <c r="D366" s="6">
+        <v>5.5205</v>
+      </c>
     </row>
     <row r="367" ht="15">
       <c r="A367" s="4">
@@ -4490,6 +5585,9 @@
       <c r="C367" s="6">
         <v>3419.44</v>
       </c>
+      <c r="D367" s="6">
+        <v>5.6018</v>
+      </c>
     </row>
     <row r="368" ht="15">
       <c r="A368" s="4">
@@ -4501,6 +5599,9 @@
       <c r="C368" s="6">
         <v>3446.83</v>
       </c>
+      <c r="D368" s="6">
+        <v>5.62</v>
+      </c>
     </row>
     <row r="369" ht="15">
       <c r="A369" s="4">
@@ -4512,16 +5613,22 @@
       <c r="C369" s="6">
         <v>3477.14</v>
       </c>
+      <c r="D369" s="6">
+        <v>5.5393</v>
+      </c>
     </row>
     <row r="370" ht="15">
       <c r="A370" s="4">
         <v>44116</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C370" s="6">
         <v>3534.22</v>
+      </c>
+      <c r="D370" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="371" ht="15">
@@ -4534,6 +5641,9 @@
       <c r="C371" s="6">
         <v>3511.93</v>
       </c>
+      <c r="D371" s="6">
+        <v>5.5859</v>
+      </c>
     </row>
     <row r="372" ht="15">
       <c r="A372" s="4">
@@ -4545,6 +5655,9 @@
       <c r="C372" s="6">
         <v>3488.67</v>
       </c>
+      <c r="D372" s="6">
+        <v>5.5675</v>
+      </c>
     </row>
     <row r="373" ht="15">
       <c r="A373" s="4">
@@ -4556,6 +5669,9 @@
       <c r="C373" s="6">
         <v>3483.34</v>
       </c>
+      <c r="D373" s="6">
+        <v>5.6172</v>
+      </c>
     </row>
     <row r="374" ht="15">
       <c r="A374" s="4">
@@ -4567,6 +5683,9 @@
       <c r="C374" s="6">
         <v>3483.81</v>
       </c>
+      <c r="D374" s="6">
+        <v>5.6226</v>
+      </c>
     </row>
     <row r="375" ht="15">
       <c r="A375" s="4">
@@ -4578,6 +5697,9 @@
       <c r="C375" s="6">
         <v>3426.92</v>
       </c>
+      <c r="D375" s="6">
+        <v>5.6023</v>
+      </c>
     </row>
     <row r="376" ht="15">
       <c r="A376" s="4">
@@ -4589,6 +5711,9 @@
       <c r="C376" s="6">
         <v>3443.12</v>
       </c>
+      <c r="D376" s="6">
+        <v>5.583</v>
+      </c>
     </row>
     <row r="377" ht="15">
       <c r="A377" s="4">
@@ -4600,6 +5725,9 @@
       <c r="C377" s="6">
         <v>3435.56</v>
       </c>
+      <c r="D377" s="6">
+        <v>5.6006</v>
+      </c>
     </row>
     <row r="378" ht="15">
       <c r="A378" s="4">
@@ -4611,6 +5739,9 @@
       <c r="C378" s="6">
         <v>3453.49</v>
       </c>
+      <c r="D378" s="6">
+        <v>5.582</v>
+      </c>
     </row>
     <row r="379" ht="15">
       <c r="A379" s="4">
@@ -4622,6 +5753,9 @@
       <c r="C379" s="6">
         <v>3465.39</v>
       </c>
+      <c r="D379" s="6">
+        <v>5.612</v>
+      </c>
     </row>
     <row r="380" ht="15">
       <c r="A380" s="4">
@@ -4633,6 +5767,9 @@
       <c r="C380" s="6">
         <v>3400.97</v>
       </c>
+      <c r="D380" s="6">
+        <v>5.6328</v>
+      </c>
     </row>
     <row r="381" ht="15">
       <c r="A381" s="4">
@@ -4644,6 +5781,9 @@
       <c r="C381" s="6">
         <v>3390.68</v>
       </c>
+      <c r="D381" s="6">
+        <v>5.6491</v>
+      </c>
     </row>
     <row r="382" ht="15">
       <c r="A382" s="4">
@@ -4655,6 +5795,9 @@
       <c r="C382" s="6">
         <v>3271.03</v>
       </c>
+      <c r="D382" s="6">
+        <v>5.7325</v>
+      </c>
     </row>
     <row r="383" ht="15">
       <c r="A383" s="4">
@@ -4666,6 +5809,9 @@
       <c r="C383" s="6">
         <v>3310.11</v>
       </c>
+      <c r="D383" s="6">
+        <v>5.7803</v>
+      </c>
     </row>
     <row r="384" ht="15">
       <c r="A384" s="4">
@@ -4677,16 +5823,22 @@
       <c r="C384" s="6">
         <v>3269.96</v>
       </c>
+      <c r="D384" s="6">
+        <v>5.7718</v>
+      </c>
     </row>
     <row r="385" ht="15">
       <c r="A385" s="4">
         <v>44137</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C385" s="6">
         <v>3310.24</v>
+      </c>
+      <c r="D385" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="386" ht="15">
@@ -4699,6 +5851,9 @@
       <c r="C386" s="6">
         <v>3369.16</v>
       </c>
+      <c r="D386" s="6">
+        <v>5.6895</v>
+      </c>
     </row>
     <row r="387" ht="15">
       <c r="A387" s="4">
@@ -4710,6 +5865,9 @@
       <c r="C387" s="6">
         <v>3443.44</v>
       </c>
+      <c r="D387" s="6">
+        <v>5.6932</v>
+      </c>
     </row>
     <row r="388" ht="15">
       <c r="A388" s="4">
@@ -4721,6 +5879,9 @@
       <c r="C388" s="6">
         <v>3510.45</v>
       </c>
+      <c r="D388" s="6">
+        <v>5.5624</v>
+      </c>
     </row>
     <row r="389" ht="15">
       <c r="A389" s="4">
@@ -4732,6 +5893,9 @@
       <c r="C389" s="6">
         <v>3509.44</v>
       </c>
+      <c r="D389" s="6">
+        <v>5.5313</v>
+      </c>
     </row>
     <row r="390" ht="15">
       <c r="A390" s="4">
@@ -4743,6 +5907,9 @@
       <c r="C390" s="6">
         <v>3550.5</v>
       </c>
+      <c r="D390" s="6">
+        <v>5.2821</v>
+      </c>
     </row>
     <row r="391" ht="15">
       <c r="A391" s="4">
@@ -4754,6 +5921,9 @@
       <c r="C391" s="6">
         <v>3545.53</v>
       </c>
+      <c r="D391" s="6">
+        <v>5.3696</v>
+      </c>
     </row>
     <row r="392" ht="15">
       <c r="A392" s="4">
@@ -4765,6 +5935,9 @@
       <c r="C392" s="6">
         <v>3572.66</v>
       </c>
+      <c r="D392" s="6">
+        <v>5.402</v>
+      </c>
     </row>
     <row r="393" ht="15">
       <c r="A393" s="4">
@@ -4776,6 +5949,9 @@
       <c r="C393" s="6">
         <v>3537.01</v>
       </c>
+      <c r="D393" s="6">
+        <v>5.4094</v>
+      </c>
     </row>
     <row r="394" ht="15">
       <c r="A394" s="4">
@@ -4787,6 +5963,9 @@
       <c r="C394" s="6">
         <v>3585.15</v>
       </c>
+      <c r="D394" s="6">
+        <v>5.4854</v>
+      </c>
     </row>
     <row r="395" ht="15">
       <c r="A395" s="4">
@@ -4798,6 +5977,9 @@
       <c r="C395" s="6">
         <v>3626.91</v>
       </c>
+      <c r="D395" s="6">
+        <v>5.4198</v>
+      </c>
     </row>
     <row r="396" ht="15">
       <c r="A396" s="4">
@@ -4809,6 +5991,9 @@
       <c r="C396" s="6">
         <v>3609.53</v>
       </c>
+      <c r="D396" s="6">
+        <v>5.3968</v>
+      </c>
     </row>
     <row r="397" ht="15">
       <c r="A397" s="4">
@@ -4820,6 +6005,9 @@
       <c r="C397" s="6">
         <v>3567.79</v>
       </c>
+      <c r="D397" s="6">
+        <v>5.2932</v>
+      </c>
     </row>
     <row r="398" ht="15">
       <c r="A398" s="4">
@@ -4831,6 +6019,9 @@
       <c r="C398" s="6">
         <v>3581.87</v>
       </c>
+      <c r="D398" s="6">
+        <v>5.333</v>
+      </c>
     </row>
     <row r="399" ht="15">
       <c r="A399" s="4">
@@ -4842,6 +6033,9 @@
       <c r="C399" s="6">
         <v>3557.54</v>
       </c>
+      <c r="D399" s="6">
+        <v>5.3505</v>
+      </c>
     </row>
     <row r="400" ht="15">
       <c r="A400" s="4">
@@ -4853,6 +6047,9 @@
       <c r="C400" s="6">
         <v>3577.59</v>
       </c>
+      <c r="D400" s="6">
+        <v>5.3828</v>
+      </c>
     </row>
     <row r="401" ht="15">
       <c r="A401" s="4">
@@ -4864,6 +6061,9 @@
       <c r="C401" s="6">
         <v>3635.41</v>
       </c>
+      <c r="D401" s="6">
+        <v>5.4037</v>
+      </c>
     </row>
     <row r="402" ht="15">
       <c r="A402" s="4">
@@ -4875,6 +6075,9 @@
       <c r="C402" s="6">
         <v>3629.65</v>
       </c>
+      <c r="D402" s="6">
+        <v>5.3508</v>
+      </c>
     </row>
     <row r="403" ht="15">
       <c r="A403" s="4">
@@ -4884,7 +6087,10 @@
         <v>110227.09</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D403" s="6">
+        <v>5.3201</v>
       </c>
     </row>
     <row r="404" ht="15">
@@ -4897,6 +6103,9 @@
       <c r="C404" s="6">
         <v>3638.35</v>
       </c>
+      <c r="D404" s="6">
+        <v>5.3494</v>
+      </c>
     </row>
     <row r="405" ht="15">
       <c r="A405" s="4">
@@ -4908,6 +6117,9 @@
       <c r="C405" s="6">
         <v>3621.63</v>
       </c>
+      <c r="D405" s="6">
+        <v>5.3317</v>
+      </c>
     </row>
     <row r="406" ht="15">
       <c r="A406" s="4">
@@ -4919,6 +6131,9 @@
       <c r="C406" s="6">
         <v>3662.45</v>
       </c>
+      <c r="D406" s="6">
+        <v>5.2789</v>
+      </c>
     </row>
     <row r="407" ht="15">
       <c r="A407" s="4">
@@ -4930,6 +6145,9 @@
       <c r="C407" s="6">
         <v>3669.01</v>
       </c>
+      <c r="D407" s="6">
+        <v>5.2267</v>
+      </c>
     </row>
     <row r="408" ht="15">
       <c r="A408" s="4">
@@ -4941,6 +6159,9 @@
       <c r="C408" s="6">
         <v>3666.72</v>
       </c>
+      <c r="D408" s="6">
+        <v>5.1625</v>
+      </c>
     </row>
     <row r="409" ht="15">
       <c r="A409" s="4">
@@ -4952,6 +6173,9 @@
       <c r="C409" s="6">
         <v>3699.12</v>
       </c>
+      <c r="D409" s="6">
+        <v>5.1706</v>
+      </c>
     </row>
     <row r="410" ht="15">
       <c r="A410" s="4">
@@ -4963,6 +6187,9 @@
       <c r="C410" s="6">
         <v>3691.96</v>
       </c>
+      <c r="D410" s="6">
+        <v>5.1018</v>
+      </c>
     </row>
     <row r="411" ht="15">
       <c r="A411" s="4">
@@ -4974,6 +6201,9 @@
       <c r="C411" s="6">
         <v>3702.25</v>
       </c>
+      <c r="D411" s="6">
+        <v>5.092</v>
+      </c>
     </row>
     <row r="412" ht="15">
       <c r="A412" s="4">
@@ -4985,6 +6215,9 @@
       <c r="C412" s="6">
         <v>3672.82</v>
       </c>
+      <c r="D412" s="6">
+        <v>5.1109</v>
+      </c>
     </row>
     <row r="413" ht="15">
       <c r="A413" s="4">
@@ -4996,6 +6229,9 @@
       <c r="C413" s="6">
         <v>3668.05</v>
       </c>
+      <c r="D413" s="6">
+        <v>5.0852</v>
+      </c>
     </row>
     <row r="414" ht="15">
       <c r="A414" s="4">
@@ -5007,6 +6243,9 @@
       <c r="C414" s="6">
         <v>3663.46</v>
       </c>
+      <c r="D414" s="6">
+        <v>5.0691</v>
+      </c>
     </row>
     <row r="415" ht="15">
       <c r="A415" s="4">
@@ -5018,6 +6257,9 @@
       <c r="C415" s="6">
         <v>3647.49</v>
       </c>
+      <c r="D415" s="6">
+        <v>5.0578</v>
+      </c>
     </row>
     <row r="416" ht="15">
       <c r="A416" s="4">
@@ -5029,6 +6271,9 @@
       <c r="C416" s="6">
         <v>3694.62</v>
       </c>
+      <c r="D416" s="6">
+        <v>5.0968</v>
+      </c>
     </row>
     <row r="417" ht="15">
       <c r="A417" s="4">
@@ -5040,6 +6285,9 @@
       <c r="C417" s="6">
         <v>3701.17</v>
       </c>
+      <c r="D417" s="6">
+        <v>5.1057</v>
+      </c>
     </row>
     <row r="418" ht="15">
       <c r="A418" s="4">
@@ -5051,6 +6299,9 @@
       <c r="C418" s="6">
         <v>3722.48</v>
       </c>
+      <c r="D418" s="6">
+        <v>5.0612</v>
+      </c>
     </row>
     <row r="419" ht="15">
       <c r="A419" s="4">
@@ -5062,6 +6313,9 @@
       <c r="C419" s="6">
         <v>3709.41</v>
       </c>
+      <c r="D419" s="6">
+        <v>5.0986</v>
+      </c>
     </row>
     <row r="420" ht="15">
       <c r="A420" s="4">
@@ -5073,6 +6327,9 @@
       <c r="C420" s="6">
         <v>3694.92</v>
       </c>
+      <c r="D420" s="6">
+        <v>5.1572</v>
+      </c>
     </row>
     <row r="421" ht="15">
       <c r="A421" s="4">
@@ -5084,6 +6341,9 @@
       <c r="C421" s="6">
         <v>3687.26</v>
       </c>
+      <c r="D421" s="6">
+        <v>5.1473</v>
+      </c>
     </row>
     <row r="422" ht="15">
       <c r="A422" s="4">
@@ -5095,16 +6355,22 @@
       <c r="C422" s="6">
         <v>3690.01</v>
       </c>
+      <c r="D422" s="6">
+        <v>5.174</v>
+      </c>
     </row>
     <row r="423" ht="15">
       <c r="A423" s="4">
         <v>44189</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C423" s="6">
         <v>3703.06</v>
+      </c>
+      <c r="D423" s="6">
+        <v>5.18</v>
       </c>
     </row>
     <row r="424" ht="15">
@@ -5112,10 +6378,13 @@
         <v>44190</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D424" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="425" ht="15">
@@ -5128,6 +6397,9 @@
       <c r="C425" s="6">
         <v>3735.36</v>
       </c>
+      <c r="D425" s="6">
+        <v>5.239</v>
+      </c>
     </row>
     <row r="426" ht="15">
       <c r="A426" s="4">
@@ -5139,6 +6411,9 @@
       <c r="C426" s="6">
         <v>3727.04</v>
       </c>
+      <c r="D426" s="6">
+        <v>5.1942</v>
+      </c>
     </row>
     <row r="427" ht="15">
       <c r="A427" s="4">
@@ -5150,16 +6425,22 @@
       <c r="C427" s="6">
         <v>3732.04</v>
       </c>
+      <c r="D427" s="6">
+        <v>5.1967</v>
+      </c>
     </row>
     <row r="428" ht="15">
       <c r="A428" s="4">
         <v>44196</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C428" s="6">
         <v>3756.07</v>
+      </c>
+      <c r="D428" s="6">
+        <v>5.1967</v>
       </c>
     </row>
     <row r="429" ht="15">
@@ -5167,10 +6448,13 @@
         <v>44197</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C429" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D429" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="430" ht="15">
@@ -5183,6 +6467,9 @@
       <c r="C430" s="6">
         <v>3700.65</v>
       </c>
+      <c r="D430" s="6">
+        <v>5.1626</v>
+      </c>
     </row>
     <row r="431" ht="15">
       <c r="A431" s="4">
@@ -5194,6 +6481,9 @@
       <c r="C431" s="6">
         <v>3726.86</v>
       </c>
+      <c r="D431" s="6">
+        <v>5.3269</v>
+      </c>
     </row>
     <row r="432" ht="15">
       <c r="A432" s="4">
@@ -5205,6 +6495,9 @@
       <c r="C432" s="6">
         <v>3748.14</v>
       </c>
+      <c r="D432" s="6">
+        <v>5.3182</v>
+      </c>
     </row>
     <row r="433" ht="15">
       <c r="A433" s="4">
@@ -5216,6 +6509,9 @@
       <c r="C433" s="6">
         <v>3803.79</v>
       </c>
+      <c r="D433" s="6">
+        <v>5.3433</v>
+      </c>
     </row>
     <row r="434" ht="15">
       <c r="A434" s="4">
@@ -5227,6 +6523,9 @@
       <c r="C434" s="6">
         <v>3824.68</v>
       </c>
+      <c r="D434" s="6">
+        <v>5.3683</v>
+      </c>
     </row>
     <row r="435" ht="15">
       <c r="A435" s="4">
@@ -5238,6 +6537,9 @@
       <c r="C435" s="6">
         <v>3799.61</v>
       </c>
+      <c r="D435" s="6">
+        <v>5.4966</v>
+      </c>
     </row>
     <row r="436" ht="15">
       <c r="A436" s="4">
@@ -5249,6 +6551,9 @@
       <c r="C436" s="6">
         <v>3801.19</v>
       </c>
+      <c r="D436" s="6">
+        <v>5.4637</v>
+      </c>
     </row>
     <row r="437" ht="15">
       <c r="A437" s="4">
@@ -5260,6 +6565,9 @@
       <c r="C437" s="6">
         <v>3809.84</v>
       </c>
+      <c r="D437" s="6">
+        <v>5.307</v>
+      </c>
     </row>
     <row r="438" ht="15">
       <c r="A438" s="4">
@@ -5271,6 +6579,9 @@
       <c r="C438" s="6">
         <v>3795.54</v>
       </c>
+      <c r="D438" s="6">
+        <v>5.2617</v>
+      </c>
     </row>
     <row r="439" ht="15">
       <c r="A439" s="4">
@@ -5282,6 +6593,9 @@
       <c r="C439" s="6">
         <v>3768.25</v>
       </c>
+      <c r="D439" s="6">
+        <v>5.2714</v>
+      </c>
     </row>
     <row r="440" ht="15">
       <c r="A440" s="4">
@@ -5291,7 +6605,10 @@
         <v>121241.63</v>
       </c>
       <c r="C440" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D440" s="6">
+        <v>5.2788</v>
       </c>
     </row>
     <row r="441" ht="15">
@@ -5304,6 +6621,9 @@
       <c r="C441" s="6">
         <v>3798.91</v>
       </c>
+      <c r="D441" s="6">
+        <v>5.2945</v>
+      </c>
     </row>
     <row r="442" ht="15">
       <c r="A442" s="4">
@@ -5315,6 +6635,9 @@
       <c r="C442" s="6">
         <v>3851.85</v>
       </c>
+      <c r="D442" s="6">
+        <v>5.3033</v>
+      </c>
     </row>
     <row r="443" ht="15">
       <c r="A443" s="4">
@@ -5326,6 +6649,9 @@
       <c r="C443" s="6">
         <v>3853.07</v>
       </c>
+      <c r="D443" s="6">
+        <v>5.3166</v>
+      </c>
     </row>
     <row r="444" ht="15">
       <c r="A444" s="4">
@@ -5337,16 +6663,22 @@
       <c r="C444" s="6">
         <v>3841.47</v>
       </c>
+      <c r="D444" s="6">
+        <v>5.4301</v>
+      </c>
     </row>
     <row r="445" ht="15">
       <c r="A445" s="4">
         <v>44221</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C445" s="6">
         <v>3855.36</v>
+      </c>
+      <c r="D445" s="6">
+        <v>5.5089</v>
       </c>
     </row>
     <row r="446" ht="15">
@@ -5359,6 +6691,9 @@
       <c r="C446" s="6">
         <v>3849.62</v>
       </c>
+      <c r="D446" s="6">
+        <v>5.3865</v>
+      </c>
     </row>
     <row r="447" ht="15">
       <c r="A447" s="4">
@@ -5370,6 +6705,9 @@
       <c r="C447" s="6">
         <v>3750.77</v>
       </c>
+      <c r="D447" s="6">
+        <v>5.3824</v>
+      </c>
     </row>
     <row r="448" ht="15">
       <c r="A448" s="4">
@@ -5381,6 +6719,9 @@
       <c r="C448" s="6">
         <v>3787.38</v>
       </c>
+      <c r="D448" s="6">
+        <v>5.4282</v>
+      </c>
     </row>
     <row r="449" ht="15">
       <c r="A449" s="4">
@@ -5392,6 +6733,9 @@
       <c r="C449" s="6">
         <v>3714.24</v>
       </c>
+      <c r="D449" s="6">
+        <v>5.4759</v>
+      </c>
     </row>
     <row r="450" ht="15">
       <c r="A450" s="4">
@@ -5403,6 +6747,9 @@
       <c r="C450" s="6">
         <v>3773.86</v>
       </c>
+      <c r="D450" s="6">
+        <v>5.4608</v>
+      </c>
     </row>
     <row r="451" ht="15">
       <c r="A451" s="4">
@@ -5414,6 +6761,9 @@
       <c r="C451" s="6">
         <v>3826.31</v>
       </c>
+      <c r="D451" s="6">
+        <v>5.3875</v>
+      </c>
     </row>
     <row r="452" ht="15">
       <c r="A452" s="4">
@@ -5425,6 +6775,9 @@
       <c r="C452" s="6">
         <v>3830.17</v>
       </c>
+      <c r="D452" s="6">
+        <v>5.3423</v>
+      </c>
     </row>
     <row r="453" ht="15">
       <c r="A453" s="4">
@@ -5436,6 +6789,9 @@
       <c r="C453" s="6">
         <v>3871.74</v>
       </c>
+      <c r="D453" s="6">
+        <v>5.391</v>
+      </c>
     </row>
     <row r="454" ht="15">
       <c r="A454" s="4">
@@ -5447,6 +6803,9 @@
       <c r="C454" s="6">
         <v>3886.83</v>
       </c>
+      <c r="D454" s="6">
+        <v>5.3884</v>
+      </c>
     </row>
     <row r="455" ht="15">
       <c r="A455" s="4">
@@ -5458,6 +6817,9 @@
       <c r="C455" s="6">
         <v>3915.59</v>
       </c>
+      <c r="D455" s="6">
+        <v>5.367</v>
+      </c>
     </row>
     <row r="456" ht="15">
       <c r="A456" s="4">
@@ -5469,6 +6831,9 @@
       <c r="C456" s="6">
         <v>3911.23</v>
       </c>
+      <c r="D456" s="6">
+        <v>5.4216</v>
+      </c>
     </row>
     <row r="457" ht="15">
       <c r="A457" s="4">
@@ -5480,6 +6845,9 @@
       <c r="C457" s="6">
         <v>3909.88</v>
       </c>
+      <c r="D457" s="6">
+        <v>5.4024</v>
+      </c>
     </row>
     <row r="458" ht="15">
       <c r="A458" s="4">
@@ -5491,6 +6859,9 @@
       <c r="C458" s="6">
         <v>3916.38</v>
       </c>
+      <c r="D458" s="6">
+        <v>5.3626</v>
+      </c>
     </row>
     <row r="459" ht="15">
       <c r="A459" s="4">
@@ -5502,16 +6873,22 @@
       <c r="C459" s="6">
         <v>3934.83</v>
       </c>
+      <c r="D459" s="6">
+        <v>5.3815</v>
+      </c>
     </row>
     <row r="460" ht="15">
       <c r="A460" s="4">
         <v>44242</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D460" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="461" ht="15">
@@ -5519,10 +6896,13 @@
         <v>44243</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C461" s="6">
         <v>3932.59</v>
+      </c>
+      <c r="D461" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="462" ht="15">
@@ -5535,6 +6915,9 @@
       <c r="C462" s="6">
         <v>3931.33</v>
       </c>
+      <c r="D462" s="6">
+        <v>5.4138</v>
+      </c>
     </row>
     <row r="463" ht="15">
       <c r="A463" s="4">
@@ -5546,6 +6929,9 @@
       <c r="C463" s="6">
         <v>3913.97</v>
       </c>
+      <c r="D463" s="6">
+        <v>5.4238</v>
+      </c>
     </row>
     <row r="464" ht="15">
       <c r="A464" s="4">
@@ -5557,6 +6943,9 @@
       <c r="C464" s="6">
         <v>3906.71</v>
       </c>
+      <c r="D464" s="6">
+        <v>5.3924</v>
+      </c>
     </row>
     <row r="465" ht="15">
       <c r="A465" s="4">
@@ -5568,6 +6957,9 @@
       <c r="C465" s="6">
         <v>3876.5</v>
       </c>
+      <c r="D465" s="6">
+        <v>5.5044</v>
+      </c>
     </row>
     <row r="466" ht="15">
       <c r="A466" s="4">
@@ -5579,6 +6971,9 @@
       <c r="C466" s="6">
         <v>3881.37</v>
       </c>
+      <c r="D466" s="6">
+        <v>5.449</v>
+      </c>
     </row>
     <row r="467" ht="15">
       <c r="A467" s="4">
@@ -5590,6 +6985,9 @@
       <c r="C467" s="6">
         <v>3925.43</v>
       </c>
+      <c r="D467" s="6">
+        <v>5.4182</v>
+      </c>
     </row>
     <row r="468" ht="15">
       <c r="A468" s="4">
@@ -5601,6 +6999,9 @@
       <c r="C468" s="6">
         <v>3829.34</v>
       </c>
+      <c r="D468" s="6">
+        <v>5.46</v>
+      </c>
     </row>
     <row r="469" ht="15">
       <c r="A469" s="4">
@@ -5612,6 +7013,9 @@
       <c r="C469" s="6">
         <v>3811.15</v>
       </c>
+      <c r="D469" s="6">
+        <v>5.5302</v>
+      </c>
     </row>
     <row r="470" ht="15">
       <c r="A470" s="4">
@@ -5623,6 +7027,9 @@
       <c r="C470" s="6">
         <v>3901.82</v>
       </c>
+      <c r="D470" s="6">
+        <v>5.5832</v>
+      </c>
     </row>
     <row r="471" ht="15">
       <c r="A471" s="4">
@@ -5634,6 +7041,9 @@
       <c r="C471" s="6">
         <v>3870.29</v>
       </c>
+      <c r="D471" s="6">
+        <v>5.6844</v>
+      </c>
     </row>
     <row r="472" ht="15">
       <c r="A472" s="4">
@@ -5645,6 +7055,9 @@
       <c r="C472" s="6">
         <v>3819.72</v>
       </c>
+      <c r="D472" s="6">
+        <v>5.7342</v>
+      </c>
     </row>
     <row r="473" ht="15">
       <c r="A473" s="4">
@@ -5656,6 +7069,9 @@
       <c r="C473" s="6">
         <v>3768.47</v>
       </c>
+      <c r="D473" s="6">
+        <v>5.6008</v>
+      </c>
     </row>
     <row r="474" ht="15">
       <c r="A474" s="4">
@@ -5667,6 +7083,9 @@
       <c r="C474" s="6">
         <v>3841.94</v>
       </c>
+      <c r="D474" s="6">
+        <v>5.687</v>
+      </c>
     </row>
     <row r="475" ht="15">
       <c r="A475" s="4">
@@ -5678,6 +7097,9 @@
       <c r="C475" s="6">
         <v>3821.35</v>
       </c>
+      <c r="D475" s="6">
+        <v>5.7343</v>
+      </c>
     </row>
     <row r="476" ht="15">
       <c r="A476" s="4">
@@ -5689,6 +7111,9 @@
       <c r="C476" s="6">
         <v>3875.44</v>
       </c>
+      <c r="D476" s="6">
+        <v>5.8397</v>
+      </c>
     </row>
     <row r="477" ht="15">
       <c r="A477" s="4">
@@ -5700,6 +7125,9 @@
       <c r="C477" s="6">
         <v>3898.81</v>
       </c>
+      <c r="D477" s="6">
+        <v>5.7449</v>
+      </c>
     </row>
     <row r="478" ht="15">
       <c r="A478" s="4">
@@ -5711,6 +7139,9 @@
       <c r="C478" s="6">
         <v>3939.34</v>
       </c>
+      <c r="D478" s="6">
+        <v>5.589</v>
+      </c>
     </row>
     <row r="479" ht="15">
       <c r="A479" s="4">
@@ -5722,6 +7153,9 @@
       <c r="C479" s="6">
         <v>3943.34</v>
       </c>
+      <c r="D479" s="6">
+        <v>5.564</v>
+      </c>
     </row>
     <row r="480" ht="15">
       <c r="A480" s="4">
@@ -5733,6 +7167,9 @@
       <c r="C480" s="6">
         <v>3968.94</v>
       </c>
+      <c r="D480" s="6">
+        <v>5.6296</v>
+      </c>
     </row>
     <row r="481" ht="15">
       <c r="A481" s="4">
@@ -5744,6 +7181,9 @@
       <c r="C481" s="6">
         <v>3962.71</v>
       </c>
+      <c r="D481" s="6">
+        <v>5.5851</v>
+      </c>
     </row>
     <row r="482" ht="15">
       <c r="A482" s="4">
@@ -5755,6 +7195,9 @@
       <c r="C482" s="6">
         <v>3974.12</v>
       </c>
+      <c r="D482" s="6">
+        <v>5.6579</v>
+      </c>
     </row>
     <row r="483" ht="15">
       <c r="A483" s="4">
@@ -5766,6 +7209,9 @@
       <c r="C483" s="6">
         <v>3915.46</v>
       </c>
+      <c r="D483" s="6">
+        <v>5.5474</v>
+      </c>
     </row>
     <row r="484" ht="15">
       <c r="A484" s="4">
@@ -5777,6 +7223,9 @@
       <c r="C484" s="6">
         <v>3913.1</v>
       </c>
+      <c r="D484" s="6">
+        <v>5.5082</v>
+      </c>
     </row>
     <row r="485" ht="15">
       <c r="A485" s="4">
@@ -5788,6 +7237,9 @@
       <c r="C485" s="6">
         <v>3940.59</v>
       </c>
+      <c r="D485" s="6">
+        <v>5.5269</v>
+      </c>
     </row>
     <row r="486" ht="15">
       <c r="A486" s="4">
@@ -5799,6 +7251,9 @@
       <c r="C486" s="6">
         <v>3910.52</v>
       </c>
+      <c r="D486" s="6">
+        <v>5.4951</v>
+      </c>
     </row>
     <row r="487" ht="15">
       <c r="A487" s="4">
@@ -5810,6 +7265,9 @@
       <c r="C487" s="6">
         <v>3889.14</v>
       </c>
+      <c r="D487" s="6">
+        <v>5.533</v>
+      </c>
     </row>
     <row r="488" ht="15">
       <c r="A488" s="4">
@@ -5821,6 +7279,9 @@
       <c r="C488" s="6">
         <v>3909.52</v>
       </c>
+      <c r="D488" s="6">
+        <v>5.6585</v>
+      </c>
     </row>
     <row r="489" ht="15">
       <c r="A489" s="4">
@@ -5832,6 +7293,9 @@
       <c r="C489" s="6">
         <v>3974.54</v>
       </c>
+      <c r="D489" s="6">
+        <v>5.7042</v>
+      </c>
     </row>
     <row r="490" ht="15">
       <c r="A490" s="4">
@@ -5843,6 +7307,9 @@
       <c r="C490" s="6">
         <v>3971.1</v>
       </c>
+      <c r="D490" s="6">
+        <v>5.7925</v>
+      </c>
     </row>
     <row r="491" ht="15">
       <c r="A491" s="4">
@@ -5854,6 +7321,9 @@
       <c r="C491" s="6">
         <v>3958.55</v>
       </c>
+      <c r="D491" s="6">
+        <v>5.7642</v>
+      </c>
     </row>
     <row r="492" ht="15">
       <c r="A492" s="4">
@@ -5865,6 +7335,9 @@
       <c r="C492" s="6">
         <v>3972.89</v>
       </c>
+      <c r="D492" s="6">
+        <v>5.6973</v>
+      </c>
     </row>
     <row r="493" ht="15">
       <c r="A493" s="4">
@@ -5876,16 +7349,22 @@
       <c r="C493" s="6">
         <v>4019.87</v>
       </c>
+      <c r="D493" s="6">
+        <v>5.6849</v>
+      </c>
     </row>
     <row r="494" ht="15">
       <c r="A494" s="4">
         <v>44288</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C494" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D494" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="495" ht="15">
@@ -5898,6 +7377,9 @@
       <c r="C495" s="6">
         <v>4077.91</v>
       </c>
+      <c r="D495" s="6">
+        <v>5.6579</v>
+      </c>
     </row>
     <row r="496" ht="15">
       <c r="A496" s="4">
@@ -5909,6 +7391,9 @@
       <c r="C496" s="6">
         <v>4073.94</v>
       </c>
+      <c r="D496" s="6">
+        <v>5.6263</v>
+      </c>
     </row>
     <row r="497" ht="15">
       <c r="A497" s="4">
@@ -5920,6 +7405,9 @@
       <c r="C497" s="6">
         <v>4079.95</v>
       </c>
+      <c r="D497" s="6">
+        <v>5.5864</v>
+      </c>
     </row>
     <row r="498" ht="15">
       <c r="A498" s="4">
@@ -5931,6 +7419,9 @@
       <c r="C498" s="6">
         <v>4097.17</v>
       </c>
+      <c r="D498" s="6">
+        <v>5.5817</v>
+      </c>
     </row>
     <row r="499" ht="15">
       <c r="A499" s="4">
@@ -5942,6 +7433,9 @@
       <c r="C499" s="6">
         <v>4128.8</v>
       </c>
+      <c r="D499" s="6">
+        <v>5.6445</v>
+      </c>
     </row>
     <row r="500" ht="15">
       <c r="A500" s="4">
@@ -5953,6 +7447,9 @@
       <c r="C500" s="6">
         <v>4127.99</v>
       </c>
+      <c r="D500" s="6">
+        <v>5.6582</v>
+      </c>
     </row>
     <row r="501" ht="15">
       <c r="A501" s="4">
@@ -5964,6 +7461,9 @@
       <c r="C501" s="6">
         <v>4141.59</v>
       </c>
+      <c r="D501" s="6">
+        <v>5.7064</v>
+      </c>
     </row>
     <row r="502" ht="15">
       <c r="A502" s="4">
@@ -5975,6 +7475,9 @@
       <c r="C502" s="6">
         <v>4124.66</v>
       </c>
+      <c r="D502" s="6">
+        <v>5.6936</v>
+      </c>
     </row>
     <row r="503" ht="15">
       <c r="A503" s="4">
@@ -5986,6 +7489,9 @@
       <c r="C503" s="6">
         <v>4170.42</v>
       </c>
+      <c r="D503" s="6">
+        <v>5.6234</v>
+      </c>
     </row>
     <row r="504" ht="15">
       <c r="A504" s="4">
@@ -5997,6 +7503,9 @@
       <c r="C504" s="6">
         <v>4185.47</v>
       </c>
+      <c r="D504" s="6">
+        <v>5.6328</v>
+      </c>
     </row>
     <row r="505" ht="15">
       <c r="A505" s="4">
@@ -6008,6 +7517,9 @@
       <c r="C505" s="6">
         <v>4163.26</v>
       </c>
+      <c r="D505" s="6">
+        <v>5.575</v>
+      </c>
     </row>
     <row r="506" ht="15">
       <c r="A506" s="4">
@@ -6019,16 +7531,22 @@
       <c r="C506" s="6">
         <v>4134.94</v>
       </c>
+      <c r="D506" s="6">
+        <v>5.5266</v>
+      </c>
     </row>
     <row r="507" ht="15">
       <c r="A507" s="4">
         <v>44307</v>
       </c>
       <c r="B507" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C507" s="6">
         <v>4173.42</v>
+      </c>
+      <c r="D507" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="508" ht="15">
@@ -6041,6 +7559,9 @@
       <c r="C508" s="6">
         <v>4134.98</v>
       </c>
+      <c r="D508" s="6">
+        <v>5.497</v>
+      </c>
     </row>
     <row r="509" ht="15">
       <c r="A509" s="4">
@@ -6052,6 +7573,9 @@
       <c r="C509" s="6">
         <v>4180.17</v>
       </c>
+      <c r="D509" s="6">
+        <v>5.4787</v>
+      </c>
     </row>
     <row r="510" ht="15">
       <c r="A510" s="4">
@@ -6063,6 +7587,9 @@
       <c r="C510" s="6">
         <v>4187.62</v>
       </c>
+      <c r="D510" s="6">
+        <v>5.4566</v>
+      </c>
     </row>
     <row r="511" ht="15">
       <c r="A511" s="4">
@@ -6074,6 +7601,9 @@
       <c r="C511" s="6">
         <v>4186.72</v>
       </c>
+      <c r="D511" s="6">
+        <v>5.4424</v>
+      </c>
     </row>
     <row r="512" ht="15">
       <c r="A512" s="4">
@@ -6085,6 +7615,9 @@
       <c r="C512" s="6">
         <v>4183.18</v>
       </c>
+      <c r="D512" s="6">
+        <v>5.4005</v>
+      </c>
     </row>
     <row r="513" ht="15">
       <c r="A513" s="4">
@@ -6096,6 +7629,9 @@
       <c r="C513" s="6">
         <v>4211.53</v>
       </c>
+      <c r="D513" s="6">
+        <v>5.3662</v>
+      </c>
     </row>
     <row r="514" ht="15">
       <c r="A514" s="4">
@@ -6107,6 +7643,9 @@
       <c r="C514" s="6">
         <v>4181.17</v>
       </c>
+      <c r="D514" s="6">
+        <v>5.4036</v>
+      </c>
     </row>
     <row r="515" ht="15">
       <c r="A515" s="4">
@@ -6118,6 +7657,9 @@
       <c r="C515" s="6">
         <v>4192.66</v>
       </c>
+      <c r="D515" s="6">
+        <v>5.4087</v>
+      </c>
     </row>
     <row r="516" ht="15">
       <c r="A516" s="4">
@@ -6129,6 +7671,9 @@
       <c r="C516" s="6">
         <v>4164.66</v>
       </c>
+      <c r="D516" s="6">
+        <v>5.4505</v>
+      </c>
     </row>
     <row r="517" ht="15">
       <c r="A517" s="4">
@@ -6140,6 +7685,9 @@
       <c r="C517" s="6">
         <v>4167.59</v>
       </c>
+      <c r="D517" s="6">
+        <v>5.3872</v>
+      </c>
     </row>
     <row r="518" ht="15">
       <c r="A518" s="4">
@@ -6151,6 +7699,9 @@
       <c r="C518" s="6">
         <v>4201.62</v>
       </c>
+      <c r="D518" s="6">
+        <v>5.2897</v>
+      </c>
     </row>
     <row r="519" ht="15">
       <c r="A519" s="4">
@@ -6162,6 +7713,9 @@
       <c r="C519" s="6">
         <v>4232.6</v>
       </c>
+      <c r="D519" s="6">
+        <v>5.2217</v>
+      </c>
     </row>
     <row r="520" ht="15">
       <c r="A520" s="4">
@@ -6173,6 +7727,9 @@
       <c r="C520" s="6">
         <v>4188.43</v>
       </c>
+      <c r="D520" s="6">
+        <v>5.2227</v>
+      </c>
     </row>
     <row r="521" ht="15">
       <c r="A521" s="4">
@@ -6184,6 +7741,9 @@
       <c r="C521" s="6">
         <v>4152.1</v>
       </c>
+      <c r="D521" s="6">
+        <v>5.2403</v>
+      </c>
     </row>
     <row r="522" ht="15">
       <c r="A522" s="4">
@@ -6195,6 +7755,9 @@
       <c r="C522" s="6">
         <v>4063.04</v>
       </c>
+      <c r="D522" s="6">
+        <v>5.2353</v>
+      </c>
     </row>
     <row r="523" ht="15">
       <c r="A523" s="4">
@@ -6206,6 +7769,9 @@
       <c r="C523" s="6">
         <v>4112.5</v>
       </c>
+      <c r="D523" s="6">
+        <v>5.2815</v>
+      </c>
     </row>
     <row r="524" ht="15">
       <c r="A524" s="4">
@@ -6217,6 +7783,9 @@
       <c r="C524" s="6">
         <v>4173.85</v>
       </c>
+      <c r="D524" s="6">
+        <v>5.2701</v>
+      </c>
     </row>
     <row r="525" ht="15">
       <c r="A525" s="4">
@@ -6228,6 +7797,9 @@
       <c r="C525" s="6">
         <v>4163.29</v>
       </c>
+      <c r="D525" s="6">
+        <v>5.2755</v>
+      </c>
     </row>
     <row r="526" ht="15">
       <c r="A526" s="4">
@@ -6239,6 +7811,9 @@
       <c r="C526" s="6">
         <v>4127.83</v>
       </c>
+      <c r="D526" s="6">
+        <v>5.2588</v>
+      </c>
     </row>
     <row r="527" ht="15">
       <c r="A527" s="4">
@@ -6250,6 +7825,9 @@
       <c r="C527" s="6">
         <v>4115.68</v>
       </c>
+      <c r="D527" s="6">
+        <v>5.2822</v>
+      </c>
     </row>
     <row r="528" ht="15">
       <c r="A528" s="4">
@@ -6261,6 +7839,9 @@
       <c r="C528" s="6">
         <v>4159.12</v>
       </c>
+      <c r="D528" s="6">
+        <v>5.2905</v>
+      </c>
     </row>
     <row r="529" ht="15">
       <c r="A529" s="4">
@@ -6272,6 +7853,9 @@
       <c r="C529" s="6">
         <v>4155.86</v>
       </c>
+      <c r="D529" s="6">
+        <v>5.3027</v>
+      </c>
     </row>
     <row r="530" ht="15">
       <c r="A530" s="4">
@@ -6283,6 +7867,9 @@
       <c r="C530" s="6">
         <v>4197.05</v>
       </c>
+      <c r="D530" s="6">
+        <v>5.3198</v>
+      </c>
     </row>
     <row r="531" ht="15">
       <c r="A531" s="4">
@@ -6294,6 +7881,9 @@
       <c r="C531" s="6">
         <v>4188.13</v>
       </c>
+      <c r="D531" s="6">
+        <v>5.3143</v>
+      </c>
     </row>
     <row r="532" ht="15">
       <c r="A532" s="4">
@@ -6305,6 +7895,9 @@
       <c r="C532" s="6">
         <v>4195.99</v>
       </c>
+      <c r="D532" s="6">
+        <v>5.3164</v>
+      </c>
     </row>
     <row r="533" ht="15">
       <c r="A533" s="4">
@@ -6316,6 +7909,9 @@
       <c r="C533" s="6">
         <v>4200.88</v>
       </c>
+      <c r="D533" s="6">
+        <v>5.284</v>
+      </c>
     </row>
     <row r="534" ht="15">
       <c r="A534" s="4">
@@ -6327,6 +7923,9 @@
       <c r="C534" s="6">
         <v>4204.11</v>
       </c>
+      <c r="D534" s="6">
+        <v>5.2281</v>
+      </c>
     </row>
     <row r="535" ht="15">
       <c r="A535" s="4">
@@ -6336,7 +7935,10 @@
         <v>126215.73</v>
       </c>
       <c r="C535" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D535" s="6">
+        <v>5.2322</v>
       </c>
     </row>
     <row r="536" ht="15">
@@ -6349,6 +7951,9 @@
       <c r="C536" s="6">
         <v>4202.04</v>
       </c>
+      <c r="D536" s="6">
+        <v>5.1636</v>
+      </c>
     </row>
     <row r="537" ht="15">
       <c r="A537" s="4">
@@ -6360,16 +7965,22 @@
       <c r="C537" s="6">
         <v>4208.12</v>
       </c>
+      <c r="D537" s="6">
+        <v>5.1147</v>
+      </c>
     </row>
     <row r="538" ht="15">
       <c r="A538" s="4">
         <v>44350</v>
       </c>
       <c r="B538" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C538" s="6">
         <v>4192.85</v>
+      </c>
+      <c r="D538" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="539" ht="15">
@@ -6382,6 +7993,9 @@
       <c r="C539" s="6">
         <v>4229.89</v>
       </c>
+      <c r="D539" s="6">
+        <v>5.0666</v>
+      </c>
     </row>
     <row r="540" ht="15">
       <c r="A540" s="4">
@@ -6393,6 +8007,9 @@
       <c r="C540" s="6">
         <v>4226.52</v>
       </c>
+      <c r="D540" s="6">
+        <v>5.0498</v>
+      </c>
     </row>
     <row r="541" ht="15">
       <c r="A541" s="4">
@@ -6404,6 +8021,9 @@
       <c r="C541" s="6">
         <v>4227.23</v>
       </c>
+      <c r="D541" s="6">
+        <v>5.0489</v>
+      </c>
     </row>
     <row r="542" ht="15">
       <c r="A542" s="4">
@@ -6415,6 +8035,9 @@
       <c r="C542" s="6">
         <v>4219.55</v>
       </c>
+      <c r="D542" s="6">
+        <v>5.0533</v>
+      </c>
     </row>
     <row r="543" ht="15">
       <c r="A543" s="4">
@@ -6426,6 +8049,9 @@
       <c r="C543" s="6">
         <v>4239.18</v>
       </c>
+      <c r="D543" s="6">
+        <v>5.0635</v>
+      </c>
     </row>
     <row r="544" ht="15">
       <c r="A544" s="4">
@@ -6437,6 +8063,9 @@
       <c r="C544" s="6">
         <v>4247.44</v>
       </c>
+      <c r="D544" s="6">
+        <v>5.119</v>
+      </c>
     </row>
     <row r="545" ht="15">
       <c r="A545" s="4">
@@ -6448,6 +8077,9 @@
       <c r="C545" s="6">
         <v>4255.15</v>
       </c>
+      <c r="D545" s="6">
+        <v>5.0707</v>
+      </c>
     </row>
     <row r="546" ht="15">
       <c r="A546" s="4">
@@ -6459,6 +8091,9 @@
       <c r="C546" s="6">
         <v>4246.59</v>
       </c>
+      <c r="D546" s="6">
+        <v>5.0874</v>
+      </c>
     </row>
     <row r="547" ht="15">
       <c r="A547" s="4">
@@ -6470,6 +8105,9 @@
       <c r="C547" s="6">
         <v>4223.7</v>
       </c>
+      <c r="D547" s="6">
+        <v>5.0207</v>
+      </c>
     </row>
     <row r="548" ht="15">
       <c r="A548" s="4">
@@ -6481,6 +8119,9 @@
       <c r="C548" s="6">
         <v>4221.86</v>
       </c>
+      <c r="D548" s="6">
+        <v>5.0359</v>
+      </c>
     </row>
     <row r="549" ht="15">
       <c r="A549" s="4">
@@ -6492,6 +8133,9 @@
       <c r="C549" s="6">
         <v>4166.45</v>
       </c>
+      <c r="D549" s="6">
+        <v>5.0314</v>
+      </c>
     </row>
     <row r="550" ht="15">
       <c r="A550" s="4">
@@ -6503,6 +8147,9 @@
       <c r="C550" s="6">
         <v>4224.79</v>
       </c>
+      <c r="D550" s="6">
+        <v>5.0373</v>
+      </c>
     </row>
     <row r="551" ht="15">
       <c r="A551" s="4">
@@ -6514,6 +8161,9 @@
       <c r="C551" s="6">
         <v>4246.44</v>
       </c>
+      <c r="D551" s="6">
+        <v>5.0178</v>
+      </c>
     </row>
     <row r="552" ht="15">
       <c r="A552" s="4">
@@ -6525,6 +8175,9 @@
       <c r="C552" s="6">
         <v>4241.84</v>
       </c>
+      <c r="D552" s="6">
+        <v>4.9519</v>
+      </c>
     </row>
     <row r="553" ht="15">
       <c r="A553" s="4">
@@ -6536,6 +8189,9 @@
       <c r="C553" s="6">
         <v>4266.49</v>
       </c>
+      <c r="D553" s="6">
+        <v>4.9277</v>
+      </c>
     </row>
     <row r="554" ht="15">
       <c r="A554" s="4">
@@ -6547,6 +8203,9 @@
       <c r="C554" s="6">
         <v>4280.7</v>
       </c>
+      <c r="D554" s="6">
+        <v>4.9206</v>
+      </c>
     </row>
     <row r="555" ht="15">
       <c r="A555" s="4">
@@ -6558,6 +8217,9 @@
       <c r="C555" s="6">
         <v>4290.61</v>
       </c>
+      <c r="D555" s="6">
+        <v>4.942</v>
+      </c>
     </row>
     <row r="556" ht="15">
       <c r="A556" s="4">
@@ -6569,6 +8231,9 @@
       <c r="C556" s="6">
         <v>4291.8</v>
       </c>
+      <c r="D556" s="6">
+        <v>4.945</v>
+      </c>
     </row>
     <row r="557" ht="15">
       <c r="A557" s="4">
@@ -6580,6 +8245,9 @@
       <c r="C557" s="6">
         <v>4297.5</v>
       </c>
+      <c r="D557" s="6">
+        <v>5.0022</v>
+      </c>
     </row>
     <row r="558" ht="15">
       <c r="A558" s="4">
@@ -6591,6 +8259,9 @@
       <c r="C558" s="6">
         <v>4319.94</v>
       </c>
+      <c r="D558" s="6">
+        <v>5.0055</v>
+      </c>
     </row>
     <row r="559" ht="15">
       <c r="A559" s="4">
@@ -6602,6 +8273,9 @@
       <c r="C559" s="6">
         <v>4352.34</v>
       </c>
+      <c r="D559" s="6">
+        <v>5.0293</v>
+      </c>
     </row>
     <row r="560" ht="15">
       <c r="A560" s="4">
@@ -6611,7 +8285,10 @@
         <v>126920.05</v>
       </c>
       <c r="C560" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D560" s="6">
+        <v>5.0749</v>
       </c>
     </row>
     <row r="561" ht="15">
@@ -6624,6 +8301,9 @@
       <c r="C561" s="6">
         <v>4343.54</v>
       </c>
+      <c r="D561" s="6">
+        <v>5.1645</v>
+      </c>
     </row>
     <row r="562" ht="15">
       <c r="A562" s="4">
@@ -6635,6 +8315,9 @@
       <c r="C562" s="6">
         <v>4358.13</v>
       </c>
+      <c r="D562" s="6">
+        <v>5.2328</v>
+      </c>
     </row>
     <row r="563" ht="15">
       <c r="A563" s="4">
@@ -6646,16 +8329,22 @@
       <c r="C563" s="6">
         <v>4320.82</v>
       </c>
+      <c r="D563" s="6">
+        <v>5.2587</v>
+      </c>
     </row>
     <row r="564" ht="15">
       <c r="A564" s="4">
         <v>44386</v>
       </c>
       <c r="B564" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C564" s="6">
         <v>4369.55</v>
+      </c>
+      <c r="D564" s="6">
+        <v>5.2393</v>
       </c>
     </row>
     <row r="565" ht="15">
@@ -6668,6 +8357,9 @@
       <c r="C565" s="6">
         <v>4384.63</v>
       </c>
+      <c r="D565" s="6">
+        <v>5.2239</v>
+      </c>
     </row>
     <row r="566" ht="15">
       <c r="A566" s="4">
@@ -6679,6 +8371,9 @@
       <c r="C566" s="6">
         <v>4369.21</v>
       </c>
+      <c r="D566" s="6">
+        <v>5.177</v>
+      </c>
     </row>
     <row r="567" ht="15">
       <c r="A567" s="4">
@@ -6690,6 +8385,9 @@
       <c r="C567" s="6">
         <v>4374.3</v>
       </c>
+      <c r="D567" s="6">
+        <v>5.088</v>
+      </c>
     </row>
     <row r="568" ht="15">
       <c r="A568" s="4">
@@ -6701,6 +8399,9 @@
       <c r="C568" s="6">
         <v>4360.03</v>
       </c>
+      <c r="D568" s="6">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="569" ht="15">
       <c r="A569" s="4">
@@ -6712,6 +8413,9 @@
       <c r="C569" s="6">
         <v>4327.16</v>
       </c>
+      <c r="D569" s="6">
+        <v>5.0941</v>
+      </c>
     </row>
     <row r="570" ht="15">
       <c r="A570" s="4">
@@ -6723,6 +8427,9 @@
       <c r="C570" s="6">
         <v>4258.49</v>
       </c>
+      <c r="D570" s="6">
+        <v>5.1978</v>
+      </c>
     </row>
     <row r="571" ht="15">
       <c r="A571" s="4">
@@ -6734,6 +8441,9 @@
       <c r="C571" s="6">
         <v>4323.06</v>
       </c>
+      <c r="D571" s="6">
+        <v>5.2465</v>
+      </c>
     </row>
     <row r="572" ht="15">
       <c r="A572" s="4">
@@ -6745,6 +8455,9 @@
       <c r="C572" s="6">
         <v>4358.69</v>
       </c>
+      <c r="D572" s="6">
+        <v>5.2516</v>
+      </c>
     </row>
     <row r="573" ht="15">
       <c r="A573" s="4">
@@ -6756,6 +8469,9 @@
       <c r="C573" s="6">
         <v>4367.48</v>
       </c>
+      <c r="D573" s="6">
+        <v>5.1978</v>
+      </c>
     </row>
     <row r="574" ht="15">
       <c r="A574" s="4">
@@ -6767,6 +8483,9 @@
       <c r="C574" s="6">
         <v>4411.79</v>
       </c>
+      <c r="D574" s="6">
+        <v>5.1701</v>
+      </c>
     </row>
     <row r="575" ht="15">
       <c r="A575" s="4">
@@ -6778,6 +8497,9 @@
       <c r="C575" s="6">
         <v>4422.3</v>
       </c>
+      <c r="D575" s="6">
+        <v>5.1863</v>
+      </c>
     </row>
     <row r="576" ht="15">
       <c r="A576" s="4">
@@ -6789,6 +8511,9 @@
       <c r="C576" s="6">
         <v>4401.46</v>
       </c>
+      <c r="D576" s="6">
+        <v>5.1669</v>
+      </c>
     </row>
     <row r="577" ht="15">
       <c r="A577" s="4">
@@ -6800,6 +8525,9 @@
       <c r="C577" s="6">
         <v>4400.64</v>
       </c>
+      <c r="D577" s="6">
+        <v>5.1527</v>
+      </c>
     </row>
     <row r="578" ht="15">
       <c r="A578" s="4">
@@ -6811,6 +8539,9 @@
       <c r="C578" s="6">
         <v>4419.15</v>
       </c>
+      <c r="D578" s="6">
+        <v>5.0682</v>
+      </c>
     </row>
     <row r="579" ht="15">
       <c r="A579" s="4">
@@ -6822,6 +8553,9 @@
       <c r="C579" s="6">
         <v>4395.26</v>
       </c>
+      <c r="D579" s="6">
+        <v>5.1216</v>
+      </c>
     </row>
     <row r="580" ht="15">
       <c r="A580" s="4">
@@ -6833,6 +8567,9 @@
       <c r="C580" s="6">
         <v>4387.16</v>
       </c>
+      <c r="D580" s="6">
+        <v>5.1379</v>
+      </c>
     </row>
     <row r="581" ht="15">
       <c r="A581" s="4">
@@ -6844,6 +8581,9 @@
       <c r="C581" s="6">
         <v>4423.15</v>
       </c>
+      <c r="D581" s="6">
+        <v>5.2464</v>
+      </c>
     </row>
     <row r="582" ht="15">
       <c r="A582" s="4">
@@ -6855,6 +8595,9 @@
       <c r="C582" s="6">
         <v>4402.66</v>
       </c>
+      <c r="D582" s="6">
+        <v>5.2091</v>
+      </c>
     </row>
     <row r="583" ht="15">
       <c r="A583" s="4">
@@ -6866,6 +8609,9 @@
       <c r="C583" s="6">
         <v>4429.1</v>
       </c>
+      <c r="D583" s="6">
+        <v>5.1464</v>
+      </c>
     </row>
     <row r="584" ht="15">
       <c r="A584" s="4">
@@ -6877,6 +8623,9 @@
       <c r="C584" s="6">
         <v>4436.52</v>
       </c>
+      <c r="D584" s="6">
+        <v>5.241</v>
+      </c>
     </row>
     <row r="585" ht="15">
       <c r="A585" s="4">
@@ -6888,6 +8637,9 @@
       <c r="C585" s="6">
         <v>4432.35</v>
       </c>
+      <c r="D585" s="6">
+        <v>5.2774</v>
+      </c>
     </row>
     <row r="586" ht="15">
       <c r="A586" s="4">
@@ -6899,6 +8651,9 @@
       <c r="C586" s="6">
         <v>4436.75</v>
       </c>
+      <c r="D586" s="6">
+        <v>5.2217</v>
+      </c>
     </row>
     <row r="587" ht="15">
       <c r="A587" s="4">
@@ -6910,6 +8665,9 @@
       <c r="C587" s="6">
         <v>4447.7</v>
       </c>
+      <c r="D587" s="6">
+        <v>5.2013</v>
+      </c>
     </row>
     <row r="588" ht="15">
       <c r="A588" s="4">
@@ -6921,6 +8679,9 @@
       <c r="C588" s="6">
         <v>4460.83</v>
       </c>
+      <c r="D588" s="6">
+        <v>5.2351</v>
+      </c>
     </row>
     <row r="589" ht="15">
       <c r="A589" s="4">
@@ -6932,6 +8693,9 @@
       <c r="C589" s="6">
         <v>4468</v>
       </c>
+      <c r="D589" s="6">
+        <v>5.2474</v>
+      </c>
     </row>
     <row r="590" ht="15">
       <c r="A590" s="4">
@@ -6943,6 +8707,9 @@
       <c r="C590" s="6">
         <v>4479.71</v>
       </c>
+      <c r="D590" s="6">
+        <v>5.2495</v>
+      </c>
     </row>
     <row r="591" ht="15">
       <c r="A591" s="4">
@@ -6954,6 +8721,9 @@
       <c r="C591" s="6">
         <v>4448.08</v>
       </c>
+      <c r="D591" s="6">
+        <v>5.2585</v>
+      </c>
     </row>
     <row r="592" ht="15">
       <c r="A592" s="4">
@@ -6965,6 +8735,9 @@
       <c r="C592" s="6">
         <v>4400.27</v>
       </c>
+      <c r="D592" s="6">
+        <v>5.3025</v>
+      </c>
     </row>
     <row r="593" ht="15">
       <c r="A593" s="4">
@@ -6976,6 +8749,9 @@
       <c r="C593" s="6">
         <v>4405.8</v>
       </c>
+      <c r="D593" s="6">
+        <v>5.418</v>
+      </c>
     </row>
     <row r="594" ht="15">
       <c r="A594" s="4">
@@ -6987,6 +8763,9 @@
       <c r="C594" s="6">
         <v>4441.67</v>
       </c>
+      <c r="D594" s="6">
+        <v>5.4274</v>
+      </c>
     </row>
     <row r="595" ht="15">
       <c r="A595" s="4">
@@ -6998,6 +8777,9 @@
       <c r="C595" s="6">
         <v>4479.53</v>
       </c>
+      <c r="D595" s="6">
+        <v>5.3686</v>
+      </c>
     </row>
     <row r="596" ht="15">
       <c r="A596" s="4">
@@ -7009,6 +8791,9 @@
       <c r="C596" s="6">
         <v>4486.23</v>
       </c>
+      <c r="D596" s="6">
+        <v>5.3017</v>
+      </c>
     </row>
     <row r="597" ht="15">
       <c r="A597" s="4">
@@ -7020,6 +8805,9 @@
       <c r="C597" s="6">
         <v>4496.19</v>
       </c>
+      <c r="D597" s="6">
+        <v>5.2465</v>
+      </c>
     </row>
     <row r="598" ht="15">
       <c r="A598" s="4">
@@ -7031,6 +8819,9 @@
       <c r="C598" s="6">
         <v>4470</v>
       </c>
+      <c r="D598" s="6">
+        <v>5.2429</v>
+      </c>
     </row>
     <row r="599" ht="15">
       <c r="A599" s="4">
@@ -7042,6 +8833,9 @@
       <c r="C599" s="6">
         <v>4509.37</v>
       </c>
+      <c r="D599" s="6">
+        <v>5.22</v>
+      </c>
     </row>
     <row r="600" ht="15">
       <c r="A600" s="4">
@@ -7053,6 +8847,9 @@
       <c r="C600" s="6">
         <v>4528.79</v>
       </c>
+      <c r="D600" s="6">
+        <v>5.1952</v>
+      </c>
     </row>
     <row r="601" ht="15">
       <c r="A601" s="4">
@@ -7064,6 +8861,9 @@
       <c r="C601" s="6">
         <v>4522.68</v>
       </c>
+      <c r="D601" s="6">
+        <v>5.1433</v>
+      </c>
     </row>
     <row r="602" ht="15">
       <c r="A602" s="4">
@@ -7075,6 +8875,9 @@
       <c r="C602" s="6">
         <v>4524.09</v>
       </c>
+      <c r="D602" s="6">
+        <v>5.1576</v>
+      </c>
     </row>
     <row r="603" ht="15">
       <c r="A603" s="4">
@@ -7086,6 +8889,9 @@
       <c r="C603" s="6">
         <v>4536.95</v>
       </c>
+      <c r="D603" s="6">
+        <v>5.1735</v>
+      </c>
     </row>
     <row r="604" ht="15">
       <c r="A604" s="4">
@@ -7097,6 +8903,9 @@
       <c r="C604" s="6">
         <v>4535.43</v>
       </c>
+      <c r="D604" s="6">
+        <v>5.1685</v>
+      </c>
     </row>
     <row r="605" ht="15">
       <c r="A605" s="4">
@@ -7106,7 +8915,10 @@
         <v>117868.63</v>
       </c>
       <c r="C605" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D605" s="6">
+        <v>5.1773</v>
       </c>
     </row>
     <row r="606" ht="15">
@@ -7114,10 +8926,13 @@
         <v>44446</v>
       </c>
       <c r="B606" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C606" s="6">
         <v>4520.03</v>
+      </c>
+      <c r="D606" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="607" ht="15">
@@ -7130,6 +8945,9 @@
       <c r="C607" s="6">
         <v>4514.07</v>
       </c>
+      <c r="D607" s="6">
+        <v>5.2524</v>
+      </c>
     </row>
     <row r="608" ht="15">
       <c r="A608" s="4">
@@ -7141,6 +8959,9 @@
       <c r="C608" s="6">
         <v>4493.28</v>
       </c>
+      <c r="D608" s="6">
+        <v>5.2825</v>
+      </c>
     </row>
     <row r="609" ht="15">
       <c r="A609" s="4">
@@ -7152,6 +8973,9 @@
       <c r="C609" s="6">
         <v>4458.58</v>
       </c>
+      <c r="D609" s="6">
+        <v>5.2158</v>
+      </c>
     </row>
     <row r="610" ht="15">
       <c r="A610" s="4">
@@ -7163,6 +8987,9 @@
       <c r="C610" s="6">
         <v>4468.73</v>
       </c>
+      <c r="D610" s="6">
+        <v>5.219</v>
+      </c>
     </row>
     <row r="611" ht="15">
       <c r="A611" s="4">
@@ -7174,6 +9001,9 @@
       <c r="C611" s="6">
         <v>4443.05</v>
       </c>
+      <c r="D611" s="6">
+        <v>5.226</v>
+      </c>
     </row>
     <row r="612" ht="15">
       <c r="A612" s="4">
@@ -7185,6 +9015,9 @@
       <c r="C612" s="6">
         <v>4480.7</v>
       </c>
+      <c r="D612" s="6">
+        <v>5.2576</v>
+      </c>
     </row>
     <row r="613" ht="15">
       <c r="A613" s="4">
@@ -7196,6 +9029,9 @@
       <c r="C613" s="6">
         <v>4473.75</v>
       </c>
+      <c r="D613" s="6">
+        <v>5.2594</v>
+      </c>
     </row>
     <row r="614" ht="15">
       <c r="A614" s="4">
@@ -7207,6 +9043,9 @@
       <c r="C614" s="6">
         <v>4432.99</v>
       </c>
+      <c r="D614" s="6">
+        <v>5.3103</v>
+      </c>
     </row>
     <row r="615" ht="15">
       <c r="A615" s="4">
@@ -7218,6 +9057,9 @@
       <c r="C615" s="6">
         <v>4357.73</v>
       </c>
+      <c r="D615" s="6">
+        <v>5.3332</v>
+      </c>
     </row>
     <row r="616" ht="15">
       <c r="A616" s="4">
@@ -7229,6 +9071,9 @@
       <c r="C616" s="6">
         <v>4354.19</v>
       </c>
+      <c r="D616" s="6">
+        <v>5.3044</v>
+      </c>
     </row>
     <row r="617" ht="15">
       <c r="A617" s="4">
@@ -7240,6 +9085,9 @@
       <c r="C617" s="6">
         <v>4395.64</v>
       </c>
+      <c r="D617" s="6">
+        <v>5.2783</v>
+      </c>
     </row>
     <row r="618" ht="15">
       <c r="A618" s="4">
@@ -7251,6 +9099,9 @@
       <c r="C618" s="6">
         <v>4448.98</v>
       </c>
+      <c r="D618" s="6">
+        <v>5.2891</v>
+      </c>
     </row>
     <row r="619" ht="15">
       <c r="A619" s="4">
@@ -7262,6 +9113,9 @@
       <c r="C619" s="6">
         <v>4455.48</v>
       </c>
+      <c r="D619" s="6">
+        <v>5.3435</v>
+      </c>
     </row>
     <row r="620" ht="15">
       <c r="A620" s="4">
@@ -7273,6 +9127,9 @@
       <c r="C620" s="6">
         <v>4443.11</v>
       </c>
+      <c r="D620" s="6">
+        <v>5.3478</v>
+      </c>
     </row>
     <row r="621" ht="15">
       <c r="A621" s="4">
@@ -7284,6 +9141,9 @@
       <c r="C621" s="6">
         <v>4352.63</v>
       </c>
+      <c r="D621" s="6">
+        <v>5.4206</v>
+      </c>
     </row>
     <row r="622" ht="15">
       <c r="A622" s="4">
@@ -7295,6 +9155,9 @@
       <c r="C622" s="6">
         <v>4359.46</v>
       </c>
+      <c r="D622" s="6">
+        <v>5.4173</v>
+      </c>
     </row>
     <row r="623" ht="15">
       <c r="A623" s="4">
@@ -7306,6 +9169,9 @@
       <c r="C623" s="6">
         <v>4307.54</v>
       </c>
+      <c r="D623" s="6">
+        <v>5.4394</v>
+      </c>
     </row>
     <row r="624" ht="15">
       <c r="A624" s="4">
@@ -7317,6 +9183,9 @@
       <c r="C624" s="6">
         <v>4357.04</v>
       </c>
+      <c r="D624" s="6">
+        <v>5.3911</v>
+      </c>
     </row>
     <row r="625" ht="15">
       <c r="A625" s="4">
@@ -7328,6 +9197,9 @@
       <c r="C625" s="6">
         <v>4300.46</v>
       </c>
+      <c r="D625" s="6">
+        <v>5.4204</v>
+      </c>
     </row>
     <row r="626" ht="15">
       <c r="A626" s="4">
@@ -7339,6 +9211,9 @@
       <c r="C626" s="6">
         <v>4345.72</v>
       </c>
+      <c r="D626" s="6">
+        <v>5.4611</v>
+      </c>
     </row>
     <row r="627" ht="15">
       <c r="A627" s="4">
@@ -7350,6 +9225,9 @@
       <c r="C627" s="6">
         <v>4363.55</v>
       </c>
+      <c r="D627" s="6">
+        <v>5.5097</v>
+      </c>
     </row>
     <row r="628" ht="15">
       <c r="A628" s="4">
@@ -7361,6 +9239,9 @@
       <c r="C628" s="6">
         <v>4399.76</v>
       </c>
+      <c r="D628" s="6">
+        <v>5.514</v>
+      </c>
     </row>
     <row r="629" ht="15">
       <c r="A629" s="4">
@@ -7372,6 +9253,9 @@
       <c r="C629" s="6">
         <v>4391.34</v>
       </c>
+      <c r="D629" s="6">
+        <v>5.5084</v>
+      </c>
     </row>
     <row r="630" ht="15">
       <c r="A630" s="4">
@@ -7383,16 +9267,22 @@
       <c r="C630" s="6">
         <v>4361.19</v>
       </c>
+      <c r="D630" s="6">
+        <v>5.5161</v>
+      </c>
     </row>
     <row r="631" ht="15">
       <c r="A631" s="4">
         <v>44481</v>
       </c>
       <c r="B631" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C631" s="6">
         <v>4350.65</v>
+      </c>
+      <c r="D631" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="632" ht="15">
@@ -7405,6 +9295,9 @@
       <c r="C632" s="6">
         <v>4363.8</v>
       </c>
+      <c r="D632" s="6">
+        <v>5.5471</v>
+      </c>
     </row>
     <row r="633" ht="15">
       <c r="A633" s="4">
@@ -7416,6 +9309,9 @@
       <c r="C633" s="6">
         <v>4438.26</v>
       </c>
+      <c r="D633" s="6">
+        <v>5.4988</v>
+      </c>
     </row>
     <row r="634" ht="15">
       <c r="A634" s="4">
@@ -7427,6 +9323,9 @@
       <c r="C634" s="6">
         <v>4471.37</v>
       </c>
+      <c r="D634" s="6">
+        <v>5.451</v>
+      </c>
     </row>
     <row r="635" ht="15">
       <c r="A635" s="4">
@@ -7438,6 +9337,9 @@
       <c r="C635" s="6">
         <v>4486.46</v>
       </c>
+      <c r="D635" s="6">
+        <v>5.5193</v>
+      </c>
     </row>
     <row r="636" ht="15">
       <c r="A636" s="4">
@@ -7449,6 +9351,9 @@
       <c r="C636" s="6">
         <v>4519.63</v>
       </c>
+      <c r="D636" s="6">
+        <v>5.5521</v>
+      </c>
     </row>
     <row r="637" ht="15">
       <c r="A637" s="4">
@@ -7460,6 +9365,9 @@
       <c r="C637" s="6">
         <v>4536.19</v>
       </c>
+      <c r="D637" s="6">
+        <v>5.5571</v>
+      </c>
     </row>
     <row r="638" ht="15">
       <c r="A638" s="4">
@@ -7471,6 +9379,9 @@
       <c r="C638" s="6">
         <v>4549.78</v>
       </c>
+      <c r="D638" s="6">
+        <v>5.6423</v>
+      </c>
     </row>
     <row r="639" ht="15">
       <c r="A639" s="4">
@@ -7482,6 +9393,9 @@
       <c r="C639" s="6">
         <v>4544.9</v>
       </c>
+      <c r="D639" s="6">
+        <v>5.7117</v>
+      </c>
     </row>
     <row r="640" ht="15">
       <c r="A640" s="4">
@@ -7493,6 +9407,9 @@
       <c r="C640" s="6">
         <v>4566.48</v>
       </c>
+      <c r="D640" s="6">
+        <v>5.5973</v>
+      </c>
     </row>
     <row r="641" ht="15">
       <c r="A641" s="4">
@@ -7504,6 +9421,9 @@
       <c r="C641" s="6">
         <v>4574.79</v>
       </c>
+      <c r="D641" s="6">
+        <v>5.58</v>
+      </c>
     </row>
     <row r="642" ht="15">
       <c r="A642" s="4">
@@ -7515,6 +9435,9 @@
       <c r="C642" s="6">
         <v>4551.68</v>
       </c>
+      <c r="D642" s="6">
+        <v>5.5667</v>
+      </c>
     </row>
     <row r="643" ht="15">
       <c r="A643" s="4">
@@ -7526,6 +9449,9 @@
       <c r="C643" s="6">
         <v>4596.42</v>
       </c>
+      <c r="D643" s="6">
+        <v>5.6124</v>
+      </c>
     </row>
     <row r="644" ht="15">
       <c r="A644" s="4">
@@ -7537,6 +9463,9 @@
       <c r="C644" s="6">
         <v>4605.38</v>
       </c>
+      <c r="D644" s="6">
+        <v>5.643</v>
+      </c>
     </row>
     <row r="645" ht="15">
       <c r="A645" s="4">
@@ -7548,16 +9477,22 @@
       <c r="C645" s="6">
         <v>4613.67</v>
       </c>
+      <c r="D645" s="6">
+        <v>5.6694</v>
+      </c>
     </row>
     <row r="646" ht="15">
       <c r="A646" s="4">
         <v>44502</v>
       </c>
       <c r="B646" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C646" s="6">
         <v>4630.65</v>
+      </c>
+      <c r="D646" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="647" ht="15">
@@ -7570,6 +9505,9 @@
       <c r="C647" s="6">
         <v>4660.57</v>
       </c>
+      <c r="D647" s="6">
+        <v>5.6672</v>
+      </c>
     </row>
     <row r="648" ht="15">
       <c r="A648" s="4">
@@ -7581,6 +9519,9 @@
       <c r="C648" s="6">
         <v>4680.06</v>
       </c>
+      <c r="D648" s="6">
+        <v>5.5942</v>
+      </c>
     </row>
     <row r="649" ht="15">
       <c r="A649" s="4">
@@ -7592,6 +9533,9 @@
       <c r="C649" s="6">
         <v>4697.53</v>
       </c>
+      <c r="D649" s="6">
+        <v>5.5455</v>
+      </c>
     </row>
     <row r="650" ht="15">
       <c r="A650" s="4">
@@ -7603,6 +9547,9 @@
       <c r="C650" s="6">
         <v>4701.7</v>
       </c>
+      <c r="D650" s="6">
+        <v>5.5627</v>
+      </c>
     </row>
     <row r="651" ht="15">
       <c r="A651" s="4">
@@ -7614,6 +9561,9 @@
       <c r="C651" s="6">
         <v>4685.25</v>
       </c>
+      <c r="D651" s="6">
+        <v>5.4957</v>
+      </c>
     </row>
     <row r="652" ht="15">
       <c r="A652" s="4">
@@ -7625,6 +9575,9 @@
       <c r="C652" s="6">
         <v>4646.71</v>
       </c>
+      <c r="D652" s="6">
+        <v>5.459</v>
+      </c>
     </row>
     <row r="653" ht="15">
       <c r="A653" s="4">
@@ -7636,6 +9589,9 @@
       <c r="C653" s="6">
         <v>4649.27</v>
       </c>
+      <c r="D653" s="6">
+        <v>5.4171</v>
+      </c>
     </row>
     <row r="654" ht="15">
       <c r="A654" s="4">
@@ -7647,16 +9603,22 @@
       <c r="C654" s="6">
         <v>4682.85</v>
       </c>
+      <c r="D654" s="6">
+        <v>5.4199</v>
+      </c>
     </row>
     <row r="655" ht="15">
       <c r="A655" s="4">
         <v>44515</v>
       </c>
       <c r="B655" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C655" s="6">
         <v>4682.8</v>
+      </c>
+      <c r="D655" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="656" ht="15">
@@ -7669,6 +9631,9 @@
       <c r="C656" s="6">
         <v>4700.9</v>
       </c>
+      <c r="D656" s="6">
+        <v>5.4772</v>
+      </c>
     </row>
     <row r="657" ht="15">
       <c r="A657" s="4">
@@ -7680,6 +9645,9 @@
       <c r="C657" s="6">
         <v>4688.67</v>
       </c>
+      <c r="D657" s="6">
+        <v>5.4993</v>
+      </c>
     </row>
     <row r="658" ht="15">
       <c r="A658" s="4">
@@ -7691,6 +9659,9 @@
       <c r="C658" s="6">
         <v>4704.54</v>
       </c>
+      <c r="D658" s="6">
+        <v>5.547</v>
+      </c>
     </row>
     <row r="659" ht="15">
       <c r="A659" s="4">
@@ -7702,6 +9673,9 @@
       <c r="C659" s="6">
         <v>4697.96</v>
       </c>
+      <c r="D659" s="6">
+        <v>5.5584</v>
+      </c>
     </row>
     <row r="660" ht="15">
       <c r="A660" s="4">
@@ -7713,6 +9687,9 @@
       <c r="C660" s="6">
         <v>4682.58</v>
       </c>
+      <c r="D660" s="6">
+        <v>5.5841</v>
+      </c>
     </row>
     <row r="661" ht="15">
       <c r="A661" s="4">
@@ -7724,6 +9701,9 @@
       <c r="C661" s="6">
         <v>4690.7</v>
       </c>
+      <c r="D661" s="6">
+        <v>5.6456</v>
+      </c>
     </row>
     <row r="662" ht="15">
       <c r="A662" s="4">
@@ -7735,6 +9715,9 @@
       <c r="C662" s="6">
         <v>4701.46</v>
       </c>
+      <c r="D662" s="6">
+        <v>5.6027</v>
+      </c>
     </row>
     <row r="663" ht="15">
       <c r="A663" s="4">
@@ -7744,7 +9727,10 @@
         <v>105811.25</v>
       </c>
       <c r="C663" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D663" s="6">
+        <v>5.574</v>
       </c>
     </row>
     <row r="664" ht="15">
@@ -7757,6 +9743,9 @@
       <c r="C664" s="6">
         <v>4594.62</v>
       </c>
+      <c r="D664" s="6">
+        <v>5.5865</v>
+      </c>
     </row>
     <row r="665" ht="15">
       <c r="A665" s="4">
@@ -7768,6 +9757,9 @@
       <c r="C665" s="6">
         <v>4655.27</v>
       </c>
+      <c r="D665" s="6">
+        <v>5.6118</v>
+      </c>
     </row>
     <row r="666" ht="15">
       <c r="A666" s="4">
@@ -7779,6 +9771,9 @@
       <c r="C666" s="6">
         <v>4567</v>
       </c>
+      <c r="D666" s="6">
+        <v>5.6199</v>
+      </c>
     </row>
     <row r="667" ht="15">
       <c r="A667" s="4">
@@ -7790,6 +9785,9 @@
       <c r="C667" s="6">
         <v>4513.04</v>
       </c>
+      <c r="D667" s="6">
+        <v>5.6168</v>
+      </c>
     </row>
     <row r="668" ht="15">
       <c r="A668" s="4">
@@ -7801,6 +9799,9 @@
       <c r="C668" s="6">
         <v>4577.1</v>
       </c>
+      <c r="D668" s="6">
+        <v>5.6345</v>
+      </c>
     </row>
     <row r="669" ht="15">
       <c r="A669" s="4">
@@ -7812,6 +9813,9 @@
       <c r="C669" s="6">
         <v>4538.43</v>
       </c>
+      <c r="D669" s="6">
+        <v>5.6432</v>
+      </c>
     </row>
     <row r="670" ht="15">
       <c r="A670" s="4">
@@ -7823,6 +9827,9 @@
       <c r="C670" s="6">
         <v>4591.67</v>
       </c>
+      <c r="D670" s="6">
+        <v>5.6877</v>
+      </c>
     </row>
     <row r="671" ht="15">
       <c r="A671" s="4">
@@ -7834,6 +9841,9 @@
       <c r="C671" s="6">
         <v>4686.75</v>
       </c>
+      <c r="D671" s="6">
+        <v>5.6411</v>
+      </c>
     </row>
     <row r="672" ht="15">
       <c r="A672" s="4">
@@ -7845,6 +9855,9 @@
       <c r="C672" s="6">
         <v>4701.21</v>
       </c>
+      <c r="D672" s="6">
+        <v>5.5779</v>
+      </c>
     </row>
     <row r="673" ht="15">
       <c r="A673" s="4">
@@ -7856,6 +9869,9 @@
       <c r="C673" s="6">
         <v>4667.45</v>
       </c>
+      <c r="D673" s="6">
+        <v>5.5564</v>
+      </c>
     </row>
     <row r="674" ht="15">
       <c r="A674" s="4">
@@ -7867,6 +9883,9 @@
       <c r="C674" s="6">
         <v>4712.02</v>
       </c>
+      <c r="D674" s="6">
+        <v>5.5931</v>
+      </c>
     </row>
     <row r="675" ht="15">
       <c r="A675" s="4">
@@ -7878,6 +9897,9 @@
       <c r="C675" s="6">
         <v>4668.97</v>
       </c>
+      <c r="D675" s="6">
+        <v>5.6357</v>
+      </c>
     </row>
     <row r="676" ht="15">
       <c r="A676" s="4">
@@ -7889,6 +9911,9 @@
       <c r="C676" s="6">
         <v>4634.09</v>
       </c>
+      <c r="D676" s="6">
+        <v>5.6461</v>
+      </c>
     </row>
     <row r="677" ht="15">
       <c r="A677" s="4">
@@ -7900,6 +9925,9 @@
       <c r="C677" s="6">
         <v>4709.85</v>
       </c>
+      <c r="D677" s="6">
+        <v>5.7127</v>
+      </c>
     </row>
     <row r="678" ht="15">
       <c r="A678" s="4">
@@ -7911,6 +9939,9 @@
       <c r="C678" s="6">
         <v>4668.67</v>
       </c>
+      <c r="D678" s="6">
+        <v>5.6963</v>
+      </c>
     </row>
     <row r="679" ht="15">
       <c r="A679" s="4">
@@ -7922,6 +9953,9 @@
       <c r="C679" s="6">
         <v>4620.64</v>
       </c>
+      <c r="D679" s="6">
+        <v>5.6959</v>
+      </c>
     </row>
     <row r="680" ht="15">
       <c r="A680" s="4">
@@ -7933,6 +9967,9 @@
       <c r="C680" s="6">
         <v>4568.02</v>
       </c>
+      <c r="D680" s="6">
+        <v>5.7055</v>
+      </c>
     </row>
     <row r="681" ht="15">
       <c r="A681" s="4">
@@ -7944,6 +9981,9 @@
       <c r="C681" s="6">
         <v>4649.23</v>
       </c>
+      <c r="D681" s="6">
+        <v>5.7372</v>
+      </c>
     </row>
     <row r="682" ht="15">
       <c r="A682" s="4">
@@ -7955,6 +9995,9 @@
       <c r="C682" s="6">
         <v>4696.56</v>
       </c>
+      <c r="D682" s="6">
+        <v>5.7201</v>
+      </c>
     </row>
     <row r="683" ht="15">
       <c r="A683" s="4">
@@ -7966,16 +10009,22 @@
       <c r="C683" s="6">
         <v>4725.79</v>
       </c>
+      <c r="D683" s="6">
+        <v>5.691</v>
+      </c>
     </row>
     <row r="684" ht="15">
       <c r="A684" s="4">
         <v>44554</v>
       </c>
       <c r="B684" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C684" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D684" s="6">
+        <v>5.6591</v>
       </c>
     </row>
     <row r="685" ht="15">
@@ -7988,6 +10037,9 @@
       <c r="C685" s="6">
         <v>4791.19</v>
       </c>
+      <c r="D685" s="6">
+        <v>5.665</v>
+      </c>
     </row>
     <row r="686" ht="15">
       <c r="A686" s="4">
@@ -7999,6 +10051,9 @@
       <c r="C686" s="6">
         <v>4786.35</v>
       </c>
+      <c r="D686" s="6">
+        <v>5.6438</v>
+      </c>
     </row>
     <row r="687" ht="15">
       <c r="A687" s="4">
@@ -8010,6 +10065,9 @@
       <c r="C687" s="6">
         <v>4793.06</v>
       </c>
+      <c r="D687" s="6">
+        <v>5.6619</v>
+      </c>
     </row>
     <row r="688" ht="15">
       <c r="A688" s="4">
@@ -8021,16 +10079,22 @@
       <c r="C688" s="6">
         <v>4778.73</v>
       </c>
+      <c r="D688" s="6">
+        <v>5.5805</v>
+      </c>
     </row>
     <row r="689" ht="15">
       <c r="A689" s="4">
         <v>44561</v>
       </c>
       <c r="B689" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C689" s="6">
         <v>4766.18</v>
+      </c>
+      <c r="D689" s="6">
+        <v>5.5805</v>
       </c>
     </row>
     <row r="690" ht="15">
@@ -8043,6 +10107,9 @@
       <c r="C690" s="6">
         <v>4796.56</v>
       </c>
+      <c r="D690" s="6">
+        <v>5.6309</v>
+      </c>
     </row>
     <row r="691" ht="15">
       <c r="A691" s="4">
@@ -8054,6 +10121,9 @@
       <c r="C691" s="6">
         <v>4793.54</v>
       </c>
+      <c r="D691" s="6">
+        <v>5.6776</v>
+      </c>
     </row>
     <row r="692" ht="15">
       <c r="A692" s="4">
@@ -8065,6 +10135,9 @@
       <c r="C692" s="6">
         <v>4700.58</v>
       </c>
+      <c r="D692" s="6">
+        <v>5.6628</v>
+      </c>
     </row>
     <row r="693" ht="15">
       <c r="A693" s="4">
@@ -8076,6 +10149,9 @@
       <c r="C693" s="6">
         <v>4696.05</v>
       </c>
+      <c r="D693" s="6">
+        <v>5.7042</v>
+      </c>
     </row>
     <row r="694" ht="15">
       <c r="A694" s="4">
@@ -8087,6 +10163,9 @@
       <c r="C694" s="6">
         <v>4677.03</v>
       </c>
+      <c r="D694" s="6">
+        <v>5.6753</v>
+      </c>
     </row>
     <row r="695" ht="15">
       <c r="A695" s="4">
@@ -8098,6 +10177,9 @@
       <c r="C695" s="6">
         <v>4670.29</v>
       </c>
+      <c r="D695" s="6">
+        <v>5.6736</v>
+      </c>
     </row>
     <row r="696" ht="15">
       <c r="A696" s="4">
@@ -8109,6 +10191,9 @@
       <c r="C696" s="6">
         <v>4713.07</v>
       </c>
+      <c r="D696" s="6">
+        <v>5.6351</v>
+      </c>
     </row>
     <row r="697" ht="15">
       <c r="A697" s="4">
@@ -8120,6 +10205,9 @@
       <c r="C697" s="6">
         <v>4726.35</v>
       </c>
+      <c r="D697" s="6">
+        <v>5.5611</v>
+      </c>
     </row>
     <row r="698" ht="15">
       <c r="A698" s="4">
@@ -8131,6 +10219,9 @@
       <c r="C698" s="6">
         <v>4659.03</v>
       </c>
+      <c r="D698" s="6">
+        <v>5.5246</v>
+      </c>
     </row>
     <row r="699" ht="15">
       <c r="A699" s="4">
@@ -8142,6 +10233,9 @@
       <c r="C699" s="6">
         <v>4662.85</v>
       </c>
+      <c r="D699" s="6">
+        <v>5.5349</v>
+      </c>
     </row>
     <row r="700" ht="15">
       <c r="A700" s="4">
@@ -8151,7 +10245,10 @@
         <v>106373.87</v>
       </c>
       <c r="C700" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D700" s="6">
+        <v>5.5058</v>
       </c>
     </row>
     <row r="701" ht="15">
@@ -8164,6 +10261,9 @@
       <c r="C701" s="6">
         <v>4577.11</v>
       </c>
+      <c r="D701" s="6">
+        <v>5.5213</v>
+      </c>
     </row>
     <row r="702" ht="15">
       <c r="A702" s="4">
@@ -8175,6 +10275,9 @@
       <c r="C702" s="6">
         <v>4532.76</v>
       </c>
+      <c r="D702" s="6">
+        <v>5.4978</v>
+      </c>
     </row>
     <row r="703" ht="15">
       <c r="A703" s="4">
@@ -8186,6 +10289,9 @@
       <c r="C703" s="6">
         <v>4482.73</v>
       </c>
+      <c r="D703" s="6">
+        <v>5.4166</v>
+      </c>
     </row>
     <row r="704" ht="15">
       <c r="A704" s="4">
@@ -8197,6 +10303,9 @@
       <c r="C704" s="6">
         <v>4397.94</v>
       </c>
+      <c r="D704" s="6">
+        <v>5.4401</v>
+      </c>
     </row>
     <row r="705" ht="15">
       <c r="A705" s="4">
@@ -8208,6 +10317,9 @@
       <c r="C705" s="6">
         <v>4410.13</v>
       </c>
+      <c r="D705" s="6">
+        <v>5.491</v>
+      </c>
     </row>
     <row r="706" ht="15">
       <c r="A706" s="4">
@@ -8219,6 +10331,9 @@
       <c r="C706" s="6">
         <v>4356.45</v>
       </c>
+      <c r="D706" s="6">
+        <v>5.4971</v>
+      </c>
     </row>
     <row r="707" ht="15">
       <c r="A707" s="4">
@@ -8230,6 +10345,9 @@
       <c r="C707" s="6">
         <v>4349.93</v>
       </c>
+      <c r="D707" s="6">
+        <v>5.4324</v>
+      </c>
     </row>
     <row r="708" ht="15">
       <c r="A708" s="4">
@@ -8241,6 +10359,9 @@
       <c r="C708" s="6">
         <v>4326.51</v>
       </c>
+      <c r="D708" s="6">
+        <v>5.3812</v>
+      </c>
     </row>
     <row r="709" ht="15">
       <c r="A709" s="4">
@@ -8252,6 +10373,9 @@
       <c r="C709" s="6">
         <v>4431.85</v>
       </c>
+      <c r="D709" s="6">
+        <v>5.3954</v>
+      </c>
     </row>
     <row r="710" ht="15">
       <c r="A710" s="4">
@@ -8263,6 +10387,9 @@
       <c r="C710" s="6">
         <v>4515.55</v>
       </c>
+      <c r="D710" s="6">
+        <v>5.3574</v>
+      </c>
     </row>
     <row r="711" ht="15">
       <c r="A711" s="4">
@@ -8274,6 +10401,9 @@
       <c r="C711" s="6">
         <v>4546.54</v>
       </c>
+      <c r="D711" s="6">
+        <v>5.281</v>
+      </c>
     </row>
     <row r="712" ht="15">
       <c r="A712" s="4">
@@ -8285,6 +10415,9 @@
       <c r="C712" s="6">
         <v>4589.38</v>
       </c>
+      <c r="D712" s="6">
+        <v>5.2956</v>
+      </c>
     </row>
     <row r="713" ht="15">
       <c r="A713" s="4">
@@ -8296,6 +10429,9 @@
       <c r="C713" s="6">
         <v>4477.44</v>
       </c>
+      <c r="D713" s="6">
+        <v>5.3025</v>
+      </c>
     </row>
     <row r="714" ht="15">
       <c r="A714" s="4">
@@ -8307,6 +10443,9 @@
       <c r="C714" s="6">
         <v>4500.53</v>
       </c>
+      <c r="D714" s="6">
+        <v>5.3284</v>
+      </c>
     </row>
     <row r="715" ht="15">
       <c r="A715" s="4">
@@ -8318,6 +10457,9 @@
       <c r="C715" s="6">
         <v>4483.87</v>
       </c>
+      <c r="D715" s="6">
+        <v>5.2913</v>
+      </c>
     </row>
     <row r="716" ht="15">
       <c r="A716" s="4">
@@ -8329,6 +10471,9 @@
       <c r="C716" s="6">
         <v>4521.54</v>
       </c>
+      <c r="D716" s="6">
+        <v>5.2699</v>
+      </c>
     </row>
     <row r="717" ht="15">
       <c r="A717" s="4">
@@ -8340,6 +10485,9 @@
       <c r="C717" s="6">
         <v>4587.18</v>
       </c>
+      <c r="D717" s="6">
+        <v>5.2735</v>
+      </c>
     </row>
     <row r="718" ht="15">
       <c r="A718" s="4">
@@ -8351,6 +10499,9 @@
       <c r="C718" s="6">
         <v>4504.08</v>
       </c>
+      <c r="D718" s="6">
+        <v>5.2101</v>
+      </c>
     </row>
     <row r="719" ht="15">
       <c r="A719" s="4">
@@ -8362,6 +10513,9 @@
       <c r="C719" s="6">
         <v>4418.64</v>
       </c>
+      <c r="D719" s="6">
+        <v>5.1987</v>
+      </c>
     </row>
     <row r="720" ht="15">
       <c r="A720" s="4">
@@ -8373,6 +10527,9 @@
       <c r="C720" s="6">
         <v>4401.67</v>
       </c>
+      <c r="D720" s="6">
+        <v>5.2106</v>
+      </c>
     </row>
     <row r="721" ht="15">
       <c r="A721" s="4">
@@ -8384,6 +10541,9 @@
       <c r="C721" s="6">
         <v>4471.07</v>
       </c>
+      <c r="D721" s="6">
+        <v>5.1881</v>
+      </c>
     </row>
     <row r="722" ht="15">
       <c r="A722" s="4">
@@ -8395,6 +10555,9 @@
       <c r="C722" s="6">
         <v>4475.01</v>
       </c>
+      <c r="D722" s="6">
+        <v>5.163</v>
+      </c>
     </row>
     <row r="723" ht="15">
       <c r="A723" s="4">
@@ -8406,6 +10569,9 @@
       <c r="C723" s="6">
         <v>4380.26</v>
       </c>
+      <c r="D723" s="6">
+        <v>5.1565</v>
+      </c>
     </row>
     <row r="724" ht="15">
       <c r="A724" s="4">
@@ -8417,6 +10583,9 @@
       <c r="C724" s="6">
         <v>4348.87</v>
       </c>
+      <c r="D724" s="6">
+        <v>5.1339</v>
+      </c>
     </row>
     <row r="725" ht="15">
       <c r="A725" s="4">
@@ -8426,7 +10595,10 @@
         <v>111725.3</v>
       </c>
       <c r="C725" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D725" s="6">
+        <v>5.0997</v>
       </c>
     </row>
     <row r="726" ht="15">
@@ -8439,6 +10611,9 @@
       <c r="C726" s="6">
         <v>4304.76</v>
       </c>
+      <c r="D726" s="6">
+        <v>5.0611</v>
+      </c>
     </row>
     <row r="727" ht="15">
       <c r="A727" s="4">
@@ -8450,6 +10625,9 @@
       <c r="C727" s="6">
         <v>4225.5</v>
       </c>
+      <c r="D727" s="6">
+        <v>5.0143</v>
+      </c>
     </row>
     <row r="728" ht="15">
       <c r="A728" s="4">
@@ -8461,6 +10639,9 @@
       <c r="C728" s="6">
         <v>4288.7</v>
       </c>
+      <c r="D728" s="6">
+        <v>5.1174</v>
+      </c>
     </row>
     <row r="729" ht="15">
       <c r="A729" s="4">
@@ -8472,16 +10653,22 @@
       <c r="C729" s="6">
         <v>4384.65</v>
       </c>
+      <c r="D729" s="6">
+        <v>5.1394</v>
+      </c>
     </row>
     <row r="730" ht="15">
       <c r="A730" s="4">
         <v>44620</v>
       </c>
       <c r="B730" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C730" s="6">
         <v>4373.94</v>
+      </c>
+      <c r="D730" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="731" ht="15">
@@ -8489,10 +10676,13 @@
         <v>44621</v>
       </c>
       <c r="B731" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C731" s="6">
         <v>4306.26</v>
+      </c>
+      <c r="D731" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="732" ht="15">
@@ -8505,6 +10695,9 @@
       <c r="C732" s="6">
         <v>4386.54</v>
       </c>
+      <c r="D732" s="6">
+        <v>5.1347</v>
+      </c>
     </row>
     <row r="733" ht="15">
       <c r="A733" s="4">
@@ -8516,6 +10709,9 @@
       <c r="C733" s="6">
         <v>4363.49</v>
       </c>
+      <c r="D733" s="6">
+        <v>5.0479</v>
+      </c>
     </row>
     <row r="734" ht="15">
       <c r="A734" s="4">
@@ -8527,6 +10723,9 @@
       <c r="C734" s="6">
         <v>4328.87</v>
       </c>
+      <c r="D734" s="6">
+        <v>5.0758</v>
+      </c>
     </row>
     <row r="735" ht="15">
       <c r="A735" s="4">
@@ -8538,6 +10737,9 @@
       <c r="C735" s="6">
         <v>4201.09</v>
       </c>
+      <c r="D735" s="6">
+        <v>5.0579</v>
+      </c>
     </row>
     <row r="736" ht="15">
       <c r="A736" s="4">
@@ -8549,6 +10751,9 @@
       <c r="C736" s="6">
         <v>4170.7</v>
       </c>
+      <c r="D736" s="6">
+        <v>5.0903</v>
+      </c>
     </row>
     <row r="737" ht="15">
       <c r="A737" s="4">
@@ -8560,6 +10765,9 @@
       <c r="C737" s="6">
         <v>4277.88</v>
       </c>
+      <c r="D737" s="6">
+        <v>5.0094</v>
+      </c>
     </row>
     <row r="738" ht="15">
       <c r="A738" s="4">
@@ -8571,6 +10779,9 @@
       <c r="C738" s="6">
         <v>4259.52</v>
       </c>
+      <c r="D738" s="6">
+        <v>5.0513</v>
+      </c>
     </row>
     <row r="739" ht="15">
       <c r="A739" s="4">
@@ -8582,6 +10793,9 @@
       <c r="C739" s="6">
         <v>4204.31</v>
       </c>
+      <c r="D739" s="6">
+        <v>5.0255</v>
+      </c>
     </row>
     <row r="740" ht="15">
       <c r="A740" s="4">
@@ -8593,6 +10807,9 @@
       <c r="C740" s="6">
         <v>4173.11</v>
       </c>
+      <c r="D740" s="6">
+        <v>5.0647</v>
+      </c>
     </row>
     <row r="741" ht="15">
       <c r="A741" s="4">
@@ -8604,6 +10821,9 @@
       <c r="C741" s="6">
         <v>4262.45</v>
       </c>
+      <c r="D741" s="6">
+        <v>5.1314</v>
+      </c>
     </row>
     <row r="742" ht="15">
       <c r="A742" s="4">
@@ -8615,6 +10835,9 @@
       <c r="C742" s="6">
         <v>4357.86</v>
       </c>
+      <c r="D742" s="6">
+        <v>5.1287</v>
+      </c>
     </row>
     <row r="743" ht="15">
       <c r="A743" s="4">
@@ -8626,6 +10849,9 @@
       <c r="C743" s="6">
         <v>4411.67</v>
       </c>
+      <c r="D743" s="6">
+        <v>5.0764</v>
+      </c>
     </row>
     <row r="744" ht="15">
       <c r="A744" s="4">
@@ -8637,6 +10863,9 @@
       <c r="C744" s="6">
         <v>4463.12</v>
       </c>
+      <c r="D744" s="6">
+        <v>5.0411</v>
+      </c>
     </row>
     <row r="745" ht="15">
       <c r="A745" s="4">
@@ -8648,6 +10877,9 @@
       <c r="C745" s="6">
         <v>4461.18</v>
       </c>
+      <c r="D745" s="6">
+        <v>4.9666</v>
+      </c>
     </row>
     <row r="746" ht="15">
       <c r="A746" s="4">
@@ -8659,6 +10891,9 @@
       <c r="C746" s="6">
         <v>4511.61</v>
       </c>
+      <c r="D746" s="6">
+        <v>4.9208</v>
+      </c>
     </row>
     <row r="747" ht="15">
       <c r="A747" s="4">
@@ -8670,6 +10905,9 @@
       <c r="C747" s="6">
         <v>4456.24</v>
       </c>
+      <c r="D747" s="6">
+        <v>4.8704</v>
+      </c>
     </row>
     <row r="748" ht="15">
       <c r="A748" s="4">
@@ -8681,6 +10919,9 @@
       <c r="C748" s="6">
         <v>4520.16</v>
       </c>
+      <c r="D748" s="6">
+        <v>4.8067</v>
+      </c>
     </row>
     <row r="749" ht="15">
       <c r="A749" s="4">
@@ -8692,6 +10933,9 @@
       <c r="C749" s="6">
         <v>4543.06</v>
       </c>
+      <c r="D749" s="6">
+        <v>4.7782</v>
+      </c>
     </row>
     <row r="750" ht="15">
       <c r="A750" s="4">
@@ -8703,6 +10947,9 @@
       <c r="C750" s="6">
         <v>4575.52</v>
       </c>
+      <c r="D750" s="6">
+        <v>4.7905</v>
+      </c>
     </row>
     <row r="751" ht="15">
       <c r="A751" s="4">
@@ -8714,6 +10961,9 @@
       <c r="C751" s="6">
         <v>4631.6</v>
       </c>
+      <c r="D751" s="6">
+        <v>4.7486</v>
+      </c>
     </row>
     <row r="752" ht="15">
       <c r="A752" s="4">
@@ -8725,6 +10975,9 @@
       <c r="C752" s="6">
         <v>4602.45</v>
       </c>
+      <c r="D752" s="6">
+        <v>4.7497</v>
+      </c>
     </row>
     <row r="753" ht="15">
       <c r="A753" s="4">
@@ -8736,6 +10989,9 @@
       <c r="C753" s="6">
         <v>4530.41</v>
       </c>
+      <c r="D753" s="6">
+        <v>4.7378</v>
+      </c>
     </row>
     <row r="754" ht="15">
       <c r="A754" s="4">
@@ -8747,6 +11003,9 @@
       <c r="C754" s="6">
         <v>4545.86</v>
       </c>
+      <c r="D754" s="6">
+        <v>4.6984</v>
+      </c>
     </row>
     <row r="755" ht="15">
       <c r="A755" s="4">
@@ -8758,6 +11017,9 @@
       <c r="C755" s="6">
         <v>4582.64</v>
       </c>
+      <c r="D755" s="6">
+        <v>4.6175</v>
+      </c>
     </row>
     <row r="756" ht="15">
       <c r="A756" s="4">
@@ -8769,6 +11031,9 @@
       <c r="C756" s="6">
         <v>4525.12</v>
       </c>
+      <c r="D756" s="6">
+        <v>4.64</v>
+      </c>
     </row>
     <row r="757" ht="15">
       <c r="A757" s="4">
@@ -8780,6 +11045,9 @@
       <c r="C757" s="6">
         <v>4481.15</v>
       </c>
+      <c r="D757" s="6">
+        <v>4.6967</v>
+      </c>
     </row>
     <row r="758" ht="15">
       <c r="A758" s="4">
@@ -8791,6 +11059,9 @@
       <c r="C758" s="6">
         <v>4500.21</v>
       </c>
+      <c r="D758" s="6">
+        <v>4.7422</v>
+      </c>
     </row>
     <row r="759" ht="15">
       <c r="A759" s="4">
@@ -8802,6 +11073,9 @@
       <c r="C759" s="6">
         <v>4488.28</v>
       </c>
+      <c r="D759" s="6">
+        <v>4.7513</v>
+      </c>
     </row>
     <row r="760" ht="15">
       <c r="A760" s="4">
@@ -8813,6 +11087,9 @@
       <c r="C760" s="6">
         <v>4412.53</v>
       </c>
+      <c r="D760" s="6">
+        <v>4.7025</v>
+      </c>
     </row>
     <row r="761" ht="15">
       <c r="A761" s="4">
@@ -8824,6 +11101,9 @@
       <c r="C761" s="6">
         <v>4397.45</v>
       </c>
+      <c r="D761" s="6">
+        <v>4.6483</v>
+      </c>
     </row>
     <row r="762" ht="15">
       <c r="A762" s="4">
@@ -8835,6 +11115,9 @@
       <c r="C762" s="6">
         <v>4446.59</v>
       </c>
+      <c r="D762" s="6">
+        <v>4.6811</v>
+      </c>
     </row>
     <row r="763" ht="15">
       <c r="A763" s="4">
@@ -8846,16 +11129,22 @@
       <c r="C763" s="6">
         <v>4392.59</v>
       </c>
+      <c r="D763" s="6">
+        <v>4.7158</v>
+      </c>
     </row>
     <row r="764" ht="15">
       <c r="A764" s="4">
         <v>44666</v>
       </c>
       <c r="B764" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C764" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D764" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="765" ht="15">
@@ -8868,6 +11157,9 @@
       <c r="C765" s="6">
         <v>4391.69</v>
       </c>
+      <c r="D765" s="6">
+        <v>4.6746</v>
+      </c>
     </row>
     <row r="766" ht="15">
       <c r="A766" s="4">
@@ -8879,6 +11171,9 @@
       <c r="C766" s="6">
         <v>4462.21</v>
       </c>
+      <c r="D766" s="6">
+        <v>4.6664</v>
+      </c>
     </row>
     <row r="767" ht="15">
       <c r="A767" s="4">
@@ -8890,16 +11185,22 @@
       <c r="C767" s="6">
         <v>4459.45</v>
       </c>
+      <c r="D767" s="6">
+        <v>4.6397</v>
+      </c>
     </row>
     <row r="768" ht="15">
       <c r="A768" s="4">
         <v>44672</v>
       </c>
       <c r="B768" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C768" s="6">
         <v>4393.66</v>
+      </c>
+      <c r="D768" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="769" ht="15">
@@ -8912,6 +11213,9 @@
       <c r="C769" s="6">
         <v>4271.78</v>
       </c>
+      <c r="D769" s="6">
+        <v>4.7326</v>
+      </c>
     </row>
     <row r="770" ht="15">
       <c r="A770" s="4">
@@ -8923,6 +11227,9 @@
       <c r="C770" s="6">
         <v>4296.12</v>
       </c>
+      <c r="D770" s="6">
+        <v>4.8818</v>
+      </c>
     </row>
     <row r="771" ht="15">
       <c r="A771" s="4">
@@ -8934,6 +11241,9 @@
       <c r="C771" s="6">
         <v>4175.2</v>
       </c>
+      <c r="D771" s="6">
+        <v>4.9666</v>
+      </c>
     </row>
     <row r="772" ht="15">
       <c r="A772" s="4">
@@ -8945,6 +11255,9 @@
       <c r="C772" s="6">
         <v>4183.96</v>
       </c>
+      <c r="D772" s="6">
+        <v>5.0167</v>
+      </c>
     </row>
     <row r="773" ht="15">
       <c r="A773" s="4">
@@ -8956,6 +11269,9 @@
       <c r="C773" s="6">
         <v>4287.5</v>
       </c>
+      <c r="D773" s="6">
+        <v>5.011</v>
+      </c>
     </row>
     <row r="774" ht="15">
       <c r="A774" s="4">
@@ -8967,6 +11283,9 @@
       <c r="C774" s="6">
         <v>4131.93</v>
       </c>
+      <c r="D774" s="6">
+        <v>4.9191</v>
+      </c>
     </row>
     <row r="775" ht="15">
       <c r="A775" s="4">
@@ -8978,6 +11297,9 @@
       <c r="C775" s="6">
         <v>4155.38</v>
       </c>
+      <c r="D775" s="6">
+        <v>5.0266</v>
+      </c>
     </row>
     <row r="776" ht="15">
       <c r="A776" s="4">
@@ -8989,6 +11311,9 @@
       <c r="C776" s="6">
         <v>4175.48</v>
       </c>
+      <c r="D776" s="6">
+        <v>5.0167</v>
+      </c>
     </row>
     <row r="777" ht="15">
       <c r="A777" s="4">
@@ -9000,6 +11325,9 @@
       <c r="C777" s="6">
         <v>4300.17</v>
       </c>
+      <c r="D777" s="6">
+        <v>5.0093</v>
+      </c>
     </row>
     <row r="778" ht="15">
       <c r="A778" s="4">
@@ -9011,6 +11339,9 @@
       <c r="C778" s="6">
         <v>4146.87</v>
       </c>
+      <c r="D778" s="6">
+        <v>5.0051</v>
+      </c>
     </row>
     <row r="779" ht="15">
       <c r="A779" s="4">
@@ -9022,6 +11353,9 @@
       <c r="C779" s="6">
         <v>4123.34</v>
       </c>
+      <c r="D779" s="6">
+        <v>5.075</v>
+      </c>
     </row>
     <row r="780" ht="15">
       <c r="A780" s="4">
@@ -9033,6 +11367,9 @@
       <c r="C780" s="6">
         <v>3991.24</v>
       </c>
+      <c r="D780" s="6">
+        <v>5.134</v>
+      </c>
     </row>
     <row r="781" ht="15">
       <c r="A781" s="4">
@@ -9044,6 +11381,9 @@
       <c r="C781" s="6">
         <v>4001.05</v>
       </c>
+      <c r="D781" s="6">
+        <v>5.139</v>
+      </c>
     </row>
     <row r="782" ht="15">
       <c r="A782" s="4">
@@ -9055,6 +11395,9 @@
       <c r="C782" s="6">
         <v>3935.18</v>
       </c>
+      <c r="D782" s="6">
+        <v>5.1244</v>
+      </c>
     </row>
     <row r="783" ht="15">
       <c r="A783" s="4">
@@ -9066,6 +11409,9 @@
       <c r="C783" s="6">
         <v>3872.74</v>
       </c>
+      <c r="D783" s="6">
+        <v>5.1482</v>
+      </c>
     </row>
     <row r="784" ht="15">
       <c r="A784" s="4">
@@ -9077,6 +11423,9 @@
       <c r="C784" s="6">
         <v>4023.89</v>
       </c>
+      <c r="D784" s="6">
+        <v>5.1075</v>
+      </c>
     </row>
     <row r="785" ht="15">
       <c r="A785" s="4">
@@ -9088,6 +11437,9 @@
       <c r="C785" s="6">
         <v>4008.01</v>
       </c>
+      <c r="D785" s="6">
+        <v>5.0666</v>
+      </c>
     </row>
     <row r="786" ht="15">
       <c r="A786" s="4">
@@ -9099,6 +11451,9 @@
       <c r="C786" s="6">
         <v>4088.85</v>
       </c>
+      <c r="D786" s="6">
+        <v>4.9676</v>
+      </c>
     </row>
     <row r="787" ht="15">
       <c r="A787" s="4">
@@ -9110,6 +11465,9 @@
       <c r="C787" s="6">
         <v>3923.68</v>
       </c>
+      <c r="D787" s="6">
+        <v>4.9592</v>
+      </c>
     </row>
     <row r="788" ht="15">
       <c r="A788" s="4">
@@ -9121,6 +11479,9 @@
       <c r="C788" s="6">
         <v>3900.79</v>
       </c>
+      <c r="D788" s="6">
+        <v>4.9198</v>
+      </c>
     </row>
     <row r="789" ht="15">
       <c r="A789" s="4">
@@ -9131,6 +11492,9 @@
       </c>
       <c r="C789" s="6">
         <v>3901.36</v>
+      </c>
+      <c r="D789" s="6">
+        <v>4.8777</v>
       </c>
     </row>
   </sheetData>
